--- a/Guild Digital/Example CHT application/forms/app/device_functionality.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/device_functionality.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -261,6 +261,18 @@
     <t xml:space="preserve">${working_condition} = 'no'</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one select_device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tablet or Charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${device_condition} = 'stolen'</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
@@ -279,7 +291,16 @@
     <t xml:space="preserve">Was the stolen device reported?</t>
   </si>
   <si>
-    <t xml:space="preserve">${device_condition} = 'stolen'</t>
+    <t xml:space="preserve">select_multiple select_any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To who?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${stolen_device_reported} =  'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">police_report_advice</t>
@@ -294,19 +315,10 @@
     <t xml:space="preserve">group_device_summary</t>
   </si>
   <si>
-    <t xml:space="preserve">Results/Summary Page:</t>
+    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_device_functionality_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device Functionality Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 red</t>
   </si>
   <si>
     <r>
@@ -336,26 +348,26 @@
     <t xml:space="preserve">s_note_vht_details</t>
   </si>
   <si>
-    <t xml:space="preserve">VHT Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
+    <t xml:space="preserve">&lt;h4 style=”text-align:center; background-color: #FFA500;”&gt;VHT Details&lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">s_vht_details</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${name}&lt;/h4&gt;
+    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;${name}&lt;/h5&gt;
 </t>
   </si>
   <si>
     <t xml:space="preserve">s_device_condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Status of the device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 blue</t>
+    <t xml:space="preserve">&lt;h4 style=”text-align:center; background-color: #ADD8E6;”&gt;Status of the device&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Okay &lt;/h5&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">s_device_condition_1</t>
@@ -531,10 +543,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">s_followup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow Up</t>
+    <t xml:space="preserve">s_device</t>
   </si>
   <si>
     <r>
@@ -545,7 +554,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">selected(${</t>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -555,17 +564,133 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">device_condition},  ‘stolen’) and selected(${stolen_device_reported},  ‘no’) </t>
+      <t xml:space="preserve">Device:  ${device}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 green</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">report</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;Reported</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:  ${to_who},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_followup</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Follow Up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h4&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">s_followup_note</t>
   </si>
   <si>
-    <t xml:space="preserve">You will  receive a devise follow-up task in due in 5 days</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You will  receive a devise follow-up task in due in 5 days </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -611,6 +736,42 @@
   </si>
   <si>
     <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charger</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -687,7 +848,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -810,7 +971,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -822,18 +983,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,8 +1006,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1040,10 +1201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B39" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1052,7 +1213,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="94.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="49.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.67"/>
   </cols>
   <sheetData>
@@ -2039,7 +2200,7 @@
       <c r="D45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G45" s="2"/>
@@ -2065,27 +2226,24 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>67</v>
+      <c r="E46" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2104,17 +2262,23 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>71</v>
+      <c r="A47" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2139,13 +2303,20 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2167,82 +2338,96 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="AME51" s="9"/>
-      <c r="AMF51" s="9"/>
-      <c r="AMG51" s="9"/>
-      <c r="AMH51" s="9"/>
-      <c r="AMI51" s="9"/>
-      <c r="AMJ51" s="9"/>
+      <c r="C51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>97</v>
+      <c r="B52" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -2265,18 +2450,17 @@
       <c r="AMI52" s="9"/>
       <c r="AMJ52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="C53" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -2299,2200 +2483,2283 @@
       <c r="AMI53" s="9"/>
       <c r="AMJ53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+    <row r="54" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>102</v>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-    </row>
-    <row r="55" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="AME54" s="9"/>
+      <c r="AMF54" s="9"/>
+      <c r="AMG54" s="9"/>
+      <c r="AMH54" s="9"/>
+      <c r="AMI54" s="9"/>
+      <c r="AMJ54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="F55" s="10"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
+      <c r="E56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E57" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
+      <c r="F57" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
+    </row>
+    <row r="59" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="12" t="s">
+      <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="s">
+      <c r="E59" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="14" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="E60" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
-      <c r="AC59" s="16"/>
-      <c r="AD59" s="16"/>
-      <c r="AE59" s="16"/>
-      <c r="AF59" s="16"/>
-      <c r="AG59" s="16"/>
-      <c r="AH59" s="16"/>
-      <c r="AI59" s="16"/>
-      <c r="AJ59" s="16"/>
-      <c r="AK59" s="16"/>
-      <c r="AL59" s="16"/>
-      <c r="AM59" s="16"/>
-      <c r="AN59" s="16"/>
-      <c r="AO59" s="16"/>
-      <c r="AP59" s="16"/>
-      <c r="AQ59" s="16"/>
-      <c r="AR59" s="16"/>
-      <c r="AS59" s="16"/>
-      <c r="AT59" s="16"/>
-      <c r="AU59" s="16"/>
-      <c r="AV59" s="16"/>
-      <c r="AW59" s="16"/>
-      <c r="AX59" s="16"/>
-      <c r="AY59" s="16"/>
-      <c r="AZ59" s="16"/>
-      <c r="BA59" s="16"/>
-      <c r="BB59" s="16"/>
-      <c r="BC59" s="16"/>
-      <c r="BD59" s="16"/>
-      <c r="BE59" s="16"/>
-      <c r="BF59" s="16"/>
-      <c r="BG59" s="16"/>
-      <c r="BH59" s="16"/>
-      <c r="BI59" s="16"/>
-      <c r="BJ59" s="16"/>
-      <c r="BK59" s="16"/>
-      <c r="BL59" s="16"/>
-      <c r="BM59" s="16"/>
-      <c r="BN59" s="16"/>
-      <c r="BO59" s="16"/>
-      <c r="BP59" s="16"/>
-      <c r="BQ59" s="16"/>
-      <c r="BR59" s="16"/>
-      <c r="BS59" s="16"/>
-      <c r="BT59" s="16"/>
-      <c r="BU59" s="16"/>
-      <c r="BV59" s="16"/>
-      <c r="BW59" s="16"/>
-      <c r="BX59" s="16"/>
-      <c r="BY59" s="16"/>
-      <c r="BZ59" s="16"/>
-      <c r="CA59" s="16"/>
-      <c r="CB59" s="16"/>
-      <c r="CC59" s="16"/>
-      <c r="CD59" s="16"/>
-      <c r="CE59" s="16"/>
-      <c r="CF59" s="16"/>
-      <c r="CG59" s="16"/>
-      <c r="CH59" s="16"/>
-      <c r="CI59" s="16"/>
-      <c r="CJ59" s="16"/>
-      <c r="CK59" s="16"/>
-      <c r="CL59" s="16"/>
-      <c r="CM59" s="16"/>
-      <c r="CN59" s="16"/>
-      <c r="CO59" s="16"/>
-      <c r="CP59" s="16"/>
-      <c r="CQ59" s="16"/>
-      <c r="CR59" s="16"/>
-      <c r="CS59" s="16"/>
-      <c r="CT59" s="16"/>
-      <c r="CU59" s="16"/>
-      <c r="CV59" s="16"/>
-      <c r="CW59" s="16"/>
-      <c r="CX59" s="16"/>
-      <c r="CY59" s="16"/>
-      <c r="CZ59" s="16"/>
-      <c r="DA59" s="16"/>
-      <c r="DB59" s="16"/>
-      <c r="DC59" s="16"/>
-      <c r="DD59" s="16"/>
-      <c r="DE59" s="16"/>
-      <c r="DF59" s="16"/>
-      <c r="DG59" s="16"/>
-      <c r="DH59" s="16"/>
-      <c r="DI59" s="16"/>
-      <c r="DJ59" s="16"/>
-      <c r="DK59" s="16"/>
-      <c r="DL59" s="16"/>
-      <c r="DM59" s="16"/>
-      <c r="DN59" s="16"/>
-      <c r="DO59" s="16"/>
-      <c r="DP59" s="16"/>
-      <c r="DQ59" s="16"/>
-      <c r="DR59" s="16"/>
-      <c r="DS59" s="16"/>
-      <c r="DT59" s="16"/>
-      <c r="DU59" s="16"/>
-      <c r="DV59" s="16"/>
-      <c r="DW59" s="16"/>
-      <c r="DX59" s="16"/>
-      <c r="DY59" s="16"/>
-      <c r="DZ59" s="16"/>
-      <c r="EA59" s="16"/>
-      <c r="EB59" s="16"/>
-      <c r="EC59" s="16"/>
-      <c r="ED59" s="16"/>
-      <c r="EE59" s="16"/>
-      <c r="EF59" s="16"/>
-      <c r="EG59" s="16"/>
-      <c r="EH59" s="16"/>
-      <c r="EI59" s="16"/>
-      <c r="EJ59" s="16"/>
-      <c r="EK59" s="16"/>
-      <c r="EL59" s="16"/>
-      <c r="EM59" s="16"/>
-      <c r="EN59" s="16"/>
-      <c r="EO59" s="16"/>
-      <c r="EP59" s="16"/>
-      <c r="EQ59" s="16"/>
-      <c r="ER59" s="16"/>
-      <c r="ES59" s="16"/>
-      <c r="ET59" s="16"/>
-      <c r="EU59" s="16"/>
-      <c r="EV59" s="16"/>
-      <c r="EW59" s="16"/>
-      <c r="EX59" s="16"/>
-      <c r="EY59" s="16"/>
-      <c r="EZ59" s="16"/>
-      <c r="FA59" s="16"/>
-      <c r="FB59" s="16"/>
-      <c r="FC59" s="16"/>
-      <c r="FD59" s="16"/>
-      <c r="FE59" s="16"/>
-      <c r="FF59" s="16"/>
-      <c r="FG59" s="16"/>
-      <c r="FH59" s="16"/>
-      <c r="FI59" s="16"/>
-      <c r="FJ59" s="16"/>
-      <c r="FK59" s="16"/>
-      <c r="FL59" s="16"/>
-      <c r="FM59" s="16"/>
-      <c r="FN59" s="16"/>
-      <c r="FO59" s="16"/>
-      <c r="FP59" s="16"/>
-      <c r="FQ59" s="16"/>
-      <c r="FR59" s="16"/>
-      <c r="FS59" s="16"/>
-      <c r="FT59" s="16"/>
-      <c r="FU59" s="16"/>
-      <c r="FV59" s="16"/>
-      <c r="FW59" s="16"/>
-      <c r="FX59" s="16"/>
-      <c r="FY59" s="16"/>
-      <c r="FZ59" s="16"/>
-      <c r="GA59" s="16"/>
-      <c r="GB59" s="16"/>
-      <c r="GC59" s="16"/>
-      <c r="GD59" s="16"/>
-      <c r="GE59" s="16"/>
-      <c r="GF59" s="16"/>
-      <c r="GG59" s="16"/>
-      <c r="GH59" s="16"/>
-      <c r="GI59" s="16"/>
-      <c r="GJ59" s="16"/>
-      <c r="GK59" s="16"/>
-      <c r="GL59" s="16"/>
-      <c r="GM59" s="16"/>
-      <c r="GN59" s="16"/>
-      <c r="GO59" s="16"/>
-      <c r="GP59" s="16"/>
-      <c r="GQ59" s="16"/>
-      <c r="GR59" s="16"/>
-      <c r="GS59" s="16"/>
-      <c r="GT59" s="16"/>
-      <c r="GU59" s="16"/>
-      <c r="GV59" s="16"/>
-      <c r="GW59" s="16"/>
-      <c r="GX59" s="16"/>
-      <c r="GY59" s="16"/>
-      <c r="GZ59" s="16"/>
-      <c r="HA59" s="16"/>
-      <c r="HB59" s="16"/>
-      <c r="HC59" s="16"/>
-      <c r="HD59" s="16"/>
-      <c r="HE59" s="16"/>
-      <c r="HF59" s="16"/>
-      <c r="HG59" s="16"/>
-      <c r="HH59" s="16"/>
-      <c r="HI59" s="16"/>
-      <c r="HJ59" s="16"/>
-      <c r="HK59" s="16"/>
-      <c r="HL59" s="16"/>
-      <c r="HM59" s="16"/>
-      <c r="HN59" s="16"/>
-      <c r="HO59" s="16"/>
-      <c r="HP59" s="16"/>
-      <c r="HQ59" s="16"/>
-      <c r="HR59" s="16"/>
-      <c r="HS59" s="16"/>
-      <c r="HT59" s="16"/>
-      <c r="HU59" s="16"/>
-      <c r="HV59" s="16"/>
-      <c r="HW59" s="16"/>
-      <c r="HX59" s="16"/>
-      <c r="HY59" s="16"/>
-      <c r="HZ59" s="16"/>
-      <c r="IA59" s="16"/>
-      <c r="IB59" s="16"/>
-      <c r="IC59" s="16"/>
-      <c r="ID59" s="16"/>
-      <c r="IE59" s="16"/>
-      <c r="IF59" s="16"/>
-      <c r="IG59" s="16"/>
-      <c r="IH59" s="16"/>
-      <c r="II59" s="16"/>
-      <c r="IJ59" s="16"/>
-      <c r="IK59" s="16"/>
-      <c r="IL59" s="16"/>
-      <c r="IM59" s="16"/>
-      <c r="IN59" s="16"/>
-      <c r="IO59" s="16"/>
-      <c r="IP59" s="16"/>
-      <c r="IQ59" s="16"/>
-      <c r="IR59" s="16"/>
-      <c r="IS59" s="16"/>
-      <c r="IT59" s="16"/>
-      <c r="IU59" s="16"/>
-      <c r="IV59" s="16"/>
-      <c r="IW59" s="16"/>
-      <c r="IX59" s="16"/>
-      <c r="IY59" s="16"/>
-      <c r="IZ59" s="16"/>
-      <c r="JA59" s="16"/>
-      <c r="JB59" s="16"/>
-      <c r="JC59" s="16"/>
-      <c r="JD59" s="16"/>
-      <c r="JE59" s="16"/>
-      <c r="JF59" s="16"/>
-      <c r="JG59" s="16"/>
-      <c r="JH59" s="16"/>
-      <c r="JI59" s="16"/>
-      <c r="JJ59" s="16"/>
-      <c r="JK59" s="16"/>
-      <c r="JL59" s="16"/>
-      <c r="JM59" s="16"/>
-      <c r="JN59" s="16"/>
-      <c r="JO59" s="16"/>
-      <c r="JP59" s="16"/>
-      <c r="JQ59" s="16"/>
-      <c r="JR59" s="16"/>
-      <c r="JS59" s="16"/>
-      <c r="JT59" s="16"/>
-      <c r="JU59" s="16"/>
-      <c r="JV59" s="16"/>
-      <c r="JW59" s="16"/>
-      <c r="JX59" s="16"/>
-      <c r="JY59" s="16"/>
-      <c r="JZ59" s="16"/>
-      <c r="KA59" s="16"/>
-      <c r="KB59" s="16"/>
-      <c r="KC59" s="16"/>
-      <c r="KD59" s="16"/>
-      <c r="KE59" s="16"/>
-      <c r="KF59" s="16"/>
-      <c r="KG59" s="16"/>
-      <c r="KH59" s="16"/>
-      <c r="KI59" s="16"/>
-      <c r="KJ59" s="16"/>
-      <c r="KK59" s="16"/>
-      <c r="KL59" s="16"/>
-      <c r="KM59" s="16"/>
-      <c r="KN59" s="16"/>
-      <c r="KO59" s="16"/>
-      <c r="KP59" s="16"/>
-      <c r="KQ59" s="16"/>
-      <c r="KR59" s="16"/>
-      <c r="KS59" s="16"/>
-      <c r="KT59" s="16"/>
-      <c r="KU59" s="16"/>
-      <c r="KV59" s="16"/>
-      <c r="KW59" s="16"/>
-      <c r="KX59" s="16"/>
-      <c r="KY59" s="16"/>
-      <c r="KZ59" s="16"/>
-      <c r="LA59" s="16"/>
-      <c r="LB59" s="16"/>
-      <c r="LC59" s="16"/>
-      <c r="LD59" s="16"/>
-      <c r="LE59" s="16"/>
-      <c r="LF59" s="16"/>
-      <c r="LG59" s="16"/>
-      <c r="LH59" s="16"/>
-      <c r="LI59" s="16"/>
-      <c r="LJ59" s="16"/>
-      <c r="LK59" s="16"/>
-      <c r="LL59" s="16"/>
-      <c r="LM59" s="16"/>
-      <c r="LN59" s="16"/>
-      <c r="LO59" s="16"/>
-      <c r="LP59" s="16"/>
-      <c r="LQ59" s="16"/>
-      <c r="LR59" s="16"/>
-      <c r="LS59" s="16"/>
-      <c r="LT59" s="16"/>
-      <c r="LU59" s="16"/>
-      <c r="LV59" s="16"/>
-      <c r="LW59" s="16"/>
-      <c r="LX59" s="16"/>
-      <c r="LY59" s="16"/>
-      <c r="LZ59" s="16"/>
-      <c r="MA59" s="16"/>
-      <c r="MB59" s="16"/>
-      <c r="MC59" s="16"/>
-      <c r="MD59" s="16"/>
-      <c r="ME59" s="16"/>
-      <c r="MF59" s="16"/>
-      <c r="MG59" s="16"/>
-      <c r="MH59" s="16"/>
-      <c r="MI59" s="16"/>
-      <c r="MJ59" s="16"/>
-      <c r="MK59" s="16"/>
-      <c r="ML59" s="16"/>
-      <c r="MM59" s="16"/>
-      <c r="MN59" s="16"/>
-      <c r="MO59" s="16"/>
-      <c r="MP59" s="16"/>
-      <c r="MQ59" s="16"/>
-      <c r="MR59" s="16"/>
-      <c r="MS59" s="16"/>
-      <c r="MT59" s="16"/>
-      <c r="MU59" s="16"/>
-      <c r="MV59" s="16"/>
-      <c r="MW59" s="16"/>
-      <c r="MX59" s="16"/>
-      <c r="MY59" s="16"/>
-      <c r="MZ59" s="16"/>
-      <c r="NA59" s="16"/>
-      <c r="NB59" s="16"/>
-      <c r="NC59" s="16"/>
-      <c r="ND59" s="16"/>
-      <c r="NE59" s="16"/>
-      <c r="NF59" s="16"/>
-      <c r="NG59" s="16"/>
-      <c r="NH59" s="16"/>
-      <c r="NI59" s="16"/>
-      <c r="NJ59" s="16"/>
-      <c r="NK59" s="16"/>
-      <c r="NL59" s="16"/>
-      <c r="NM59" s="16"/>
-      <c r="NN59" s="16"/>
-      <c r="NO59" s="16"/>
-      <c r="NP59" s="16"/>
-      <c r="NQ59" s="16"/>
-      <c r="NR59" s="16"/>
-      <c r="NS59" s="16"/>
-      <c r="NT59" s="16"/>
-      <c r="NU59" s="16"/>
-      <c r="NV59" s="16"/>
-      <c r="NW59" s="16"/>
-      <c r="NX59" s="16"/>
-      <c r="NY59" s="16"/>
-      <c r="NZ59" s="16"/>
-      <c r="OA59" s="16"/>
-      <c r="OB59" s="16"/>
-      <c r="OC59" s="16"/>
-      <c r="OD59" s="16"/>
-      <c r="OE59" s="16"/>
-      <c r="OF59" s="16"/>
-      <c r="OG59" s="16"/>
-      <c r="OH59" s="16"/>
-      <c r="OI59" s="16"/>
-      <c r="OJ59" s="16"/>
-      <c r="OK59" s="16"/>
-      <c r="OL59" s="16"/>
-      <c r="OM59" s="16"/>
-      <c r="ON59" s="16"/>
-      <c r="OO59" s="16"/>
-      <c r="OP59" s="16"/>
-      <c r="OQ59" s="16"/>
-      <c r="OR59" s="16"/>
-      <c r="OS59" s="16"/>
-      <c r="OT59" s="16"/>
-      <c r="OU59" s="16"/>
-      <c r="OV59" s="16"/>
-      <c r="OW59" s="16"/>
-      <c r="OX59" s="16"/>
-      <c r="OY59" s="16"/>
-      <c r="OZ59" s="16"/>
-      <c r="PA59" s="16"/>
-      <c r="PB59" s="16"/>
-      <c r="PC59" s="16"/>
-      <c r="PD59" s="16"/>
-      <c r="PE59" s="16"/>
-      <c r="PF59" s="16"/>
-      <c r="PG59" s="16"/>
-      <c r="PH59" s="16"/>
-      <c r="PI59" s="16"/>
-      <c r="PJ59" s="16"/>
-      <c r="PK59" s="16"/>
-      <c r="PL59" s="16"/>
-      <c r="PM59" s="16"/>
-      <c r="PN59" s="16"/>
-      <c r="PO59" s="16"/>
-      <c r="PP59" s="16"/>
-      <c r="PQ59" s="16"/>
-      <c r="PR59" s="16"/>
-      <c r="PS59" s="16"/>
-      <c r="PT59" s="16"/>
-      <c r="PU59" s="16"/>
-      <c r="PV59" s="16"/>
-      <c r="PW59" s="16"/>
-      <c r="PX59" s="16"/>
-      <c r="PY59" s="16"/>
-      <c r="PZ59" s="16"/>
-      <c r="QA59" s="16"/>
-      <c r="QB59" s="16"/>
-      <c r="QC59" s="16"/>
-      <c r="QD59" s="16"/>
-      <c r="QE59" s="16"/>
-      <c r="QF59" s="16"/>
-      <c r="QG59" s="16"/>
-      <c r="QH59" s="16"/>
-      <c r="QI59" s="16"/>
-      <c r="QJ59" s="16"/>
-      <c r="QK59" s="16"/>
-      <c r="QL59" s="16"/>
-      <c r="QM59" s="16"/>
-      <c r="QN59" s="16"/>
-      <c r="QO59" s="16"/>
-      <c r="QP59" s="16"/>
-      <c r="QQ59" s="16"/>
-      <c r="QR59" s="16"/>
-      <c r="QS59" s="16"/>
-      <c r="QT59" s="16"/>
-      <c r="QU59" s="16"/>
-      <c r="QV59" s="16"/>
-      <c r="QW59" s="16"/>
-      <c r="QX59" s="16"/>
-      <c r="QY59" s="16"/>
-      <c r="QZ59" s="16"/>
-      <c r="RA59" s="16"/>
-      <c r="RB59" s="16"/>
-      <c r="RC59" s="16"/>
-      <c r="RD59" s="16"/>
-      <c r="RE59" s="16"/>
-      <c r="RF59" s="16"/>
-      <c r="RG59" s="16"/>
-      <c r="RH59" s="16"/>
-      <c r="RI59" s="16"/>
-      <c r="RJ59" s="16"/>
-      <c r="RK59" s="16"/>
-      <c r="RL59" s="16"/>
-      <c r="RM59" s="16"/>
-      <c r="RN59" s="16"/>
-      <c r="RO59" s="16"/>
-      <c r="RP59" s="16"/>
-      <c r="RQ59" s="16"/>
-      <c r="RR59" s="16"/>
-      <c r="RS59" s="16"/>
-      <c r="RT59" s="16"/>
-      <c r="RU59" s="16"/>
-      <c r="RV59" s="16"/>
-      <c r="RW59" s="16"/>
-      <c r="RX59" s="16"/>
-      <c r="RY59" s="16"/>
-      <c r="RZ59" s="16"/>
-      <c r="SA59" s="16"/>
-      <c r="SB59" s="16"/>
-      <c r="SC59" s="16"/>
-      <c r="SD59" s="16"/>
-      <c r="SE59" s="16"/>
-      <c r="SF59" s="16"/>
-      <c r="SG59" s="16"/>
-      <c r="SH59" s="16"/>
-      <c r="SI59" s="16"/>
-      <c r="SJ59" s="16"/>
-      <c r="SK59" s="16"/>
-      <c r="SL59" s="16"/>
-      <c r="SM59" s="16"/>
-      <c r="SN59" s="16"/>
-      <c r="SO59" s="16"/>
-      <c r="SP59" s="16"/>
-      <c r="SQ59" s="16"/>
-      <c r="SR59" s="16"/>
-      <c r="SS59" s="16"/>
-      <c r="ST59" s="16"/>
-      <c r="SU59" s="16"/>
-      <c r="SV59" s="16"/>
-      <c r="SW59" s="16"/>
-      <c r="SX59" s="16"/>
-      <c r="SY59" s="16"/>
-      <c r="SZ59" s="16"/>
-      <c r="TA59" s="16"/>
-      <c r="TB59" s="16"/>
-      <c r="TC59" s="16"/>
-      <c r="TD59" s="16"/>
-      <c r="TE59" s="16"/>
-      <c r="TF59" s="16"/>
-      <c r="TG59" s="16"/>
-      <c r="TH59" s="16"/>
-      <c r="TI59" s="16"/>
-      <c r="TJ59" s="16"/>
-      <c r="TK59" s="16"/>
-      <c r="TL59" s="16"/>
-      <c r="TM59" s="16"/>
-      <c r="TN59" s="16"/>
-      <c r="TO59" s="16"/>
-      <c r="TP59" s="16"/>
-      <c r="TQ59" s="16"/>
-      <c r="TR59" s="16"/>
-      <c r="TS59" s="16"/>
-      <c r="TT59" s="16"/>
-      <c r="TU59" s="16"/>
-      <c r="TV59" s="16"/>
-      <c r="TW59" s="16"/>
-      <c r="TX59" s="16"/>
-      <c r="TY59" s="16"/>
-      <c r="TZ59" s="16"/>
-      <c r="UA59" s="16"/>
-      <c r="UB59" s="16"/>
-      <c r="UC59" s="16"/>
-      <c r="UD59" s="16"/>
-      <c r="UE59" s="16"/>
-      <c r="UF59" s="16"/>
-      <c r="UG59" s="16"/>
-      <c r="UH59" s="16"/>
-      <c r="UI59" s="16"/>
-      <c r="UJ59" s="16"/>
-      <c r="UK59" s="16"/>
-      <c r="UL59" s="16"/>
-      <c r="UM59" s="16"/>
-      <c r="UN59" s="16"/>
-      <c r="UO59" s="16"/>
-      <c r="UP59" s="16"/>
-      <c r="UQ59" s="16"/>
-      <c r="UR59" s="16"/>
-      <c r="US59" s="16"/>
-      <c r="UT59" s="16"/>
-      <c r="UU59" s="16"/>
-      <c r="UV59" s="16"/>
-      <c r="UW59" s="16"/>
-      <c r="UX59" s="16"/>
-      <c r="UY59" s="16"/>
-      <c r="UZ59" s="16"/>
-      <c r="VA59" s="16"/>
-      <c r="VB59" s="16"/>
-      <c r="VC59" s="16"/>
-      <c r="VD59" s="16"/>
-      <c r="VE59" s="16"/>
-      <c r="VF59" s="16"/>
-      <c r="VG59" s="16"/>
-      <c r="VH59" s="16"/>
-      <c r="VI59" s="16"/>
-      <c r="VJ59" s="16"/>
-      <c r="VK59" s="16"/>
-      <c r="VL59" s="16"/>
-      <c r="VM59" s="16"/>
-      <c r="VN59" s="16"/>
-      <c r="VO59" s="16"/>
-      <c r="VP59" s="16"/>
-      <c r="VQ59" s="16"/>
-      <c r="VR59" s="16"/>
-      <c r="VS59" s="16"/>
-      <c r="VT59" s="16"/>
-      <c r="VU59" s="16"/>
-      <c r="VV59" s="16"/>
-      <c r="VW59" s="16"/>
-      <c r="VX59" s="16"/>
-      <c r="VY59" s="16"/>
-      <c r="VZ59" s="16"/>
-      <c r="WA59" s="16"/>
-      <c r="WB59" s="16"/>
-      <c r="WC59" s="16"/>
-      <c r="WD59" s="16"/>
-      <c r="WE59" s="16"/>
-      <c r="WF59" s="16"/>
-      <c r="WG59" s="16"/>
-      <c r="WH59" s="16"/>
-      <c r="WI59" s="16"/>
-      <c r="WJ59" s="16"/>
-      <c r="WK59" s="16"/>
-      <c r="WL59" s="16"/>
-      <c r="WM59" s="16"/>
-      <c r="WN59" s="16"/>
-      <c r="WO59" s="16"/>
-      <c r="WP59" s="16"/>
-      <c r="WQ59" s="16"/>
-      <c r="WR59" s="16"/>
-      <c r="WS59" s="16"/>
-      <c r="WT59" s="16"/>
-      <c r="WU59" s="16"/>
-      <c r="WV59" s="16"/>
-      <c r="WW59" s="16"/>
-      <c r="WX59" s="16"/>
-      <c r="WY59" s="16"/>
-      <c r="WZ59" s="16"/>
-      <c r="XA59" s="16"/>
-      <c r="XB59" s="16"/>
-      <c r="XC59" s="16"/>
-      <c r="XD59" s="16"/>
-      <c r="XE59" s="16"/>
-      <c r="XF59" s="16"/>
-      <c r="XG59" s="16"/>
-      <c r="XH59" s="16"/>
-      <c r="XI59" s="16"/>
-      <c r="XJ59" s="16"/>
-      <c r="XK59" s="16"/>
-      <c r="XL59" s="16"/>
-      <c r="XM59" s="16"/>
-      <c r="XN59" s="16"/>
-      <c r="XO59" s="16"/>
-      <c r="XP59" s="16"/>
-      <c r="XQ59" s="16"/>
-      <c r="XR59" s="16"/>
-      <c r="XS59" s="16"/>
-      <c r="XT59" s="16"/>
-      <c r="XU59" s="16"/>
-      <c r="XV59" s="16"/>
-      <c r="XW59" s="16"/>
-      <c r="XX59" s="16"/>
-      <c r="XY59" s="16"/>
-      <c r="XZ59" s="16"/>
-      <c r="YA59" s="16"/>
-      <c r="YB59" s="16"/>
-      <c r="YC59" s="16"/>
-      <c r="YD59" s="16"/>
-      <c r="YE59" s="16"/>
-      <c r="YF59" s="16"/>
-      <c r="YG59" s="16"/>
-      <c r="YH59" s="16"/>
-      <c r="YI59" s="16"/>
-      <c r="YJ59" s="16"/>
-      <c r="YK59" s="16"/>
-      <c r="YL59" s="16"/>
-      <c r="YM59" s="16"/>
-      <c r="YN59" s="16"/>
-      <c r="YO59" s="16"/>
-      <c r="YP59" s="16"/>
-      <c r="YQ59" s="16"/>
-      <c r="YR59" s="16"/>
-      <c r="YS59" s="16"/>
-      <c r="YT59" s="16"/>
-      <c r="YU59" s="16"/>
-      <c r="YV59" s="16"/>
-      <c r="YW59" s="16"/>
-      <c r="YX59" s="16"/>
-      <c r="YY59" s="16"/>
-      <c r="YZ59" s="16"/>
-      <c r="ZA59" s="16"/>
-      <c r="ZB59" s="16"/>
-      <c r="ZC59" s="16"/>
-      <c r="ZD59" s="16"/>
-      <c r="ZE59" s="16"/>
-      <c r="ZF59" s="16"/>
-      <c r="ZG59" s="16"/>
-      <c r="ZH59" s="16"/>
-      <c r="ZI59" s="16"/>
-      <c r="ZJ59" s="16"/>
-      <c r="ZK59" s="16"/>
-      <c r="ZL59" s="16"/>
-      <c r="ZM59" s="16"/>
-      <c r="ZN59" s="16"/>
-      <c r="ZO59" s="16"/>
-      <c r="ZP59" s="16"/>
-      <c r="ZQ59" s="16"/>
-      <c r="ZR59" s="16"/>
-      <c r="ZS59" s="16"/>
-      <c r="ZT59" s="16"/>
-      <c r="ZU59" s="16"/>
-      <c r="ZV59" s="16"/>
-      <c r="ZW59" s="16"/>
-      <c r="ZX59" s="16"/>
-      <c r="ZY59" s="16"/>
-      <c r="ZZ59" s="16"/>
-      <c r="AAA59" s="16"/>
-      <c r="AAB59" s="16"/>
-      <c r="AAC59" s="16"/>
-      <c r="AAD59" s="16"/>
-      <c r="AAE59" s="16"/>
-      <c r="AAF59" s="16"/>
-      <c r="AAG59" s="16"/>
-      <c r="AAH59" s="16"/>
-      <c r="AAI59" s="16"/>
-      <c r="AAJ59" s="16"/>
-      <c r="AAK59" s="16"/>
-      <c r="AAL59" s="16"/>
-      <c r="AAM59" s="16"/>
-      <c r="AAN59" s="16"/>
-      <c r="AAO59" s="16"/>
-      <c r="AAP59" s="16"/>
-      <c r="AAQ59" s="16"/>
-      <c r="AAR59" s="16"/>
-      <c r="AAS59" s="16"/>
-      <c r="AAT59" s="16"/>
-      <c r="AAU59" s="16"/>
-      <c r="AAV59" s="16"/>
-      <c r="AAW59" s="16"/>
-      <c r="AAX59" s="16"/>
-      <c r="AAY59" s="16"/>
-      <c r="AAZ59" s="16"/>
-      <c r="ABA59" s="16"/>
-      <c r="ABB59" s="16"/>
-      <c r="ABC59" s="16"/>
-      <c r="ABD59" s="16"/>
-      <c r="ABE59" s="16"/>
-      <c r="ABF59" s="16"/>
-      <c r="ABG59" s="16"/>
-      <c r="ABH59" s="16"/>
-      <c r="ABI59" s="16"/>
-      <c r="ABJ59" s="16"/>
-      <c r="ABK59" s="16"/>
-      <c r="ABL59" s="16"/>
-      <c r="ABM59" s="16"/>
-      <c r="ABN59" s="16"/>
-      <c r="ABO59" s="16"/>
-      <c r="ABP59" s="16"/>
-      <c r="ABQ59" s="16"/>
-      <c r="ABR59" s="16"/>
-      <c r="ABS59" s="16"/>
-      <c r="ABT59" s="16"/>
-      <c r="ABU59" s="16"/>
-      <c r="ABV59" s="16"/>
-      <c r="ABW59" s="16"/>
-      <c r="ABX59" s="16"/>
-      <c r="ABY59" s="16"/>
-      <c r="ABZ59" s="16"/>
-      <c r="ACA59" s="16"/>
-      <c r="ACB59" s="16"/>
-      <c r="ACC59" s="16"/>
-      <c r="ACD59" s="16"/>
-      <c r="ACE59" s="16"/>
-      <c r="ACF59" s="16"/>
-      <c r="ACG59" s="16"/>
-      <c r="ACH59" s="16"/>
-      <c r="ACI59" s="16"/>
-      <c r="ACJ59" s="16"/>
-      <c r="ACK59" s="16"/>
-      <c r="ACL59" s="16"/>
-      <c r="ACM59" s="16"/>
-      <c r="ACN59" s="16"/>
-      <c r="ACO59" s="16"/>
-      <c r="ACP59" s="16"/>
-      <c r="ACQ59" s="16"/>
-      <c r="ACR59" s="16"/>
-      <c r="ACS59" s="16"/>
-      <c r="ACT59" s="16"/>
-      <c r="ACU59" s="16"/>
-      <c r="ACV59" s="16"/>
-      <c r="ACW59" s="16"/>
-      <c r="ACX59" s="16"/>
-      <c r="ACY59" s="16"/>
-      <c r="ACZ59" s="16"/>
-      <c r="ADA59" s="16"/>
-      <c r="ADB59" s="16"/>
-      <c r="ADC59" s="16"/>
-      <c r="ADD59" s="16"/>
-      <c r="ADE59" s="16"/>
-      <c r="ADF59" s="16"/>
-      <c r="ADG59" s="16"/>
-      <c r="ADH59" s="16"/>
-      <c r="ADI59" s="16"/>
-      <c r="ADJ59" s="16"/>
-      <c r="ADK59" s="16"/>
-      <c r="ADL59" s="16"/>
-      <c r="ADM59" s="16"/>
-      <c r="ADN59" s="16"/>
-      <c r="ADO59" s="16"/>
-      <c r="ADP59" s="16"/>
-      <c r="ADQ59" s="16"/>
-      <c r="ADR59" s="16"/>
-      <c r="ADS59" s="16"/>
-      <c r="ADT59" s="16"/>
-      <c r="ADU59" s="16"/>
-      <c r="ADV59" s="16"/>
-      <c r="ADW59" s="16"/>
-      <c r="ADX59" s="16"/>
-      <c r="ADY59" s="16"/>
-      <c r="ADZ59" s="16"/>
-      <c r="AEA59" s="16"/>
-      <c r="AEB59" s="16"/>
-      <c r="AEC59" s="16"/>
-      <c r="AED59" s="16"/>
-      <c r="AEE59" s="16"/>
-      <c r="AEF59" s="16"/>
-      <c r="AEG59" s="16"/>
-      <c r="AEH59" s="16"/>
-      <c r="AEI59" s="16"/>
-      <c r="AEJ59" s="16"/>
-      <c r="AEK59" s="16"/>
-      <c r="AEL59" s="16"/>
-      <c r="AEM59" s="16"/>
-      <c r="AEN59" s="16"/>
-      <c r="AEO59" s="16"/>
-      <c r="AEP59" s="16"/>
-      <c r="AEQ59" s="16"/>
-      <c r="AER59" s="16"/>
-      <c r="AES59" s="16"/>
-      <c r="AET59" s="16"/>
-      <c r="AEU59" s="16"/>
-      <c r="AEV59" s="16"/>
-      <c r="AEW59" s="16"/>
-      <c r="AEX59" s="16"/>
-      <c r="AEY59" s="16"/>
-      <c r="AEZ59" s="16"/>
-      <c r="AFA59" s="16"/>
-      <c r="AFB59" s="16"/>
-      <c r="AFC59" s="16"/>
-      <c r="AFD59" s="16"/>
-      <c r="AFE59" s="16"/>
-      <c r="AFF59" s="16"/>
-      <c r="AFG59" s="16"/>
-      <c r="AFH59" s="16"/>
-      <c r="AFI59" s="16"/>
-      <c r="AFJ59" s="16"/>
-      <c r="AFK59" s="16"/>
-      <c r="AFL59" s="16"/>
-      <c r="AFM59" s="16"/>
-      <c r="AFN59" s="16"/>
-      <c r="AFO59" s="16"/>
-      <c r="AFP59" s="16"/>
-      <c r="AFQ59" s="16"/>
-      <c r="AFR59" s="16"/>
-      <c r="AFS59" s="16"/>
-      <c r="AFT59" s="16"/>
-      <c r="AFU59" s="16"/>
-      <c r="AFV59" s="16"/>
-      <c r="AFW59" s="16"/>
-      <c r="AFX59" s="16"/>
-      <c r="AFY59" s="16"/>
-      <c r="AFZ59" s="16"/>
-      <c r="AGA59" s="16"/>
-      <c r="AGB59" s="16"/>
-      <c r="AGC59" s="16"/>
-      <c r="AGD59" s="16"/>
-      <c r="AGE59" s="16"/>
-      <c r="AGF59" s="16"/>
-      <c r="AGG59" s="16"/>
-      <c r="AGH59" s="16"/>
-      <c r="AGI59" s="16"/>
-      <c r="AGJ59" s="16"/>
-      <c r="AGK59" s="16"/>
-      <c r="AGL59" s="16"/>
-      <c r="AGM59" s="16"/>
-      <c r="AGN59" s="16"/>
-      <c r="AGO59" s="16"/>
-      <c r="AGP59" s="16"/>
-      <c r="AGQ59" s="16"/>
-      <c r="AGR59" s="16"/>
-      <c r="AGS59" s="16"/>
-      <c r="AGT59" s="16"/>
-      <c r="AGU59" s="16"/>
-      <c r="AGV59" s="16"/>
-      <c r="AGW59" s="16"/>
-      <c r="AGX59" s="16"/>
-      <c r="AGY59" s="16"/>
-      <c r="AGZ59" s="16"/>
-      <c r="AHA59" s="16"/>
-      <c r="AHB59" s="16"/>
-      <c r="AHC59" s="16"/>
-      <c r="AHD59" s="16"/>
-      <c r="AHE59" s="16"/>
-      <c r="AHF59" s="16"/>
-      <c r="AHG59" s="16"/>
-      <c r="AHH59" s="16"/>
-      <c r="AHI59" s="16"/>
-      <c r="AHJ59" s="16"/>
-      <c r="AHK59" s="16"/>
-      <c r="AHL59" s="16"/>
-      <c r="AHM59" s="16"/>
-      <c r="AHN59" s="16"/>
-      <c r="AHO59" s="16"/>
-      <c r="AHP59" s="16"/>
-      <c r="AHQ59" s="16"/>
-      <c r="AHR59" s="16"/>
-      <c r="AHS59" s="16"/>
-      <c r="AHT59" s="16"/>
-      <c r="AHU59" s="16"/>
-      <c r="AHV59" s="16"/>
-      <c r="AHW59" s="16"/>
-      <c r="AHX59" s="16"/>
-      <c r="AHY59" s="16"/>
-      <c r="AHZ59" s="16"/>
-      <c r="AIA59" s="16"/>
-      <c r="AIB59" s="16"/>
-      <c r="AIC59" s="16"/>
-      <c r="AID59" s="16"/>
-      <c r="AIE59" s="16"/>
-      <c r="AIF59" s="16"/>
-      <c r="AIG59" s="16"/>
-      <c r="AIH59" s="16"/>
-      <c r="AII59" s="16"/>
-      <c r="AIJ59" s="16"/>
-      <c r="AIK59" s="16"/>
-      <c r="AIL59" s="16"/>
-      <c r="AIM59" s="16"/>
-      <c r="AIN59" s="16"/>
-      <c r="AIO59" s="16"/>
-      <c r="AIP59" s="16"/>
-      <c r="AIQ59" s="16"/>
-      <c r="AIR59" s="16"/>
-      <c r="AIS59" s="16"/>
-      <c r="AIT59" s="16"/>
-      <c r="AIU59" s="16"/>
-      <c r="AIV59" s="16"/>
-      <c r="AIW59" s="16"/>
-      <c r="AIX59" s="16"/>
-      <c r="AIY59" s="16"/>
-      <c r="AIZ59" s="16"/>
-      <c r="AJA59" s="16"/>
-      <c r="AJB59" s="16"/>
-      <c r="AJC59" s="16"/>
-      <c r="AJD59" s="16"/>
-      <c r="AJE59" s="16"/>
-      <c r="AJF59" s="16"/>
-      <c r="AJG59" s="16"/>
-      <c r="AJH59" s="16"/>
-      <c r="AJI59" s="16"/>
-      <c r="AJJ59" s="16"/>
-      <c r="AJK59" s="16"/>
-      <c r="AJL59" s="16"/>
-      <c r="AJM59" s="16"/>
-      <c r="AJN59" s="16"/>
-      <c r="AJO59" s="16"/>
-      <c r="AJP59" s="16"/>
-      <c r="AJQ59" s="16"/>
-      <c r="AJR59" s="16"/>
-      <c r="AJS59" s="16"/>
-      <c r="AJT59" s="16"/>
-      <c r="AJU59" s="16"/>
-      <c r="AJV59" s="16"/>
-      <c r="AJW59" s="16"/>
-      <c r="AJX59" s="16"/>
-      <c r="AJY59" s="16"/>
-      <c r="AJZ59" s="16"/>
-      <c r="AKA59" s="16"/>
-      <c r="AKB59" s="16"/>
-      <c r="AKC59" s="16"/>
-      <c r="AKD59" s="16"/>
-      <c r="AKE59" s="16"/>
-      <c r="AKF59" s="16"/>
-      <c r="AKG59" s="16"/>
-      <c r="AKH59" s="16"/>
-      <c r="AKI59" s="16"/>
-      <c r="AKJ59" s="16"/>
-      <c r="AKK59" s="16"/>
-      <c r="AKL59" s="16"/>
-      <c r="AKM59" s="16"/>
-      <c r="AKN59" s="16"/>
-      <c r="AKO59" s="16"/>
-      <c r="AKP59" s="16"/>
-      <c r="AKQ59" s="16"/>
-      <c r="AKR59" s="16"/>
-      <c r="AKS59" s="16"/>
-      <c r="AKT59" s="16"/>
-      <c r="AKU59" s="16"/>
-      <c r="AKV59" s="16"/>
-      <c r="AKW59" s="16"/>
-      <c r="AKX59" s="16"/>
-      <c r="AKY59" s="16"/>
-      <c r="AKZ59" s="16"/>
-      <c r="ALA59" s="16"/>
-      <c r="ALB59" s="16"/>
-      <c r="ALC59" s="16"/>
-      <c r="ALD59" s="16"/>
-      <c r="ALE59" s="16"/>
-      <c r="ALF59" s="16"/>
-      <c r="ALG59" s="16"/>
-      <c r="ALH59" s="16"/>
-      <c r="ALI59" s="16"/>
-      <c r="ALJ59" s="16"/>
-      <c r="ALK59" s="16"/>
-      <c r="ALL59" s="16"/>
-      <c r="ALM59" s="16"/>
-      <c r="ALN59" s="16"/>
-      <c r="ALO59" s="16"/>
-      <c r="ALP59" s="16"/>
-      <c r="ALQ59" s="16"/>
-      <c r="ALR59" s="16"/>
-      <c r="ALS59" s="16"/>
-      <c r="ALT59" s="16"/>
-      <c r="ALU59" s="16"/>
-      <c r="ALV59" s="16"/>
-      <c r="ALW59" s="16"/>
-      <c r="ALX59" s="16"/>
-      <c r="ALY59" s="16"/>
-      <c r="ALZ59" s="16"/>
-      <c r="AMA59" s="16"/>
-      <c r="AMB59" s="16"/>
-      <c r="AMC59" s="16"/>
-      <c r="AMD59" s="16"/>
-      <c r="AME59" s="16"/>
-      <c r="AMF59" s="16"/>
-      <c r="AMG59" s="16"/>
-      <c r="AMH59" s="16"/>
-      <c r="AMI59" s="16"/>
-      <c r="AMJ59" s="16"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="s">
+      <c r="F60" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="16"/>
-      <c r="AD60" s="16"/>
-      <c r="AE60" s="16"/>
-      <c r="AF60" s="16"/>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="16"/>
-      <c r="AI60" s="16"/>
-      <c r="AJ60" s="16"/>
-      <c r="AK60" s="16"/>
-      <c r="AL60" s="16"/>
-      <c r="AM60" s="16"/>
-      <c r="AN60" s="16"/>
-      <c r="AO60" s="16"/>
-      <c r="AP60" s="16"/>
-      <c r="AQ60" s="16"/>
-      <c r="AR60" s="16"/>
-      <c r="AS60" s="16"/>
-      <c r="AT60" s="16"/>
-      <c r="AU60" s="16"/>
-      <c r="AV60" s="16"/>
-      <c r="AW60" s="16"/>
-      <c r="AX60" s="16"/>
-      <c r="AY60" s="16"/>
-      <c r="AZ60" s="16"/>
-      <c r="BA60" s="16"/>
-      <c r="BB60" s="16"/>
-      <c r="BC60" s="16"/>
-      <c r="BD60" s="16"/>
-      <c r="BE60" s="16"/>
-      <c r="BF60" s="16"/>
-      <c r="BG60" s="16"/>
-      <c r="BH60" s="16"/>
-      <c r="BI60" s="16"/>
-      <c r="BJ60" s="16"/>
-      <c r="BK60" s="16"/>
-      <c r="BL60" s="16"/>
-      <c r="BM60" s="16"/>
-      <c r="BN60" s="16"/>
-      <c r="BO60" s="16"/>
-      <c r="BP60" s="16"/>
-      <c r="BQ60" s="16"/>
-      <c r="BR60" s="16"/>
-      <c r="BS60" s="16"/>
-      <c r="BT60" s="16"/>
-      <c r="BU60" s="16"/>
-      <c r="BV60" s="16"/>
-      <c r="BW60" s="16"/>
-      <c r="BX60" s="16"/>
-      <c r="BY60" s="16"/>
-      <c r="BZ60" s="16"/>
-      <c r="CA60" s="16"/>
-      <c r="CB60" s="16"/>
-      <c r="CC60" s="16"/>
-      <c r="CD60" s="16"/>
-      <c r="CE60" s="16"/>
-      <c r="CF60" s="16"/>
-      <c r="CG60" s="16"/>
-      <c r="CH60" s="16"/>
-      <c r="CI60" s="16"/>
-      <c r="CJ60" s="16"/>
-      <c r="CK60" s="16"/>
-      <c r="CL60" s="16"/>
-      <c r="CM60" s="16"/>
-      <c r="CN60" s="16"/>
-      <c r="CO60" s="16"/>
-      <c r="CP60" s="16"/>
-      <c r="CQ60" s="16"/>
-      <c r="CR60" s="16"/>
-      <c r="CS60" s="16"/>
-      <c r="CT60" s="16"/>
-      <c r="CU60" s="16"/>
-      <c r="CV60" s="16"/>
-      <c r="CW60" s="16"/>
-      <c r="CX60" s="16"/>
-      <c r="CY60" s="16"/>
-      <c r="CZ60" s="16"/>
-      <c r="DA60" s="16"/>
-      <c r="DB60" s="16"/>
-      <c r="DC60" s="16"/>
-      <c r="DD60" s="16"/>
-      <c r="DE60" s="16"/>
-      <c r="DF60" s="16"/>
-      <c r="DG60" s="16"/>
-      <c r="DH60" s="16"/>
-      <c r="DI60" s="16"/>
-      <c r="DJ60" s="16"/>
-      <c r="DK60" s="16"/>
-      <c r="DL60" s="16"/>
-      <c r="DM60" s="16"/>
-      <c r="DN60" s="16"/>
-      <c r="DO60" s="16"/>
-      <c r="DP60" s="16"/>
-      <c r="DQ60" s="16"/>
-      <c r="DR60" s="16"/>
-      <c r="DS60" s="16"/>
-      <c r="DT60" s="16"/>
-      <c r="DU60" s="16"/>
-      <c r="DV60" s="16"/>
-      <c r="DW60" s="16"/>
-      <c r="DX60" s="16"/>
-      <c r="DY60" s="16"/>
-      <c r="DZ60" s="16"/>
-      <c r="EA60" s="16"/>
-      <c r="EB60" s="16"/>
-      <c r="EC60" s="16"/>
-      <c r="ED60" s="16"/>
-      <c r="EE60" s="16"/>
-      <c r="EF60" s="16"/>
-      <c r="EG60" s="16"/>
-      <c r="EH60" s="16"/>
-      <c r="EI60" s="16"/>
-      <c r="EJ60" s="16"/>
-      <c r="EK60" s="16"/>
-      <c r="EL60" s="16"/>
-      <c r="EM60" s="16"/>
-      <c r="EN60" s="16"/>
-      <c r="EO60" s="16"/>
-      <c r="EP60" s="16"/>
-      <c r="EQ60" s="16"/>
-      <c r="ER60" s="16"/>
-      <c r="ES60" s="16"/>
-      <c r="ET60" s="16"/>
-      <c r="EU60" s="16"/>
-      <c r="EV60" s="16"/>
-      <c r="EW60" s="16"/>
-      <c r="EX60" s="16"/>
-      <c r="EY60" s="16"/>
-      <c r="EZ60" s="16"/>
-      <c r="FA60" s="16"/>
-      <c r="FB60" s="16"/>
-      <c r="FC60" s="16"/>
-      <c r="FD60" s="16"/>
-      <c r="FE60" s="16"/>
-      <c r="FF60" s="16"/>
-      <c r="FG60" s="16"/>
-      <c r="FH60" s="16"/>
-      <c r="FI60" s="16"/>
-      <c r="FJ60" s="16"/>
-      <c r="FK60" s="16"/>
-      <c r="FL60" s="16"/>
-      <c r="FM60" s="16"/>
-      <c r="FN60" s="16"/>
-      <c r="FO60" s="16"/>
-      <c r="FP60" s="16"/>
-      <c r="FQ60" s="16"/>
-      <c r="FR60" s="16"/>
-      <c r="FS60" s="16"/>
-      <c r="FT60" s="16"/>
-      <c r="FU60" s="16"/>
-      <c r="FV60" s="16"/>
-      <c r="FW60" s="16"/>
-      <c r="FX60" s="16"/>
-      <c r="FY60" s="16"/>
-      <c r="FZ60" s="16"/>
-      <c r="GA60" s="16"/>
-      <c r="GB60" s="16"/>
-      <c r="GC60" s="16"/>
-      <c r="GD60" s="16"/>
-      <c r="GE60" s="16"/>
-      <c r="GF60" s="16"/>
-      <c r="GG60" s="16"/>
-      <c r="GH60" s="16"/>
-      <c r="GI60" s="16"/>
-      <c r="GJ60" s="16"/>
-      <c r="GK60" s="16"/>
-      <c r="GL60" s="16"/>
-      <c r="GM60" s="16"/>
-      <c r="GN60" s="16"/>
-      <c r="GO60" s="16"/>
-      <c r="GP60" s="16"/>
-      <c r="GQ60" s="16"/>
-      <c r="GR60" s="16"/>
-      <c r="GS60" s="16"/>
-      <c r="GT60" s="16"/>
-      <c r="GU60" s="16"/>
-      <c r="GV60" s="16"/>
-      <c r="GW60" s="16"/>
-      <c r="GX60" s="16"/>
-      <c r="GY60" s="16"/>
-      <c r="GZ60" s="16"/>
-      <c r="HA60" s="16"/>
-      <c r="HB60" s="16"/>
-      <c r="HC60" s="16"/>
-      <c r="HD60" s="16"/>
-      <c r="HE60" s="16"/>
-      <c r="HF60" s="16"/>
-      <c r="HG60" s="16"/>
-      <c r="HH60" s="16"/>
-      <c r="HI60" s="16"/>
-      <c r="HJ60" s="16"/>
-      <c r="HK60" s="16"/>
-      <c r="HL60" s="16"/>
-      <c r="HM60" s="16"/>
-      <c r="HN60" s="16"/>
-      <c r="HO60" s="16"/>
-      <c r="HP60" s="16"/>
-      <c r="HQ60" s="16"/>
-      <c r="HR60" s="16"/>
-      <c r="HS60" s="16"/>
-      <c r="HT60" s="16"/>
-      <c r="HU60" s="16"/>
-      <c r="HV60" s="16"/>
-      <c r="HW60" s="16"/>
-      <c r="HX60" s="16"/>
-      <c r="HY60" s="16"/>
-      <c r="HZ60" s="16"/>
-      <c r="IA60" s="16"/>
-      <c r="IB60" s="16"/>
-      <c r="IC60" s="16"/>
-      <c r="ID60" s="16"/>
-      <c r="IE60" s="16"/>
-      <c r="IF60" s="16"/>
-      <c r="IG60" s="16"/>
-      <c r="IH60" s="16"/>
-      <c r="II60" s="16"/>
-      <c r="IJ60" s="16"/>
-      <c r="IK60" s="16"/>
-      <c r="IL60" s="16"/>
-      <c r="IM60" s="16"/>
-      <c r="IN60" s="16"/>
-      <c r="IO60" s="16"/>
-      <c r="IP60" s="16"/>
-      <c r="IQ60" s="16"/>
-      <c r="IR60" s="16"/>
-      <c r="IS60" s="16"/>
-      <c r="IT60" s="16"/>
-      <c r="IU60" s="16"/>
-      <c r="IV60" s="16"/>
-      <c r="IW60" s="16"/>
-      <c r="IX60" s="16"/>
-      <c r="IY60" s="16"/>
-      <c r="IZ60" s="16"/>
-      <c r="JA60" s="16"/>
-      <c r="JB60" s="16"/>
-      <c r="JC60" s="16"/>
-      <c r="JD60" s="16"/>
-      <c r="JE60" s="16"/>
-      <c r="JF60" s="16"/>
-      <c r="JG60" s="16"/>
-      <c r="JH60" s="16"/>
-      <c r="JI60" s="16"/>
-      <c r="JJ60" s="16"/>
-      <c r="JK60" s="16"/>
-      <c r="JL60" s="16"/>
-      <c r="JM60" s="16"/>
-      <c r="JN60" s="16"/>
-      <c r="JO60" s="16"/>
-      <c r="JP60" s="16"/>
-      <c r="JQ60" s="16"/>
-      <c r="JR60" s="16"/>
-      <c r="JS60" s="16"/>
-      <c r="JT60" s="16"/>
-      <c r="JU60" s="16"/>
-      <c r="JV60" s="16"/>
-      <c r="JW60" s="16"/>
-      <c r="JX60" s="16"/>
-      <c r="JY60" s="16"/>
-      <c r="JZ60" s="16"/>
-      <c r="KA60" s="16"/>
-      <c r="KB60" s="16"/>
-      <c r="KC60" s="16"/>
-      <c r="KD60" s="16"/>
-      <c r="KE60" s="16"/>
-      <c r="KF60" s="16"/>
-      <c r="KG60" s="16"/>
-      <c r="KH60" s="16"/>
-      <c r="KI60" s="16"/>
-      <c r="KJ60" s="16"/>
-      <c r="KK60" s="16"/>
-      <c r="KL60" s="16"/>
-      <c r="KM60" s="16"/>
-      <c r="KN60" s="16"/>
-      <c r="KO60" s="16"/>
-      <c r="KP60" s="16"/>
-      <c r="KQ60" s="16"/>
-      <c r="KR60" s="16"/>
-      <c r="KS60" s="16"/>
-      <c r="KT60" s="16"/>
-      <c r="KU60" s="16"/>
-      <c r="KV60" s="16"/>
-      <c r="KW60" s="16"/>
-      <c r="KX60" s="16"/>
-      <c r="KY60" s="16"/>
-      <c r="KZ60" s="16"/>
-      <c r="LA60" s="16"/>
-      <c r="LB60" s="16"/>
-      <c r="LC60" s="16"/>
-      <c r="LD60" s="16"/>
-      <c r="LE60" s="16"/>
-      <c r="LF60" s="16"/>
-      <c r="LG60" s="16"/>
-      <c r="LH60" s="16"/>
-      <c r="LI60" s="16"/>
-      <c r="LJ60" s="16"/>
-      <c r="LK60" s="16"/>
-      <c r="LL60" s="16"/>
-      <c r="LM60" s="16"/>
-      <c r="LN60" s="16"/>
-      <c r="LO60" s="16"/>
-      <c r="LP60" s="16"/>
-      <c r="LQ60" s="16"/>
-      <c r="LR60" s="16"/>
-      <c r="LS60" s="16"/>
-      <c r="LT60" s="16"/>
-      <c r="LU60" s="16"/>
-      <c r="LV60" s="16"/>
-      <c r="LW60" s="16"/>
-      <c r="LX60" s="16"/>
-      <c r="LY60" s="16"/>
-      <c r="LZ60" s="16"/>
-      <c r="MA60" s="16"/>
-      <c r="MB60" s="16"/>
-      <c r="MC60" s="16"/>
-      <c r="MD60" s="16"/>
-      <c r="ME60" s="16"/>
-      <c r="MF60" s="16"/>
-      <c r="MG60" s="16"/>
-      <c r="MH60" s="16"/>
-      <c r="MI60" s="16"/>
-      <c r="MJ60" s="16"/>
-      <c r="MK60" s="16"/>
-      <c r="ML60" s="16"/>
-      <c r="MM60" s="16"/>
-      <c r="MN60" s="16"/>
-      <c r="MO60" s="16"/>
-      <c r="MP60" s="16"/>
-      <c r="MQ60" s="16"/>
-      <c r="MR60" s="16"/>
-      <c r="MS60" s="16"/>
-      <c r="MT60" s="16"/>
-      <c r="MU60" s="16"/>
-      <c r="MV60" s="16"/>
-      <c r="MW60" s="16"/>
-      <c r="MX60" s="16"/>
-      <c r="MY60" s="16"/>
-      <c r="MZ60" s="16"/>
-      <c r="NA60" s="16"/>
-      <c r="NB60" s="16"/>
-      <c r="NC60" s="16"/>
-      <c r="ND60" s="16"/>
-      <c r="NE60" s="16"/>
-      <c r="NF60" s="16"/>
-      <c r="NG60" s="16"/>
-      <c r="NH60" s="16"/>
-      <c r="NI60" s="16"/>
-      <c r="NJ60" s="16"/>
-      <c r="NK60" s="16"/>
-      <c r="NL60" s="16"/>
-      <c r="NM60" s="16"/>
-      <c r="NN60" s="16"/>
-      <c r="NO60" s="16"/>
-      <c r="NP60" s="16"/>
-      <c r="NQ60" s="16"/>
-      <c r="NR60" s="16"/>
-      <c r="NS60" s="16"/>
-      <c r="NT60" s="16"/>
-      <c r="NU60" s="16"/>
-      <c r="NV60" s="16"/>
-      <c r="NW60" s="16"/>
-      <c r="NX60" s="16"/>
-      <c r="NY60" s="16"/>
-      <c r="NZ60" s="16"/>
-      <c r="OA60" s="16"/>
-      <c r="OB60" s="16"/>
-      <c r="OC60" s="16"/>
-      <c r="OD60" s="16"/>
-      <c r="OE60" s="16"/>
-      <c r="OF60" s="16"/>
-      <c r="OG60" s="16"/>
-      <c r="OH60" s="16"/>
-      <c r="OI60" s="16"/>
-      <c r="OJ60" s="16"/>
-      <c r="OK60" s="16"/>
-      <c r="OL60" s="16"/>
-      <c r="OM60" s="16"/>
-      <c r="ON60" s="16"/>
-      <c r="OO60" s="16"/>
-      <c r="OP60" s="16"/>
-      <c r="OQ60" s="16"/>
-      <c r="OR60" s="16"/>
-      <c r="OS60" s="16"/>
-      <c r="OT60" s="16"/>
-      <c r="OU60" s="16"/>
-      <c r="OV60" s="16"/>
-      <c r="OW60" s="16"/>
-      <c r="OX60" s="16"/>
-      <c r="OY60" s="16"/>
-      <c r="OZ60" s="16"/>
-      <c r="PA60" s="16"/>
-      <c r="PB60" s="16"/>
-      <c r="PC60" s="16"/>
-      <c r="PD60" s="16"/>
-      <c r="PE60" s="16"/>
-      <c r="PF60" s="16"/>
-      <c r="PG60" s="16"/>
-      <c r="PH60" s="16"/>
-      <c r="PI60" s="16"/>
-      <c r="PJ60" s="16"/>
-      <c r="PK60" s="16"/>
-      <c r="PL60" s="16"/>
-      <c r="PM60" s="16"/>
-      <c r="PN60" s="16"/>
-      <c r="PO60" s="16"/>
-      <c r="PP60" s="16"/>
-      <c r="PQ60" s="16"/>
-      <c r="PR60" s="16"/>
-      <c r="PS60" s="16"/>
-      <c r="PT60" s="16"/>
-      <c r="PU60" s="16"/>
-      <c r="PV60" s="16"/>
-      <c r="PW60" s="16"/>
-      <c r="PX60" s="16"/>
-      <c r="PY60" s="16"/>
-      <c r="PZ60" s="16"/>
-      <c r="QA60" s="16"/>
-      <c r="QB60" s="16"/>
-      <c r="QC60" s="16"/>
-      <c r="QD60" s="16"/>
-      <c r="QE60" s="16"/>
-      <c r="QF60" s="16"/>
-      <c r="QG60" s="16"/>
-      <c r="QH60" s="16"/>
-      <c r="QI60" s="16"/>
-      <c r="QJ60" s="16"/>
-      <c r="QK60" s="16"/>
-      <c r="QL60" s="16"/>
-      <c r="QM60" s="16"/>
-      <c r="QN60" s="16"/>
-      <c r="QO60" s="16"/>
-      <c r="QP60" s="16"/>
-      <c r="QQ60" s="16"/>
-      <c r="QR60" s="16"/>
-      <c r="QS60" s="16"/>
-      <c r="QT60" s="16"/>
-      <c r="QU60" s="16"/>
-      <c r="QV60" s="16"/>
-      <c r="QW60" s="16"/>
-      <c r="QX60" s="16"/>
-      <c r="QY60" s="16"/>
-      <c r="QZ60" s="16"/>
-      <c r="RA60" s="16"/>
-      <c r="RB60" s="16"/>
-      <c r="RC60" s="16"/>
-      <c r="RD60" s="16"/>
-      <c r="RE60" s="16"/>
-      <c r="RF60" s="16"/>
-      <c r="RG60" s="16"/>
-      <c r="RH60" s="16"/>
-      <c r="RI60" s="16"/>
-      <c r="RJ60" s="16"/>
-      <c r="RK60" s="16"/>
-      <c r="RL60" s="16"/>
-      <c r="RM60" s="16"/>
-      <c r="RN60" s="16"/>
-      <c r="RO60" s="16"/>
-      <c r="RP60" s="16"/>
-      <c r="RQ60" s="16"/>
-      <c r="RR60" s="16"/>
-      <c r="RS60" s="16"/>
-      <c r="RT60" s="16"/>
-      <c r="RU60" s="16"/>
-      <c r="RV60" s="16"/>
-      <c r="RW60" s="16"/>
-      <c r="RX60" s="16"/>
-      <c r="RY60" s="16"/>
-      <c r="RZ60" s="16"/>
-      <c r="SA60" s="16"/>
-      <c r="SB60" s="16"/>
-      <c r="SC60" s="16"/>
-      <c r="SD60" s="16"/>
-      <c r="SE60" s="16"/>
-      <c r="SF60" s="16"/>
-      <c r="SG60" s="16"/>
-      <c r="SH60" s="16"/>
-      <c r="SI60" s="16"/>
-      <c r="SJ60" s="16"/>
-      <c r="SK60" s="16"/>
-      <c r="SL60" s="16"/>
-      <c r="SM60" s="16"/>
-      <c r="SN60" s="16"/>
-      <c r="SO60" s="16"/>
-      <c r="SP60" s="16"/>
-      <c r="SQ60" s="16"/>
-      <c r="SR60" s="16"/>
-      <c r="SS60" s="16"/>
-      <c r="ST60" s="16"/>
-      <c r="SU60" s="16"/>
-      <c r="SV60" s="16"/>
-      <c r="SW60" s="16"/>
-      <c r="SX60" s="16"/>
-      <c r="SY60" s="16"/>
-      <c r="SZ60" s="16"/>
-      <c r="TA60" s="16"/>
-      <c r="TB60" s="16"/>
-      <c r="TC60" s="16"/>
-      <c r="TD60" s="16"/>
-      <c r="TE60" s="16"/>
-      <c r="TF60" s="16"/>
-      <c r="TG60" s="16"/>
-      <c r="TH60" s="16"/>
-      <c r="TI60" s="16"/>
-      <c r="TJ60" s="16"/>
-      <c r="TK60" s="16"/>
-      <c r="TL60" s="16"/>
-      <c r="TM60" s="16"/>
-      <c r="TN60" s="16"/>
-      <c r="TO60" s="16"/>
-      <c r="TP60" s="16"/>
-      <c r="TQ60" s="16"/>
-      <c r="TR60" s="16"/>
-      <c r="TS60" s="16"/>
-      <c r="TT60" s="16"/>
-      <c r="TU60" s="16"/>
-      <c r="TV60" s="16"/>
-      <c r="TW60" s="16"/>
-      <c r="TX60" s="16"/>
-      <c r="TY60" s="16"/>
-      <c r="TZ60" s="16"/>
-      <c r="UA60" s="16"/>
-      <c r="UB60" s="16"/>
-      <c r="UC60" s="16"/>
-      <c r="UD60" s="16"/>
-      <c r="UE60" s="16"/>
-      <c r="UF60" s="16"/>
-      <c r="UG60" s="16"/>
-      <c r="UH60" s="16"/>
-      <c r="UI60" s="16"/>
-      <c r="UJ60" s="16"/>
-      <c r="UK60" s="16"/>
-      <c r="UL60" s="16"/>
-      <c r="UM60" s="16"/>
-      <c r="UN60" s="16"/>
-      <c r="UO60" s="16"/>
-      <c r="UP60" s="16"/>
-      <c r="UQ60" s="16"/>
-      <c r="UR60" s="16"/>
-      <c r="US60" s="16"/>
-      <c r="UT60" s="16"/>
-      <c r="UU60" s="16"/>
-      <c r="UV60" s="16"/>
-      <c r="UW60" s="16"/>
-      <c r="UX60" s="16"/>
-      <c r="UY60" s="16"/>
-      <c r="UZ60" s="16"/>
-      <c r="VA60" s="16"/>
-      <c r="VB60" s="16"/>
-      <c r="VC60" s="16"/>
-      <c r="VD60" s="16"/>
-      <c r="VE60" s="16"/>
-      <c r="VF60" s="16"/>
-      <c r="VG60" s="16"/>
-      <c r="VH60" s="16"/>
-      <c r="VI60" s="16"/>
-      <c r="VJ60" s="16"/>
-      <c r="VK60" s="16"/>
-      <c r="VL60" s="16"/>
-      <c r="VM60" s="16"/>
-      <c r="VN60" s="16"/>
-      <c r="VO60" s="16"/>
-      <c r="VP60" s="16"/>
-      <c r="VQ60" s="16"/>
-      <c r="VR60" s="16"/>
-      <c r="VS60" s="16"/>
-      <c r="VT60" s="16"/>
-      <c r="VU60" s="16"/>
-      <c r="VV60" s="16"/>
-      <c r="VW60" s="16"/>
-      <c r="VX60" s="16"/>
-      <c r="VY60" s="16"/>
-      <c r="VZ60" s="16"/>
-      <c r="WA60" s="16"/>
-      <c r="WB60" s="16"/>
-      <c r="WC60" s="16"/>
-      <c r="WD60" s="16"/>
-      <c r="WE60" s="16"/>
-      <c r="WF60" s="16"/>
-      <c r="WG60" s="16"/>
-      <c r="WH60" s="16"/>
-      <c r="WI60" s="16"/>
-      <c r="WJ60" s="16"/>
-      <c r="WK60" s="16"/>
-      <c r="WL60" s="16"/>
-      <c r="WM60" s="16"/>
-      <c r="WN60" s="16"/>
-      <c r="WO60" s="16"/>
-      <c r="WP60" s="16"/>
-      <c r="WQ60" s="16"/>
-      <c r="WR60" s="16"/>
-      <c r="WS60" s="16"/>
-      <c r="WT60" s="16"/>
-      <c r="WU60" s="16"/>
-      <c r="WV60" s="16"/>
-      <c r="WW60" s="16"/>
-      <c r="WX60" s="16"/>
-      <c r="WY60" s="16"/>
-      <c r="WZ60" s="16"/>
-      <c r="XA60" s="16"/>
-      <c r="XB60" s="16"/>
-      <c r="XC60" s="16"/>
-      <c r="XD60" s="16"/>
-      <c r="XE60" s="16"/>
-      <c r="XF60" s="16"/>
-      <c r="XG60" s="16"/>
-      <c r="XH60" s="16"/>
-      <c r="XI60" s="16"/>
-      <c r="XJ60" s="16"/>
-      <c r="XK60" s="16"/>
-      <c r="XL60" s="16"/>
-      <c r="XM60" s="16"/>
-      <c r="XN60" s="16"/>
-      <c r="XO60" s="16"/>
-      <c r="XP60" s="16"/>
-      <c r="XQ60" s="16"/>
-      <c r="XR60" s="16"/>
-      <c r="XS60" s="16"/>
-      <c r="XT60" s="16"/>
-      <c r="XU60" s="16"/>
-      <c r="XV60" s="16"/>
-      <c r="XW60" s="16"/>
-      <c r="XX60" s="16"/>
-      <c r="XY60" s="16"/>
-      <c r="XZ60" s="16"/>
-      <c r="YA60" s="16"/>
-      <c r="YB60" s="16"/>
-      <c r="YC60" s="16"/>
-      <c r="YD60" s="16"/>
-      <c r="YE60" s="16"/>
-      <c r="YF60" s="16"/>
-      <c r="YG60" s="16"/>
-      <c r="YH60" s="16"/>
-      <c r="YI60" s="16"/>
-      <c r="YJ60" s="16"/>
-      <c r="YK60" s="16"/>
-      <c r="YL60" s="16"/>
-      <c r="YM60" s="16"/>
-      <c r="YN60" s="16"/>
-      <c r="YO60" s="16"/>
-      <c r="YP60" s="16"/>
-      <c r="YQ60" s="16"/>
-      <c r="YR60" s="16"/>
-      <c r="YS60" s="16"/>
-      <c r="YT60" s="16"/>
-      <c r="YU60" s="16"/>
-      <c r="YV60" s="16"/>
-      <c r="YW60" s="16"/>
-      <c r="YX60" s="16"/>
-      <c r="YY60" s="16"/>
-      <c r="YZ60" s="16"/>
-      <c r="ZA60" s="16"/>
-      <c r="ZB60" s="16"/>
-      <c r="ZC60" s="16"/>
-      <c r="ZD60" s="16"/>
-      <c r="ZE60" s="16"/>
-      <c r="ZF60" s="16"/>
-      <c r="ZG60" s="16"/>
-      <c r="ZH60" s="16"/>
-      <c r="ZI60" s="16"/>
-      <c r="ZJ60" s="16"/>
-      <c r="ZK60" s="16"/>
-      <c r="ZL60" s="16"/>
-      <c r="ZM60" s="16"/>
-      <c r="ZN60" s="16"/>
-      <c r="ZO60" s="16"/>
-      <c r="ZP60" s="16"/>
-      <c r="ZQ60" s="16"/>
-      <c r="ZR60" s="16"/>
-      <c r="ZS60" s="16"/>
-      <c r="ZT60" s="16"/>
-      <c r="ZU60" s="16"/>
-      <c r="ZV60" s="16"/>
-      <c r="ZW60" s="16"/>
-      <c r="ZX60" s="16"/>
-      <c r="ZY60" s="16"/>
-      <c r="ZZ60" s="16"/>
-      <c r="AAA60" s="16"/>
-      <c r="AAB60" s="16"/>
-      <c r="AAC60" s="16"/>
-      <c r="AAD60" s="16"/>
-      <c r="AAE60" s="16"/>
-      <c r="AAF60" s="16"/>
-      <c r="AAG60" s="16"/>
-      <c r="AAH60" s="16"/>
-      <c r="AAI60" s="16"/>
-      <c r="AAJ60" s="16"/>
-      <c r="AAK60" s="16"/>
-      <c r="AAL60" s="16"/>
-      <c r="AAM60" s="16"/>
-      <c r="AAN60" s="16"/>
-      <c r="AAO60" s="16"/>
-      <c r="AAP60" s="16"/>
-      <c r="AAQ60" s="16"/>
-      <c r="AAR60" s="16"/>
-      <c r="AAS60" s="16"/>
-      <c r="AAT60" s="16"/>
-      <c r="AAU60" s="16"/>
-      <c r="AAV60" s="16"/>
-      <c r="AAW60" s="16"/>
-      <c r="AAX60" s="16"/>
-      <c r="AAY60" s="16"/>
-      <c r="AAZ60" s="16"/>
-      <c r="ABA60" s="16"/>
-      <c r="ABB60" s="16"/>
-      <c r="ABC60" s="16"/>
-      <c r="ABD60" s="16"/>
-      <c r="ABE60" s="16"/>
-      <c r="ABF60" s="16"/>
-      <c r="ABG60" s="16"/>
-      <c r="ABH60" s="16"/>
-      <c r="ABI60" s="16"/>
-      <c r="ABJ60" s="16"/>
-      <c r="ABK60" s="16"/>
-      <c r="ABL60" s="16"/>
-      <c r="ABM60" s="16"/>
-      <c r="ABN60" s="16"/>
-      <c r="ABO60" s="16"/>
-      <c r="ABP60" s="16"/>
-      <c r="ABQ60" s="16"/>
-      <c r="ABR60" s="16"/>
-      <c r="ABS60" s="16"/>
-      <c r="ABT60" s="16"/>
-      <c r="ABU60" s="16"/>
-      <c r="ABV60" s="16"/>
-      <c r="ABW60" s="16"/>
-      <c r="ABX60" s="16"/>
-      <c r="ABY60" s="16"/>
-      <c r="ABZ60" s="16"/>
-      <c r="ACA60" s="16"/>
-      <c r="ACB60" s="16"/>
-      <c r="ACC60" s="16"/>
-      <c r="ACD60" s="16"/>
-      <c r="ACE60" s="16"/>
-      <c r="ACF60" s="16"/>
-      <c r="ACG60" s="16"/>
-      <c r="ACH60" s="16"/>
-      <c r="ACI60" s="16"/>
-      <c r="ACJ60" s="16"/>
-      <c r="ACK60" s="16"/>
-      <c r="ACL60" s="16"/>
-      <c r="ACM60" s="16"/>
-      <c r="ACN60" s="16"/>
-      <c r="ACO60" s="16"/>
-      <c r="ACP60" s="16"/>
-      <c r="ACQ60" s="16"/>
-      <c r="ACR60" s="16"/>
-      <c r="ACS60" s="16"/>
-      <c r="ACT60" s="16"/>
-      <c r="ACU60" s="16"/>
-      <c r="ACV60" s="16"/>
-      <c r="ACW60" s="16"/>
-      <c r="ACX60" s="16"/>
-      <c r="ACY60" s="16"/>
-      <c r="ACZ60" s="16"/>
-      <c r="ADA60" s="16"/>
-      <c r="ADB60" s="16"/>
-      <c r="ADC60" s="16"/>
-      <c r="ADD60" s="16"/>
-      <c r="ADE60" s="16"/>
-      <c r="ADF60" s="16"/>
-      <c r="ADG60" s="16"/>
-      <c r="ADH60" s="16"/>
-      <c r="ADI60" s="16"/>
-      <c r="ADJ60" s="16"/>
-      <c r="ADK60" s="16"/>
-      <c r="ADL60" s="16"/>
-      <c r="ADM60" s="16"/>
-      <c r="ADN60" s="16"/>
-      <c r="ADO60" s="16"/>
-      <c r="ADP60" s="16"/>
-      <c r="ADQ60" s="16"/>
-      <c r="ADR60" s="16"/>
-      <c r="ADS60" s="16"/>
-      <c r="ADT60" s="16"/>
-      <c r="ADU60" s="16"/>
-      <c r="ADV60" s="16"/>
-      <c r="ADW60" s="16"/>
-      <c r="ADX60" s="16"/>
-      <c r="ADY60" s="16"/>
-      <c r="ADZ60" s="16"/>
-      <c r="AEA60" s="16"/>
-      <c r="AEB60" s="16"/>
-      <c r="AEC60" s="16"/>
-      <c r="AED60" s="16"/>
-      <c r="AEE60" s="16"/>
-      <c r="AEF60" s="16"/>
-      <c r="AEG60" s="16"/>
-      <c r="AEH60" s="16"/>
-      <c r="AEI60" s="16"/>
-      <c r="AEJ60" s="16"/>
-      <c r="AEK60" s="16"/>
-      <c r="AEL60" s="16"/>
-      <c r="AEM60" s="16"/>
-      <c r="AEN60" s="16"/>
-      <c r="AEO60" s="16"/>
-      <c r="AEP60" s="16"/>
-      <c r="AEQ60" s="16"/>
-      <c r="AER60" s="16"/>
-      <c r="AES60" s="16"/>
-      <c r="AET60" s="16"/>
-      <c r="AEU60" s="16"/>
-      <c r="AEV60" s="16"/>
-      <c r="AEW60" s="16"/>
-      <c r="AEX60" s="16"/>
-      <c r="AEY60" s="16"/>
-      <c r="AEZ60" s="16"/>
-      <c r="AFA60" s="16"/>
-      <c r="AFB60" s="16"/>
-      <c r="AFC60" s="16"/>
-      <c r="AFD60" s="16"/>
-      <c r="AFE60" s="16"/>
-      <c r="AFF60" s="16"/>
-      <c r="AFG60" s="16"/>
-      <c r="AFH60" s="16"/>
-      <c r="AFI60" s="16"/>
-      <c r="AFJ60" s="16"/>
-      <c r="AFK60" s="16"/>
-      <c r="AFL60" s="16"/>
-      <c r="AFM60" s="16"/>
-      <c r="AFN60" s="16"/>
-      <c r="AFO60" s="16"/>
-      <c r="AFP60" s="16"/>
-      <c r="AFQ60" s="16"/>
-      <c r="AFR60" s="16"/>
-      <c r="AFS60" s="16"/>
-      <c r="AFT60" s="16"/>
-      <c r="AFU60" s="16"/>
-      <c r="AFV60" s="16"/>
-      <c r="AFW60" s="16"/>
-      <c r="AFX60" s="16"/>
-      <c r="AFY60" s="16"/>
-      <c r="AFZ60" s="16"/>
-      <c r="AGA60" s="16"/>
-      <c r="AGB60" s="16"/>
-      <c r="AGC60" s="16"/>
-      <c r="AGD60" s="16"/>
-      <c r="AGE60" s="16"/>
-      <c r="AGF60" s="16"/>
-      <c r="AGG60" s="16"/>
-      <c r="AGH60" s="16"/>
-      <c r="AGI60" s="16"/>
-      <c r="AGJ60" s="16"/>
-      <c r="AGK60" s="16"/>
-      <c r="AGL60" s="16"/>
-      <c r="AGM60" s="16"/>
-      <c r="AGN60" s="16"/>
-      <c r="AGO60" s="16"/>
-      <c r="AGP60" s="16"/>
-      <c r="AGQ60" s="16"/>
-      <c r="AGR60" s="16"/>
-      <c r="AGS60" s="16"/>
-      <c r="AGT60" s="16"/>
-      <c r="AGU60" s="16"/>
-      <c r="AGV60" s="16"/>
-      <c r="AGW60" s="16"/>
-      <c r="AGX60" s="16"/>
-      <c r="AGY60" s="16"/>
-      <c r="AGZ60" s="16"/>
-      <c r="AHA60" s="16"/>
-      <c r="AHB60" s="16"/>
-      <c r="AHC60" s="16"/>
-      <c r="AHD60" s="16"/>
-      <c r="AHE60" s="16"/>
-      <c r="AHF60" s="16"/>
-      <c r="AHG60" s="16"/>
-      <c r="AHH60" s="16"/>
-      <c r="AHI60" s="16"/>
-      <c r="AHJ60" s="16"/>
-      <c r="AHK60" s="16"/>
-      <c r="AHL60" s="16"/>
-      <c r="AHM60" s="16"/>
-      <c r="AHN60" s="16"/>
-      <c r="AHO60" s="16"/>
-      <c r="AHP60" s="16"/>
-      <c r="AHQ60" s="16"/>
-      <c r="AHR60" s="16"/>
-      <c r="AHS60" s="16"/>
-      <c r="AHT60" s="16"/>
-      <c r="AHU60" s="16"/>
-      <c r="AHV60" s="16"/>
-      <c r="AHW60" s="16"/>
-      <c r="AHX60" s="16"/>
-      <c r="AHY60" s="16"/>
-      <c r="AHZ60" s="16"/>
-      <c r="AIA60" s="16"/>
-      <c r="AIB60" s="16"/>
-      <c r="AIC60" s="16"/>
-      <c r="AID60" s="16"/>
-      <c r="AIE60" s="16"/>
-      <c r="AIF60" s="16"/>
-      <c r="AIG60" s="16"/>
-      <c r="AIH60" s="16"/>
-      <c r="AII60" s="16"/>
-      <c r="AIJ60" s="16"/>
-      <c r="AIK60" s="16"/>
-      <c r="AIL60" s="16"/>
-      <c r="AIM60" s="16"/>
-      <c r="AIN60" s="16"/>
-      <c r="AIO60" s="16"/>
-      <c r="AIP60" s="16"/>
-      <c r="AIQ60" s="16"/>
-      <c r="AIR60" s="16"/>
-      <c r="AIS60" s="16"/>
-      <c r="AIT60" s="16"/>
-      <c r="AIU60" s="16"/>
-      <c r="AIV60" s="16"/>
-      <c r="AIW60" s="16"/>
-      <c r="AIX60" s="16"/>
-      <c r="AIY60" s="16"/>
-      <c r="AIZ60" s="16"/>
-      <c r="AJA60" s="16"/>
-      <c r="AJB60" s="16"/>
-      <c r="AJC60" s="16"/>
-      <c r="AJD60" s="16"/>
-      <c r="AJE60" s="16"/>
-      <c r="AJF60" s="16"/>
-      <c r="AJG60" s="16"/>
-      <c r="AJH60" s="16"/>
-      <c r="AJI60" s="16"/>
-      <c r="AJJ60" s="16"/>
-      <c r="AJK60" s="16"/>
-      <c r="AJL60" s="16"/>
-      <c r="AJM60" s="16"/>
-      <c r="AJN60" s="16"/>
-      <c r="AJO60" s="16"/>
-      <c r="AJP60" s="16"/>
-      <c r="AJQ60" s="16"/>
-      <c r="AJR60" s="16"/>
-      <c r="AJS60" s="16"/>
-      <c r="AJT60" s="16"/>
-      <c r="AJU60" s="16"/>
-      <c r="AJV60" s="16"/>
-      <c r="AJW60" s="16"/>
-      <c r="AJX60" s="16"/>
-      <c r="AJY60" s="16"/>
-      <c r="AJZ60" s="16"/>
-      <c r="AKA60" s="16"/>
-      <c r="AKB60" s="16"/>
-      <c r="AKC60" s="16"/>
-      <c r="AKD60" s="16"/>
-      <c r="AKE60" s="16"/>
-      <c r="AKF60" s="16"/>
-      <c r="AKG60" s="16"/>
-      <c r="AKH60" s="16"/>
-      <c r="AKI60" s="16"/>
-      <c r="AKJ60" s="16"/>
-      <c r="AKK60" s="16"/>
-      <c r="AKL60" s="16"/>
-      <c r="AKM60" s="16"/>
-      <c r="AKN60" s="16"/>
-      <c r="AKO60" s="16"/>
-      <c r="AKP60" s="16"/>
-      <c r="AKQ60" s="16"/>
-      <c r="AKR60" s="16"/>
-      <c r="AKS60" s="16"/>
-      <c r="AKT60" s="16"/>
-      <c r="AKU60" s="16"/>
-      <c r="AKV60" s="16"/>
-      <c r="AKW60" s="16"/>
-      <c r="AKX60" s="16"/>
-      <c r="AKY60" s="16"/>
-      <c r="AKZ60" s="16"/>
-      <c r="ALA60" s="16"/>
-      <c r="ALB60" s="16"/>
-      <c r="ALC60" s="16"/>
-      <c r="ALD60" s="16"/>
-      <c r="ALE60" s="16"/>
-      <c r="ALF60" s="16"/>
-      <c r="ALG60" s="16"/>
-      <c r="ALH60" s="16"/>
-      <c r="ALI60" s="16"/>
-      <c r="ALJ60" s="16"/>
-      <c r="ALK60" s="16"/>
-      <c r="ALL60" s="16"/>
-      <c r="ALM60" s="16"/>
-      <c r="ALN60" s="16"/>
-      <c r="ALO60" s="16"/>
-      <c r="ALP60" s="16"/>
-      <c r="ALQ60" s="16"/>
-      <c r="ALR60" s="16"/>
-      <c r="ALS60" s="16"/>
-      <c r="ALT60" s="16"/>
-      <c r="ALU60" s="16"/>
-      <c r="ALV60" s="16"/>
-      <c r="ALW60" s="16"/>
-      <c r="ALX60" s="16"/>
-      <c r="ALY60" s="16"/>
-      <c r="ALZ60" s="16"/>
-      <c r="AMA60" s="16"/>
-      <c r="AMB60" s="16"/>
-      <c r="AMC60" s="16"/>
-      <c r="AMD60" s="16"/>
-      <c r="AME60" s="16"/>
-      <c r="AMF60" s="16"/>
-      <c r="AMG60" s="16"/>
-      <c r="AMH60" s="16"/>
-      <c r="AMI60" s="16"/>
-      <c r="AMJ60" s="16"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="16"/>
+      <c r="AI63" s="16"/>
+      <c r="AJ63" s="16"/>
+      <c r="AK63" s="16"/>
+      <c r="AL63" s="16"/>
+      <c r="AM63" s="16"/>
+      <c r="AN63" s="16"/>
+      <c r="AO63" s="16"/>
+      <c r="AP63" s="16"/>
+      <c r="AQ63" s="16"/>
+      <c r="AR63" s="16"/>
+      <c r="AS63" s="16"/>
+      <c r="AT63" s="16"/>
+      <c r="AU63" s="16"/>
+      <c r="AV63" s="16"/>
+      <c r="AW63" s="16"/>
+      <c r="AX63" s="16"/>
+      <c r="AY63" s="16"/>
+      <c r="AZ63" s="16"/>
+      <c r="BA63" s="16"/>
+      <c r="BB63" s="16"/>
+      <c r="BC63" s="16"/>
+      <c r="BD63" s="16"/>
+      <c r="BE63" s="16"/>
+      <c r="BF63" s="16"/>
+      <c r="BG63" s="16"/>
+      <c r="BH63" s="16"/>
+      <c r="BI63" s="16"/>
+      <c r="BJ63" s="16"/>
+      <c r="BK63" s="16"/>
+      <c r="BL63" s="16"/>
+      <c r="BM63" s="16"/>
+      <c r="BN63" s="16"/>
+      <c r="BO63" s="16"/>
+      <c r="BP63" s="16"/>
+      <c r="BQ63" s="16"/>
+      <c r="BR63" s="16"/>
+      <c r="BS63" s="16"/>
+      <c r="BT63" s="16"/>
+      <c r="BU63" s="16"/>
+      <c r="BV63" s="16"/>
+      <c r="BW63" s="16"/>
+      <c r="BX63" s="16"/>
+      <c r="BY63" s="16"/>
+      <c r="BZ63" s="16"/>
+      <c r="CA63" s="16"/>
+      <c r="CB63" s="16"/>
+      <c r="CC63" s="16"/>
+      <c r="CD63" s="16"/>
+      <c r="CE63" s="16"/>
+      <c r="CF63" s="16"/>
+      <c r="CG63" s="16"/>
+      <c r="CH63" s="16"/>
+      <c r="CI63" s="16"/>
+      <c r="CJ63" s="16"/>
+      <c r="CK63" s="16"/>
+      <c r="CL63" s="16"/>
+      <c r="CM63" s="16"/>
+      <c r="CN63" s="16"/>
+      <c r="CO63" s="16"/>
+      <c r="CP63" s="16"/>
+      <c r="CQ63" s="16"/>
+      <c r="CR63" s="16"/>
+      <c r="CS63" s="16"/>
+      <c r="CT63" s="16"/>
+      <c r="CU63" s="16"/>
+      <c r="CV63" s="16"/>
+      <c r="CW63" s="16"/>
+      <c r="CX63" s="16"/>
+      <c r="CY63" s="16"/>
+      <c r="CZ63" s="16"/>
+      <c r="DA63" s="16"/>
+      <c r="DB63" s="16"/>
+      <c r="DC63" s="16"/>
+      <c r="DD63" s="16"/>
+      <c r="DE63" s="16"/>
+      <c r="DF63" s="16"/>
+      <c r="DG63" s="16"/>
+      <c r="DH63" s="16"/>
+      <c r="DI63" s="16"/>
+      <c r="DJ63" s="16"/>
+      <c r="DK63" s="16"/>
+      <c r="DL63" s="16"/>
+      <c r="DM63" s="16"/>
+      <c r="DN63" s="16"/>
+      <c r="DO63" s="16"/>
+      <c r="DP63" s="16"/>
+      <c r="DQ63" s="16"/>
+      <c r="DR63" s="16"/>
+      <c r="DS63" s="16"/>
+      <c r="DT63" s="16"/>
+      <c r="DU63" s="16"/>
+      <c r="DV63" s="16"/>
+      <c r="DW63" s="16"/>
+      <c r="DX63" s="16"/>
+      <c r="DY63" s="16"/>
+      <c r="DZ63" s="16"/>
+      <c r="EA63" s="16"/>
+      <c r="EB63" s="16"/>
+      <c r="EC63" s="16"/>
+      <c r="ED63" s="16"/>
+      <c r="EE63" s="16"/>
+      <c r="EF63" s="16"/>
+      <c r="EG63" s="16"/>
+      <c r="EH63" s="16"/>
+      <c r="EI63" s="16"/>
+      <c r="EJ63" s="16"/>
+      <c r="EK63" s="16"/>
+      <c r="EL63" s="16"/>
+      <c r="EM63" s="16"/>
+      <c r="EN63" s="16"/>
+      <c r="EO63" s="16"/>
+      <c r="EP63" s="16"/>
+      <c r="EQ63" s="16"/>
+      <c r="ER63" s="16"/>
+      <c r="ES63" s="16"/>
+      <c r="ET63" s="16"/>
+      <c r="EU63" s="16"/>
+      <c r="EV63" s="16"/>
+      <c r="EW63" s="16"/>
+      <c r="EX63" s="16"/>
+      <c r="EY63" s="16"/>
+      <c r="EZ63" s="16"/>
+      <c r="FA63" s="16"/>
+      <c r="FB63" s="16"/>
+      <c r="FC63" s="16"/>
+      <c r="FD63" s="16"/>
+      <c r="FE63" s="16"/>
+      <c r="FF63" s="16"/>
+      <c r="FG63" s="16"/>
+      <c r="FH63" s="16"/>
+      <c r="FI63" s="16"/>
+      <c r="FJ63" s="16"/>
+      <c r="FK63" s="16"/>
+      <c r="FL63" s="16"/>
+      <c r="FM63" s="16"/>
+      <c r="FN63" s="16"/>
+      <c r="FO63" s="16"/>
+      <c r="FP63" s="16"/>
+      <c r="FQ63" s="16"/>
+      <c r="FR63" s="16"/>
+      <c r="FS63" s="16"/>
+      <c r="FT63" s="16"/>
+      <c r="FU63" s="16"/>
+      <c r="FV63" s="16"/>
+      <c r="FW63" s="16"/>
+      <c r="FX63" s="16"/>
+      <c r="FY63" s="16"/>
+      <c r="FZ63" s="16"/>
+      <c r="GA63" s="16"/>
+      <c r="GB63" s="16"/>
+      <c r="GC63" s="16"/>
+      <c r="GD63" s="16"/>
+      <c r="GE63" s="16"/>
+      <c r="GF63" s="16"/>
+      <c r="GG63" s="16"/>
+      <c r="GH63" s="16"/>
+      <c r="GI63" s="16"/>
+      <c r="GJ63" s="16"/>
+      <c r="GK63" s="16"/>
+      <c r="GL63" s="16"/>
+      <c r="GM63" s="16"/>
+      <c r="GN63" s="16"/>
+      <c r="GO63" s="16"/>
+      <c r="GP63" s="16"/>
+      <c r="GQ63" s="16"/>
+      <c r="GR63" s="16"/>
+      <c r="GS63" s="16"/>
+      <c r="GT63" s="16"/>
+      <c r="GU63" s="16"/>
+      <c r="GV63" s="16"/>
+      <c r="GW63" s="16"/>
+      <c r="GX63" s="16"/>
+      <c r="GY63" s="16"/>
+      <c r="GZ63" s="16"/>
+      <c r="HA63" s="16"/>
+      <c r="HB63" s="16"/>
+      <c r="HC63" s="16"/>
+      <c r="HD63" s="16"/>
+      <c r="HE63" s="16"/>
+      <c r="HF63" s="16"/>
+      <c r="HG63" s="16"/>
+      <c r="HH63" s="16"/>
+      <c r="HI63" s="16"/>
+      <c r="HJ63" s="16"/>
+      <c r="HK63" s="16"/>
+      <c r="HL63" s="16"/>
+      <c r="HM63" s="16"/>
+      <c r="HN63" s="16"/>
+      <c r="HO63" s="16"/>
+      <c r="HP63" s="16"/>
+      <c r="HQ63" s="16"/>
+      <c r="HR63" s="16"/>
+      <c r="HS63" s="16"/>
+      <c r="HT63" s="16"/>
+      <c r="HU63" s="16"/>
+      <c r="HV63" s="16"/>
+      <c r="HW63" s="16"/>
+      <c r="HX63" s="16"/>
+      <c r="HY63" s="16"/>
+      <c r="HZ63" s="16"/>
+      <c r="IA63" s="16"/>
+      <c r="IB63" s="16"/>
+      <c r="IC63" s="16"/>
+      <c r="ID63" s="16"/>
+      <c r="IE63" s="16"/>
+      <c r="IF63" s="16"/>
+      <c r="IG63" s="16"/>
+      <c r="IH63" s="16"/>
+      <c r="II63" s="16"/>
+      <c r="IJ63" s="16"/>
+      <c r="IK63" s="16"/>
+      <c r="IL63" s="16"/>
+      <c r="IM63" s="16"/>
+      <c r="IN63" s="16"/>
+      <c r="IO63" s="16"/>
+      <c r="IP63" s="16"/>
+      <c r="IQ63" s="16"/>
+      <c r="IR63" s="16"/>
+      <c r="IS63" s="16"/>
+      <c r="IT63" s="16"/>
+      <c r="IU63" s="16"/>
+      <c r="IV63" s="16"/>
+      <c r="IW63" s="16"/>
+      <c r="IX63" s="16"/>
+      <c r="IY63" s="16"/>
+      <c r="IZ63" s="16"/>
+      <c r="JA63" s="16"/>
+      <c r="JB63" s="16"/>
+      <c r="JC63" s="16"/>
+      <c r="JD63" s="16"/>
+      <c r="JE63" s="16"/>
+      <c r="JF63" s="16"/>
+      <c r="JG63" s="16"/>
+      <c r="JH63" s="16"/>
+      <c r="JI63" s="16"/>
+      <c r="JJ63" s="16"/>
+      <c r="JK63" s="16"/>
+      <c r="JL63" s="16"/>
+      <c r="JM63" s="16"/>
+      <c r="JN63" s="16"/>
+      <c r="JO63" s="16"/>
+      <c r="JP63" s="16"/>
+      <c r="JQ63" s="16"/>
+      <c r="JR63" s="16"/>
+      <c r="JS63" s="16"/>
+      <c r="JT63" s="16"/>
+      <c r="JU63" s="16"/>
+      <c r="JV63" s="16"/>
+      <c r="JW63" s="16"/>
+      <c r="JX63" s="16"/>
+      <c r="JY63" s="16"/>
+      <c r="JZ63" s="16"/>
+      <c r="KA63" s="16"/>
+      <c r="KB63" s="16"/>
+      <c r="KC63" s="16"/>
+      <c r="KD63" s="16"/>
+      <c r="KE63" s="16"/>
+      <c r="KF63" s="16"/>
+      <c r="KG63" s="16"/>
+      <c r="KH63" s="16"/>
+      <c r="KI63" s="16"/>
+      <c r="KJ63" s="16"/>
+      <c r="KK63" s="16"/>
+      <c r="KL63" s="16"/>
+      <c r="KM63" s="16"/>
+      <c r="KN63" s="16"/>
+      <c r="KO63" s="16"/>
+      <c r="KP63" s="16"/>
+      <c r="KQ63" s="16"/>
+      <c r="KR63" s="16"/>
+      <c r="KS63" s="16"/>
+      <c r="KT63" s="16"/>
+      <c r="KU63" s="16"/>
+      <c r="KV63" s="16"/>
+      <c r="KW63" s="16"/>
+      <c r="KX63" s="16"/>
+      <c r="KY63" s="16"/>
+      <c r="KZ63" s="16"/>
+      <c r="LA63" s="16"/>
+      <c r="LB63" s="16"/>
+      <c r="LC63" s="16"/>
+      <c r="LD63" s="16"/>
+      <c r="LE63" s="16"/>
+      <c r="LF63" s="16"/>
+      <c r="LG63" s="16"/>
+      <c r="LH63" s="16"/>
+      <c r="LI63" s="16"/>
+      <c r="LJ63" s="16"/>
+      <c r="LK63" s="16"/>
+      <c r="LL63" s="16"/>
+      <c r="LM63" s="16"/>
+      <c r="LN63" s="16"/>
+      <c r="LO63" s="16"/>
+      <c r="LP63" s="16"/>
+      <c r="LQ63" s="16"/>
+      <c r="LR63" s="16"/>
+      <c r="LS63" s="16"/>
+      <c r="LT63" s="16"/>
+      <c r="LU63" s="16"/>
+      <c r="LV63" s="16"/>
+      <c r="LW63" s="16"/>
+      <c r="LX63" s="16"/>
+      <c r="LY63" s="16"/>
+      <c r="LZ63" s="16"/>
+      <c r="MA63" s="16"/>
+      <c r="MB63" s="16"/>
+      <c r="MC63" s="16"/>
+      <c r="MD63" s="16"/>
+      <c r="ME63" s="16"/>
+      <c r="MF63" s="16"/>
+      <c r="MG63" s="16"/>
+      <c r="MH63" s="16"/>
+      <c r="MI63" s="16"/>
+      <c r="MJ63" s="16"/>
+      <c r="MK63" s="16"/>
+      <c r="ML63" s="16"/>
+      <c r="MM63" s="16"/>
+      <c r="MN63" s="16"/>
+      <c r="MO63" s="16"/>
+      <c r="MP63" s="16"/>
+      <c r="MQ63" s="16"/>
+      <c r="MR63" s="16"/>
+      <c r="MS63" s="16"/>
+      <c r="MT63" s="16"/>
+      <c r="MU63" s="16"/>
+      <c r="MV63" s="16"/>
+      <c r="MW63" s="16"/>
+      <c r="MX63" s="16"/>
+      <c r="MY63" s="16"/>
+      <c r="MZ63" s="16"/>
+      <c r="NA63" s="16"/>
+      <c r="NB63" s="16"/>
+      <c r="NC63" s="16"/>
+      <c r="ND63" s="16"/>
+      <c r="NE63" s="16"/>
+      <c r="NF63" s="16"/>
+      <c r="NG63" s="16"/>
+      <c r="NH63" s="16"/>
+      <c r="NI63" s="16"/>
+      <c r="NJ63" s="16"/>
+      <c r="NK63" s="16"/>
+      <c r="NL63" s="16"/>
+      <c r="NM63" s="16"/>
+      <c r="NN63" s="16"/>
+      <c r="NO63" s="16"/>
+      <c r="NP63" s="16"/>
+      <c r="NQ63" s="16"/>
+      <c r="NR63" s="16"/>
+      <c r="NS63" s="16"/>
+      <c r="NT63" s="16"/>
+      <c r="NU63" s="16"/>
+      <c r="NV63" s="16"/>
+      <c r="NW63" s="16"/>
+      <c r="NX63" s="16"/>
+      <c r="NY63" s="16"/>
+      <c r="NZ63" s="16"/>
+      <c r="OA63" s="16"/>
+      <c r="OB63" s="16"/>
+      <c r="OC63" s="16"/>
+      <c r="OD63" s="16"/>
+      <c r="OE63" s="16"/>
+      <c r="OF63" s="16"/>
+      <c r="OG63" s="16"/>
+      <c r="OH63" s="16"/>
+      <c r="OI63" s="16"/>
+      <c r="OJ63" s="16"/>
+      <c r="OK63" s="16"/>
+      <c r="OL63" s="16"/>
+      <c r="OM63" s="16"/>
+      <c r="ON63" s="16"/>
+      <c r="OO63" s="16"/>
+      <c r="OP63" s="16"/>
+      <c r="OQ63" s="16"/>
+      <c r="OR63" s="16"/>
+      <c r="OS63" s="16"/>
+      <c r="OT63" s="16"/>
+      <c r="OU63" s="16"/>
+      <c r="OV63" s="16"/>
+      <c r="OW63" s="16"/>
+      <c r="OX63" s="16"/>
+      <c r="OY63" s="16"/>
+      <c r="OZ63" s="16"/>
+      <c r="PA63" s="16"/>
+      <c r="PB63" s="16"/>
+      <c r="PC63" s="16"/>
+      <c r="PD63" s="16"/>
+      <c r="PE63" s="16"/>
+      <c r="PF63" s="16"/>
+      <c r="PG63" s="16"/>
+      <c r="PH63" s="16"/>
+      <c r="PI63" s="16"/>
+      <c r="PJ63" s="16"/>
+      <c r="PK63" s="16"/>
+      <c r="PL63" s="16"/>
+      <c r="PM63" s="16"/>
+      <c r="PN63" s="16"/>
+      <c r="PO63" s="16"/>
+      <c r="PP63" s="16"/>
+      <c r="PQ63" s="16"/>
+      <c r="PR63" s="16"/>
+      <c r="PS63" s="16"/>
+      <c r="PT63" s="16"/>
+      <c r="PU63" s="16"/>
+      <c r="PV63" s="16"/>
+      <c r="PW63" s="16"/>
+      <c r="PX63" s="16"/>
+      <c r="PY63" s="16"/>
+      <c r="PZ63" s="16"/>
+      <c r="QA63" s="16"/>
+      <c r="QB63" s="16"/>
+      <c r="QC63" s="16"/>
+      <c r="QD63" s="16"/>
+      <c r="QE63" s="16"/>
+      <c r="QF63" s="16"/>
+      <c r="QG63" s="16"/>
+      <c r="QH63" s="16"/>
+      <c r="QI63" s="16"/>
+      <c r="QJ63" s="16"/>
+      <c r="QK63" s="16"/>
+      <c r="QL63" s="16"/>
+      <c r="QM63" s="16"/>
+      <c r="QN63" s="16"/>
+      <c r="QO63" s="16"/>
+      <c r="QP63" s="16"/>
+      <c r="QQ63" s="16"/>
+      <c r="QR63" s="16"/>
+      <c r="QS63" s="16"/>
+      <c r="QT63" s="16"/>
+      <c r="QU63" s="16"/>
+      <c r="QV63" s="16"/>
+      <c r="QW63" s="16"/>
+      <c r="QX63" s="16"/>
+      <c r="QY63" s="16"/>
+      <c r="QZ63" s="16"/>
+      <c r="RA63" s="16"/>
+      <c r="RB63" s="16"/>
+      <c r="RC63" s="16"/>
+      <c r="RD63" s="16"/>
+      <c r="RE63" s="16"/>
+      <c r="RF63" s="16"/>
+      <c r="RG63" s="16"/>
+      <c r="RH63" s="16"/>
+      <c r="RI63" s="16"/>
+      <c r="RJ63" s="16"/>
+      <c r="RK63" s="16"/>
+      <c r="RL63" s="16"/>
+      <c r="RM63" s="16"/>
+      <c r="RN63" s="16"/>
+      <c r="RO63" s="16"/>
+      <c r="RP63" s="16"/>
+      <c r="RQ63" s="16"/>
+      <c r="RR63" s="16"/>
+      <c r="RS63" s="16"/>
+      <c r="RT63" s="16"/>
+      <c r="RU63" s="16"/>
+      <c r="RV63" s="16"/>
+      <c r="RW63" s="16"/>
+      <c r="RX63" s="16"/>
+      <c r="RY63" s="16"/>
+      <c r="RZ63" s="16"/>
+      <c r="SA63" s="16"/>
+      <c r="SB63" s="16"/>
+      <c r="SC63" s="16"/>
+      <c r="SD63" s="16"/>
+      <c r="SE63" s="16"/>
+      <c r="SF63" s="16"/>
+      <c r="SG63" s="16"/>
+      <c r="SH63" s="16"/>
+      <c r="SI63" s="16"/>
+      <c r="SJ63" s="16"/>
+      <c r="SK63" s="16"/>
+      <c r="SL63" s="16"/>
+      <c r="SM63" s="16"/>
+      <c r="SN63" s="16"/>
+      <c r="SO63" s="16"/>
+      <c r="SP63" s="16"/>
+      <c r="SQ63" s="16"/>
+      <c r="SR63" s="16"/>
+      <c r="SS63" s="16"/>
+      <c r="ST63" s="16"/>
+      <c r="SU63" s="16"/>
+      <c r="SV63" s="16"/>
+      <c r="SW63" s="16"/>
+      <c r="SX63" s="16"/>
+      <c r="SY63" s="16"/>
+      <c r="SZ63" s="16"/>
+      <c r="TA63" s="16"/>
+      <c r="TB63" s="16"/>
+      <c r="TC63" s="16"/>
+      <c r="TD63" s="16"/>
+      <c r="TE63" s="16"/>
+      <c r="TF63" s="16"/>
+      <c r="TG63" s="16"/>
+      <c r="TH63" s="16"/>
+      <c r="TI63" s="16"/>
+      <c r="TJ63" s="16"/>
+      <c r="TK63" s="16"/>
+      <c r="TL63" s="16"/>
+      <c r="TM63" s="16"/>
+      <c r="TN63" s="16"/>
+      <c r="TO63" s="16"/>
+      <c r="TP63" s="16"/>
+      <c r="TQ63" s="16"/>
+      <c r="TR63" s="16"/>
+      <c r="TS63" s="16"/>
+      <c r="TT63" s="16"/>
+      <c r="TU63" s="16"/>
+      <c r="TV63" s="16"/>
+      <c r="TW63" s="16"/>
+      <c r="TX63" s="16"/>
+      <c r="TY63" s="16"/>
+      <c r="TZ63" s="16"/>
+      <c r="UA63" s="16"/>
+      <c r="UB63" s="16"/>
+      <c r="UC63" s="16"/>
+      <c r="UD63" s="16"/>
+      <c r="UE63" s="16"/>
+      <c r="UF63" s="16"/>
+      <c r="UG63" s="16"/>
+      <c r="UH63" s="16"/>
+      <c r="UI63" s="16"/>
+      <c r="UJ63" s="16"/>
+      <c r="UK63" s="16"/>
+      <c r="UL63" s="16"/>
+      <c r="UM63" s="16"/>
+      <c r="UN63" s="16"/>
+      <c r="UO63" s="16"/>
+      <c r="UP63" s="16"/>
+      <c r="UQ63" s="16"/>
+      <c r="UR63" s="16"/>
+      <c r="US63" s="16"/>
+      <c r="UT63" s="16"/>
+      <c r="UU63" s="16"/>
+      <c r="UV63" s="16"/>
+      <c r="UW63" s="16"/>
+      <c r="UX63" s="16"/>
+      <c r="UY63" s="16"/>
+      <c r="UZ63" s="16"/>
+      <c r="VA63" s="16"/>
+      <c r="VB63" s="16"/>
+      <c r="VC63" s="16"/>
+      <c r="VD63" s="16"/>
+      <c r="VE63" s="16"/>
+      <c r="VF63" s="16"/>
+      <c r="VG63" s="16"/>
+      <c r="VH63" s="16"/>
+      <c r="VI63" s="16"/>
+      <c r="VJ63" s="16"/>
+      <c r="VK63" s="16"/>
+      <c r="VL63" s="16"/>
+      <c r="VM63" s="16"/>
+      <c r="VN63" s="16"/>
+      <c r="VO63" s="16"/>
+      <c r="VP63" s="16"/>
+      <c r="VQ63" s="16"/>
+      <c r="VR63" s="16"/>
+      <c r="VS63" s="16"/>
+      <c r="VT63" s="16"/>
+      <c r="VU63" s="16"/>
+      <c r="VV63" s="16"/>
+      <c r="VW63" s="16"/>
+      <c r="VX63" s="16"/>
+      <c r="VY63" s="16"/>
+      <c r="VZ63" s="16"/>
+      <c r="WA63" s="16"/>
+      <c r="WB63" s="16"/>
+      <c r="WC63" s="16"/>
+      <c r="WD63" s="16"/>
+      <c r="WE63" s="16"/>
+      <c r="WF63" s="16"/>
+      <c r="WG63" s="16"/>
+      <c r="WH63" s="16"/>
+      <c r="WI63" s="16"/>
+      <c r="WJ63" s="16"/>
+      <c r="WK63" s="16"/>
+      <c r="WL63" s="16"/>
+      <c r="WM63" s="16"/>
+      <c r="WN63" s="16"/>
+      <c r="WO63" s="16"/>
+      <c r="WP63" s="16"/>
+      <c r="WQ63" s="16"/>
+      <c r="WR63" s="16"/>
+      <c r="WS63" s="16"/>
+      <c r="WT63" s="16"/>
+      <c r="WU63" s="16"/>
+      <c r="WV63" s="16"/>
+      <c r="WW63" s="16"/>
+      <c r="WX63" s="16"/>
+      <c r="WY63" s="16"/>
+      <c r="WZ63" s="16"/>
+      <c r="XA63" s="16"/>
+      <c r="XB63" s="16"/>
+      <c r="XC63" s="16"/>
+      <c r="XD63" s="16"/>
+      <c r="XE63" s="16"/>
+      <c r="XF63" s="16"/>
+      <c r="XG63" s="16"/>
+      <c r="XH63" s="16"/>
+      <c r="XI63" s="16"/>
+      <c r="XJ63" s="16"/>
+      <c r="XK63" s="16"/>
+      <c r="XL63" s="16"/>
+      <c r="XM63" s="16"/>
+      <c r="XN63" s="16"/>
+      <c r="XO63" s="16"/>
+      <c r="XP63" s="16"/>
+      <c r="XQ63" s="16"/>
+      <c r="XR63" s="16"/>
+      <c r="XS63" s="16"/>
+      <c r="XT63" s="16"/>
+      <c r="XU63" s="16"/>
+      <c r="XV63" s="16"/>
+      <c r="XW63" s="16"/>
+      <c r="XX63" s="16"/>
+      <c r="XY63" s="16"/>
+      <c r="XZ63" s="16"/>
+      <c r="YA63" s="16"/>
+      <c r="YB63" s="16"/>
+      <c r="YC63" s="16"/>
+      <c r="YD63" s="16"/>
+      <c r="YE63" s="16"/>
+      <c r="YF63" s="16"/>
+      <c r="YG63" s="16"/>
+      <c r="YH63" s="16"/>
+      <c r="YI63" s="16"/>
+      <c r="YJ63" s="16"/>
+      <c r="YK63" s="16"/>
+      <c r="YL63" s="16"/>
+      <c r="YM63" s="16"/>
+      <c r="YN63" s="16"/>
+      <c r="YO63" s="16"/>
+      <c r="YP63" s="16"/>
+      <c r="YQ63" s="16"/>
+      <c r="YR63" s="16"/>
+      <c r="YS63" s="16"/>
+      <c r="YT63" s="16"/>
+      <c r="YU63" s="16"/>
+      <c r="YV63" s="16"/>
+      <c r="YW63" s="16"/>
+      <c r="YX63" s="16"/>
+      <c r="YY63" s="16"/>
+      <c r="YZ63" s="16"/>
+      <c r="ZA63" s="16"/>
+      <c r="ZB63" s="16"/>
+      <c r="ZC63" s="16"/>
+      <c r="ZD63" s="16"/>
+      <c r="ZE63" s="16"/>
+      <c r="ZF63" s="16"/>
+      <c r="ZG63" s="16"/>
+      <c r="ZH63" s="16"/>
+      <c r="ZI63" s="16"/>
+      <c r="ZJ63" s="16"/>
+      <c r="ZK63" s="16"/>
+      <c r="ZL63" s="16"/>
+      <c r="ZM63" s="16"/>
+      <c r="ZN63" s="16"/>
+      <c r="ZO63" s="16"/>
+      <c r="ZP63" s="16"/>
+      <c r="ZQ63" s="16"/>
+      <c r="ZR63" s="16"/>
+      <c r="ZS63" s="16"/>
+      <c r="ZT63" s="16"/>
+      <c r="ZU63" s="16"/>
+      <c r="ZV63" s="16"/>
+      <c r="ZW63" s="16"/>
+      <c r="ZX63" s="16"/>
+      <c r="ZY63" s="16"/>
+      <c r="ZZ63" s="16"/>
+      <c r="AAA63" s="16"/>
+      <c r="AAB63" s="16"/>
+      <c r="AAC63" s="16"/>
+      <c r="AAD63" s="16"/>
+      <c r="AAE63" s="16"/>
+      <c r="AAF63" s="16"/>
+      <c r="AAG63" s="16"/>
+      <c r="AAH63" s="16"/>
+      <c r="AAI63" s="16"/>
+      <c r="AAJ63" s="16"/>
+      <c r="AAK63" s="16"/>
+      <c r="AAL63" s="16"/>
+      <c r="AAM63" s="16"/>
+      <c r="AAN63" s="16"/>
+      <c r="AAO63" s="16"/>
+      <c r="AAP63" s="16"/>
+      <c r="AAQ63" s="16"/>
+      <c r="AAR63" s="16"/>
+      <c r="AAS63" s="16"/>
+      <c r="AAT63" s="16"/>
+      <c r="AAU63" s="16"/>
+      <c r="AAV63" s="16"/>
+      <c r="AAW63" s="16"/>
+      <c r="AAX63" s="16"/>
+      <c r="AAY63" s="16"/>
+      <c r="AAZ63" s="16"/>
+      <c r="ABA63" s="16"/>
+      <c r="ABB63" s="16"/>
+      <c r="ABC63" s="16"/>
+      <c r="ABD63" s="16"/>
+      <c r="ABE63" s="16"/>
+      <c r="ABF63" s="16"/>
+      <c r="ABG63" s="16"/>
+      <c r="ABH63" s="16"/>
+      <c r="ABI63" s="16"/>
+      <c r="ABJ63" s="16"/>
+      <c r="ABK63" s="16"/>
+      <c r="ABL63" s="16"/>
+      <c r="ABM63" s="16"/>
+      <c r="ABN63" s="16"/>
+      <c r="ABO63" s="16"/>
+      <c r="ABP63" s="16"/>
+      <c r="ABQ63" s="16"/>
+      <c r="ABR63" s="16"/>
+      <c r="ABS63" s="16"/>
+      <c r="ABT63" s="16"/>
+      <c r="ABU63" s="16"/>
+      <c r="ABV63" s="16"/>
+      <c r="ABW63" s="16"/>
+      <c r="ABX63" s="16"/>
+      <c r="ABY63" s="16"/>
+      <c r="ABZ63" s="16"/>
+      <c r="ACA63" s="16"/>
+      <c r="ACB63" s="16"/>
+      <c r="ACC63" s="16"/>
+      <c r="ACD63" s="16"/>
+      <c r="ACE63" s="16"/>
+      <c r="ACF63" s="16"/>
+      <c r="ACG63" s="16"/>
+      <c r="ACH63" s="16"/>
+      <c r="ACI63" s="16"/>
+      <c r="ACJ63" s="16"/>
+      <c r="ACK63" s="16"/>
+      <c r="ACL63" s="16"/>
+      <c r="ACM63" s="16"/>
+      <c r="ACN63" s="16"/>
+      <c r="ACO63" s="16"/>
+      <c r="ACP63" s="16"/>
+      <c r="ACQ63" s="16"/>
+      <c r="ACR63" s="16"/>
+      <c r="ACS63" s="16"/>
+      <c r="ACT63" s="16"/>
+      <c r="ACU63" s="16"/>
+      <c r="ACV63" s="16"/>
+      <c r="ACW63" s="16"/>
+      <c r="ACX63" s="16"/>
+      <c r="ACY63" s="16"/>
+      <c r="ACZ63" s="16"/>
+      <c r="ADA63" s="16"/>
+      <c r="ADB63" s="16"/>
+      <c r="ADC63" s="16"/>
+      <c r="ADD63" s="16"/>
+      <c r="ADE63" s="16"/>
+      <c r="ADF63" s="16"/>
+      <c r="ADG63" s="16"/>
+      <c r="ADH63" s="16"/>
+      <c r="ADI63" s="16"/>
+      <c r="ADJ63" s="16"/>
+      <c r="ADK63" s="16"/>
+      <c r="ADL63" s="16"/>
+      <c r="ADM63" s="16"/>
+      <c r="ADN63" s="16"/>
+      <c r="ADO63" s="16"/>
+      <c r="ADP63" s="16"/>
+      <c r="ADQ63" s="16"/>
+      <c r="ADR63" s="16"/>
+      <c r="ADS63" s="16"/>
+      <c r="ADT63" s="16"/>
+      <c r="ADU63" s="16"/>
+      <c r="ADV63" s="16"/>
+      <c r="ADW63" s="16"/>
+      <c r="ADX63" s="16"/>
+      <c r="ADY63" s="16"/>
+      <c r="ADZ63" s="16"/>
+      <c r="AEA63" s="16"/>
+      <c r="AEB63" s="16"/>
+      <c r="AEC63" s="16"/>
+      <c r="AED63" s="16"/>
+      <c r="AEE63" s="16"/>
+      <c r="AEF63" s="16"/>
+      <c r="AEG63" s="16"/>
+      <c r="AEH63" s="16"/>
+      <c r="AEI63" s="16"/>
+      <c r="AEJ63" s="16"/>
+      <c r="AEK63" s="16"/>
+      <c r="AEL63" s="16"/>
+      <c r="AEM63" s="16"/>
+      <c r="AEN63" s="16"/>
+      <c r="AEO63" s="16"/>
+      <c r="AEP63" s="16"/>
+      <c r="AEQ63" s="16"/>
+      <c r="AER63" s="16"/>
+      <c r="AES63" s="16"/>
+      <c r="AET63" s="16"/>
+      <c r="AEU63" s="16"/>
+      <c r="AEV63" s="16"/>
+      <c r="AEW63" s="16"/>
+      <c r="AEX63" s="16"/>
+      <c r="AEY63" s="16"/>
+      <c r="AEZ63" s="16"/>
+      <c r="AFA63" s="16"/>
+      <c r="AFB63" s="16"/>
+      <c r="AFC63" s="16"/>
+      <c r="AFD63" s="16"/>
+      <c r="AFE63" s="16"/>
+      <c r="AFF63" s="16"/>
+      <c r="AFG63" s="16"/>
+      <c r="AFH63" s="16"/>
+      <c r="AFI63" s="16"/>
+      <c r="AFJ63" s="16"/>
+      <c r="AFK63" s="16"/>
+      <c r="AFL63" s="16"/>
+      <c r="AFM63" s="16"/>
+      <c r="AFN63" s="16"/>
+      <c r="AFO63" s="16"/>
+      <c r="AFP63" s="16"/>
+      <c r="AFQ63" s="16"/>
+      <c r="AFR63" s="16"/>
+      <c r="AFS63" s="16"/>
+      <c r="AFT63" s="16"/>
+      <c r="AFU63" s="16"/>
+      <c r="AFV63" s="16"/>
+      <c r="AFW63" s="16"/>
+      <c r="AFX63" s="16"/>
+      <c r="AFY63" s="16"/>
+      <c r="AFZ63" s="16"/>
+      <c r="AGA63" s="16"/>
+      <c r="AGB63" s="16"/>
+      <c r="AGC63" s="16"/>
+      <c r="AGD63" s="16"/>
+      <c r="AGE63" s="16"/>
+      <c r="AGF63" s="16"/>
+      <c r="AGG63" s="16"/>
+      <c r="AGH63" s="16"/>
+      <c r="AGI63" s="16"/>
+      <c r="AGJ63" s="16"/>
+      <c r="AGK63" s="16"/>
+      <c r="AGL63" s="16"/>
+      <c r="AGM63" s="16"/>
+      <c r="AGN63" s="16"/>
+      <c r="AGO63" s="16"/>
+      <c r="AGP63" s="16"/>
+      <c r="AGQ63" s="16"/>
+      <c r="AGR63" s="16"/>
+      <c r="AGS63" s="16"/>
+      <c r="AGT63" s="16"/>
+      <c r="AGU63" s="16"/>
+      <c r="AGV63" s="16"/>
+      <c r="AGW63" s="16"/>
+      <c r="AGX63" s="16"/>
+      <c r="AGY63" s="16"/>
+      <c r="AGZ63" s="16"/>
+      <c r="AHA63" s="16"/>
+      <c r="AHB63" s="16"/>
+      <c r="AHC63" s="16"/>
+      <c r="AHD63" s="16"/>
+      <c r="AHE63" s="16"/>
+      <c r="AHF63" s="16"/>
+      <c r="AHG63" s="16"/>
+      <c r="AHH63" s="16"/>
+      <c r="AHI63" s="16"/>
+      <c r="AHJ63" s="16"/>
+      <c r="AHK63" s="16"/>
+      <c r="AHL63" s="16"/>
+      <c r="AHM63" s="16"/>
+      <c r="AHN63" s="16"/>
+      <c r="AHO63" s="16"/>
+      <c r="AHP63" s="16"/>
+      <c r="AHQ63" s="16"/>
+      <c r="AHR63" s="16"/>
+      <c r="AHS63" s="16"/>
+      <c r="AHT63" s="16"/>
+      <c r="AHU63" s="16"/>
+      <c r="AHV63" s="16"/>
+      <c r="AHW63" s="16"/>
+      <c r="AHX63" s="16"/>
+      <c r="AHY63" s="16"/>
+      <c r="AHZ63" s="16"/>
+      <c r="AIA63" s="16"/>
+      <c r="AIB63" s="16"/>
+      <c r="AIC63" s="16"/>
+      <c r="AID63" s="16"/>
+      <c r="AIE63" s="16"/>
+      <c r="AIF63" s="16"/>
+      <c r="AIG63" s="16"/>
+      <c r="AIH63" s="16"/>
+      <c r="AII63" s="16"/>
+      <c r="AIJ63" s="16"/>
+      <c r="AIK63" s="16"/>
+      <c r="AIL63" s="16"/>
+      <c r="AIM63" s="16"/>
+      <c r="AIN63" s="16"/>
+      <c r="AIO63" s="16"/>
+      <c r="AIP63" s="16"/>
+      <c r="AIQ63" s="16"/>
+      <c r="AIR63" s="16"/>
+      <c r="AIS63" s="16"/>
+      <c r="AIT63" s="16"/>
+      <c r="AIU63" s="16"/>
+      <c r="AIV63" s="16"/>
+      <c r="AIW63" s="16"/>
+      <c r="AIX63" s="16"/>
+      <c r="AIY63" s="16"/>
+      <c r="AIZ63" s="16"/>
+      <c r="AJA63" s="16"/>
+      <c r="AJB63" s="16"/>
+      <c r="AJC63" s="16"/>
+      <c r="AJD63" s="16"/>
+      <c r="AJE63" s="16"/>
+      <c r="AJF63" s="16"/>
+      <c r="AJG63" s="16"/>
+      <c r="AJH63" s="16"/>
+      <c r="AJI63" s="16"/>
+      <c r="AJJ63" s="16"/>
+      <c r="AJK63" s="16"/>
+      <c r="AJL63" s="16"/>
+      <c r="AJM63" s="16"/>
+      <c r="AJN63" s="16"/>
+      <c r="AJO63" s="16"/>
+      <c r="AJP63" s="16"/>
+      <c r="AJQ63" s="16"/>
+      <c r="AJR63" s="16"/>
+      <c r="AJS63" s="16"/>
+      <c r="AJT63" s="16"/>
+      <c r="AJU63" s="16"/>
+      <c r="AJV63" s="16"/>
+      <c r="AJW63" s="16"/>
+      <c r="AJX63" s="16"/>
+      <c r="AJY63" s="16"/>
+      <c r="AJZ63" s="16"/>
+      <c r="AKA63" s="16"/>
+      <c r="AKB63" s="16"/>
+      <c r="AKC63" s="16"/>
+      <c r="AKD63" s="16"/>
+      <c r="AKE63" s="16"/>
+      <c r="AKF63" s="16"/>
+      <c r="AKG63" s="16"/>
+      <c r="AKH63" s="16"/>
+      <c r="AKI63" s="16"/>
+      <c r="AKJ63" s="16"/>
+      <c r="AKK63" s="16"/>
+      <c r="AKL63" s="16"/>
+      <c r="AKM63" s="16"/>
+      <c r="AKN63" s="16"/>
+      <c r="AKO63" s="16"/>
+      <c r="AKP63" s="16"/>
+      <c r="AKQ63" s="16"/>
+      <c r="AKR63" s="16"/>
+      <c r="AKS63" s="16"/>
+      <c r="AKT63" s="16"/>
+      <c r="AKU63" s="16"/>
+      <c r="AKV63" s="16"/>
+      <c r="AKW63" s="16"/>
+      <c r="AKX63" s="16"/>
+      <c r="AKY63" s="16"/>
+      <c r="AKZ63" s="16"/>
+      <c r="ALA63" s="16"/>
+      <c r="ALB63" s="16"/>
+      <c r="ALC63" s="16"/>
+      <c r="ALD63" s="16"/>
+      <c r="ALE63" s="16"/>
+      <c r="ALF63" s="16"/>
+      <c r="ALG63" s="16"/>
+      <c r="ALH63" s="16"/>
+      <c r="ALI63" s="16"/>
+      <c r="ALJ63" s="16"/>
+      <c r="ALK63" s="16"/>
+      <c r="ALL63" s="16"/>
+      <c r="ALM63" s="16"/>
+      <c r="ALN63" s="16"/>
+      <c r="ALO63" s="16"/>
+      <c r="ALP63" s="16"/>
+      <c r="ALQ63" s="16"/>
+      <c r="ALR63" s="16"/>
+      <c r="ALS63" s="16"/>
+      <c r="ALT63" s="16"/>
+      <c r="ALU63" s="16"/>
+      <c r="ALV63" s="16"/>
+      <c r="ALW63" s="16"/>
+      <c r="ALX63" s="16"/>
+      <c r="ALY63" s="16"/>
+      <c r="ALZ63" s="16"/>
+      <c r="AMA63" s="16"/>
+      <c r="AMB63" s="16"/>
+      <c r="AMC63" s="16"/>
+      <c r="AMD63" s="16"/>
+      <c r="AME63" s="16"/>
+      <c r="AMF63" s="16"/>
+      <c r="AMG63" s="16"/>
+      <c r="AMH63" s="16"/>
+      <c r="AMI63" s="16"/>
+      <c r="AMJ63" s="16"/>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16"/>
+      <c r="AK64" s="16"/>
+      <c r="AL64" s="16"/>
+      <c r="AM64" s="16"/>
+      <c r="AN64" s="16"/>
+      <c r="AO64" s="16"/>
+      <c r="AP64" s="16"/>
+      <c r="AQ64" s="16"/>
+      <c r="AR64" s="16"/>
+      <c r="AS64" s="16"/>
+      <c r="AT64" s="16"/>
+      <c r="AU64" s="16"/>
+      <c r="AV64" s="16"/>
+      <c r="AW64" s="16"/>
+      <c r="AX64" s="16"/>
+      <c r="AY64" s="16"/>
+      <c r="AZ64" s="16"/>
+      <c r="BA64" s="16"/>
+      <c r="BB64" s="16"/>
+      <c r="BC64" s="16"/>
+      <c r="BD64" s="16"/>
+      <c r="BE64" s="16"/>
+      <c r="BF64" s="16"/>
+      <c r="BG64" s="16"/>
+      <c r="BH64" s="16"/>
+      <c r="BI64" s="16"/>
+      <c r="BJ64" s="16"/>
+      <c r="BK64" s="16"/>
+      <c r="BL64" s="16"/>
+      <c r="BM64" s="16"/>
+      <c r="BN64" s="16"/>
+      <c r="BO64" s="16"/>
+      <c r="BP64" s="16"/>
+      <c r="BQ64" s="16"/>
+      <c r="BR64" s="16"/>
+      <c r="BS64" s="16"/>
+      <c r="BT64" s="16"/>
+      <c r="BU64" s="16"/>
+      <c r="BV64" s="16"/>
+      <c r="BW64" s="16"/>
+      <c r="BX64" s="16"/>
+      <c r="BY64" s="16"/>
+      <c r="BZ64" s="16"/>
+      <c r="CA64" s="16"/>
+      <c r="CB64" s="16"/>
+      <c r="CC64" s="16"/>
+      <c r="CD64" s="16"/>
+      <c r="CE64" s="16"/>
+      <c r="CF64" s="16"/>
+      <c r="CG64" s="16"/>
+      <c r="CH64" s="16"/>
+      <c r="CI64" s="16"/>
+      <c r="CJ64" s="16"/>
+      <c r="CK64" s="16"/>
+      <c r="CL64" s="16"/>
+      <c r="CM64" s="16"/>
+      <c r="CN64" s="16"/>
+      <c r="CO64" s="16"/>
+      <c r="CP64" s="16"/>
+      <c r="CQ64" s="16"/>
+      <c r="CR64" s="16"/>
+      <c r="CS64" s="16"/>
+      <c r="CT64" s="16"/>
+      <c r="CU64" s="16"/>
+      <c r="CV64" s="16"/>
+      <c r="CW64" s="16"/>
+      <c r="CX64" s="16"/>
+      <c r="CY64" s="16"/>
+      <c r="CZ64" s="16"/>
+      <c r="DA64" s="16"/>
+      <c r="DB64" s="16"/>
+      <c r="DC64" s="16"/>
+      <c r="DD64" s="16"/>
+      <c r="DE64" s="16"/>
+      <c r="DF64" s="16"/>
+      <c r="DG64" s="16"/>
+      <c r="DH64" s="16"/>
+      <c r="DI64" s="16"/>
+      <c r="DJ64" s="16"/>
+      <c r="DK64" s="16"/>
+      <c r="DL64" s="16"/>
+      <c r="DM64" s="16"/>
+      <c r="DN64" s="16"/>
+      <c r="DO64" s="16"/>
+      <c r="DP64" s="16"/>
+      <c r="DQ64" s="16"/>
+      <c r="DR64" s="16"/>
+      <c r="DS64" s="16"/>
+      <c r="DT64" s="16"/>
+      <c r="DU64" s="16"/>
+      <c r="DV64" s="16"/>
+      <c r="DW64" s="16"/>
+      <c r="DX64" s="16"/>
+      <c r="DY64" s="16"/>
+      <c r="DZ64" s="16"/>
+      <c r="EA64" s="16"/>
+      <c r="EB64" s="16"/>
+      <c r="EC64" s="16"/>
+      <c r="ED64" s="16"/>
+      <c r="EE64" s="16"/>
+      <c r="EF64" s="16"/>
+      <c r="EG64" s="16"/>
+      <c r="EH64" s="16"/>
+      <c r="EI64" s="16"/>
+      <c r="EJ64" s="16"/>
+      <c r="EK64" s="16"/>
+      <c r="EL64" s="16"/>
+      <c r="EM64" s="16"/>
+      <c r="EN64" s="16"/>
+      <c r="EO64" s="16"/>
+      <c r="EP64" s="16"/>
+      <c r="EQ64" s="16"/>
+      <c r="ER64" s="16"/>
+      <c r="ES64" s="16"/>
+      <c r="ET64" s="16"/>
+      <c r="EU64" s="16"/>
+      <c r="EV64" s="16"/>
+      <c r="EW64" s="16"/>
+      <c r="EX64" s="16"/>
+      <c r="EY64" s="16"/>
+      <c r="EZ64" s="16"/>
+      <c r="FA64" s="16"/>
+      <c r="FB64" s="16"/>
+      <c r="FC64" s="16"/>
+      <c r="FD64" s="16"/>
+      <c r="FE64" s="16"/>
+      <c r="FF64" s="16"/>
+      <c r="FG64" s="16"/>
+      <c r="FH64" s="16"/>
+      <c r="FI64" s="16"/>
+      <c r="FJ64" s="16"/>
+      <c r="FK64" s="16"/>
+      <c r="FL64" s="16"/>
+      <c r="FM64" s="16"/>
+      <c r="FN64" s="16"/>
+      <c r="FO64" s="16"/>
+      <c r="FP64" s="16"/>
+      <c r="FQ64" s="16"/>
+      <c r="FR64" s="16"/>
+      <c r="FS64" s="16"/>
+      <c r="FT64" s="16"/>
+      <c r="FU64" s="16"/>
+      <c r="FV64" s="16"/>
+      <c r="FW64" s="16"/>
+      <c r="FX64" s="16"/>
+      <c r="FY64" s="16"/>
+      <c r="FZ64" s="16"/>
+      <c r="GA64" s="16"/>
+      <c r="GB64" s="16"/>
+      <c r="GC64" s="16"/>
+      <c r="GD64" s="16"/>
+      <c r="GE64" s="16"/>
+      <c r="GF64" s="16"/>
+      <c r="GG64" s="16"/>
+      <c r="GH64" s="16"/>
+      <c r="GI64" s="16"/>
+      <c r="GJ64" s="16"/>
+      <c r="GK64" s="16"/>
+      <c r="GL64" s="16"/>
+      <c r="GM64" s="16"/>
+      <c r="GN64" s="16"/>
+      <c r="GO64" s="16"/>
+      <c r="GP64" s="16"/>
+      <c r="GQ64" s="16"/>
+      <c r="GR64" s="16"/>
+      <c r="GS64" s="16"/>
+      <c r="GT64" s="16"/>
+      <c r="GU64" s="16"/>
+      <c r="GV64" s="16"/>
+      <c r="GW64" s="16"/>
+      <c r="GX64" s="16"/>
+      <c r="GY64" s="16"/>
+      <c r="GZ64" s="16"/>
+      <c r="HA64" s="16"/>
+      <c r="HB64" s="16"/>
+      <c r="HC64" s="16"/>
+      <c r="HD64" s="16"/>
+      <c r="HE64" s="16"/>
+      <c r="HF64" s="16"/>
+      <c r="HG64" s="16"/>
+      <c r="HH64" s="16"/>
+      <c r="HI64" s="16"/>
+      <c r="HJ64" s="16"/>
+      <c r="HK64" s="16"/>
+      <c r="HL64" s="16"/>
+      <c r="HM64" s="16"/>
+      <c r="HN64" s="16"/>
+      <c r="HO64" s="16"/>
+      <c r="HP64" s="16"/>
+      <c r="HQ64" s="16"/>
+      <c r="HR64" s="16"/>
+      <c r="HS64" s="16"/>
+      <c r="HT64" s="16"/>
+      <c r="HU64" s="16"/>
+      <c r="HV64" s="16"/>
+      <c r="HW64" s="16"/>
+      <c r="HX64" s="16"/>
+      <c r="HY64" s="16"/>
+      <c r="HZ64" s="16"/>
+      <c r="IA64" s="16"/>
+      <c r="IB64" s="16"/>
+      <c r="IC64" s="16"/>
+      <c r="ID64" s="16"/>
+      <c r="IE64" s="16"/>
+      <c r="IF64" s="16"/>
+      <c r="IG64" s="16"/>
+      <c r="IH64" s="16"/>
+      <c r="II64" s="16"/>
+      <c r="IJ64" s="16"/>
+      <c r="IK64" s="16"/>
+      <c r="IL64" s="16"/>
+      <c r="IM64" s="16"/>
+      <c r="IN64" s="16"/>
+      <c r="IO64" s="16"/>
+      <c r="IP64" s="16"/>
+      <c r="IQ64" s="16"/>
+      <c r="IR64" s="16"/>
+      <c r="IS64" s="16"/>
+      <c r="IT64" s="16"/>
+      <c r="IU64" s="16"/>
+      <c r="IV64" s="16"/>
+      <c r="IW64" s="16"/>
+      <c r="IX64" s="16"/>
+      <c r="IY64" s="16"/>
+      <c r="IZ64" s="16"/>
+      <c r="JA64" s="16"/>
+      <c r="JB64" s="16"/>
+      <c r="JC64" s="16"/>
+      <c r="JD64" s="16"/>
+      <c r="JE64" s="16"/>
+      <c r="JF64" s="16"/>
+      <c r="JG64" s="16"/>
+      <c r="JH64" s="16"/>
+      <c r="JI64" s="16"/>
+      <c r="JJ64" s="16"/>
+      <c r="JK64" s="16"/>
+      <c r="JL64" s="16"/>
+      <c r="JM64" s="16"/>
+      <c r="JN64" s="16"/>
+      <c r="JO64" s="16"/>
+      <c r="JP64" s="16"/>
+      <c r="JQ64" s="16"/>
+      <c r="JR64" s="16"/>
+      <c r="JS64" s="16"/>
+      <c r="JT64" s="16"/>
+      <c r="JU64" s="16"/>
+      <c r="JV64" s="16"/>
+      <c r="JW64" s="16"/>
+      <c r="JX64" s="16"/>
+      <c r="JY64" s="16"/>
+      <c r="JZ64" s="16"/>
+      <c r="KA64" s="16"/>
+      <c r="KB64" s="16"/>
+      <c r="KC64" s="16"/>
+      <c r="KD64" s="16"/>
+      <c r="KE64" s="16"/>
+      <c r="KF64" s="16"/>
+      <c r="KG64" s="16"/>
+      <c r="KH64" s="16"/>
+      <c r="KI64" s="16"/>
+      <c r="KJ64" s="16"/>
+      <c r="KK64" s="16"/>
+      <c r="KL64" s="16"/>
+      <c r="KM64" s="16"/>
+      <c r="KN64" s="16"/>
+      <c r="KO64" s="16"/>
+      <c r="KP64" s="16"/>
+      <c r="KQ64" s="16"/>
+      <c r="KR64" s="16"/>
+      <c r="KS64" s="16"/>
+      <c r="KT64" s="16"/>
+      <c r="KU64" s="16"/>
+      <c r="KV64" s="16"/>
+      <c r="KW64" s="16"/>
+      <c r="KX64" s="16"/>
+      <c r="KY64" s="16"/>
+      <c r="KZ64" s="16"/>
+      <c r="LA64" s="16"/>
+      <c r="LB64" s="16"/>
+      <c r="LC64" s="16"/>
+      <c r="LD64" s="16"/>
+      <c r="LE64" s="16"/>
+      <c r="LF64" s="16"/>
+      <c r="LG64" s="16"/>
+      <c r="LH64" s="16"/>
+      <c r="LI64" s="16"/>
+      <c r="LJ64" s="16"/>
+      <c r="LK64" s="16"/>
+      <c r="LL64" s="16"/>
+      <c r="LM64" s="16"/>
+      <c r="LN64" s="16"/>
+      <c r="LO64" s="16"/>
+      <c r="LP64" s="16"/>
+      <c r="LQ64" s="16"/>
+      <c r="LR64" s="16"/>
+      <c r="LS64" s="16"/>
+      <c r="LT64" s="16"/>
+      <c r="LU64" s="16"/>
+      <c r="LV64" s="16"/>
+      <c r="LW64" s="16"/>
+      <c r="LX64" s="16"/>
+      <c r="LY64" s="16"/>
+      <c r="LZ64" s="16"/>
+      <c r="MA64" s="16"/>
+      <c r="MB64" s="16"/>
+      <c r="MC64" s="16"/>
+      <c r="MD64" s="16"/>
+      <c r="ME64" s="16"/>
+      <c r="MF64" s="16"/>
+      <c r="MG64" s="16"/>
+      <c r="MH64" s="16"/>
+      <c r="MI64" s="16"/>
+      <c r="MJ64" s="16"/>
+      <c r="MK64" s="16"/>
+      <c r="ML64" s="16"/>
+      <c r="MM64" s="16"/>
+      <c r="MN64" s="16"/>
+      <c r="MO64" s="16"/>
+      <c r="MP64" s="16"/>
+      <c r="MQ64" s="16"/>
+      <c r="MR64" s="16"/>
+      <c r="MS64" s="16"/>
+      <c r="MT64" s="16"/>
+      <c r="MU64" s="16"/>
+      <c r="MV64" s="16"/>
+      <c r="MW64" s="16"/>
+      <c r="MX64" s="16"/>
+      <c r="MY64" s="16"/>
+      <c r="MZ64" s="16"/>
+      <c r="NA64" s="16"/>
+      <c r="NB64" s="16"/>
+      <c r="NC64" s="16"/>
+      <c r="ND64" s="16"/>
+      <c r="NE64" s="16"/>
+      <c r="NF64" s="16"/>
+      <c r="NG64" s="16"/>
+      <c r="NH64" s="16"/>
+      <c r="NI64" s="16"/>
+      <c r="NJ64" s="16"/>
+      <c r="NK64" s="16"/>
+      <c r="NL64" s="16"/>
+      <c r="NM64" s="16"/>
+      <c r="NN64" s="16"/>
+      <c r="NO64" s="16"/>
+      <c r="NP64" s="16"/>
+      <c r="NQ64" s="16"/>
+      <c r="NR64" s="16"/>
+      <c r="NS64" s="16"/>
+      <c r="NT64" s="16"/>
+      <c r="NU64" s="16"/>
+      <c r="NV64" s="16"/>
+      <c r="NW64" s="16"/>
+      <c r="NX64" s="16"/>
+      <c r="NY64" s="16"/>
+      <c r="NZ64" s="16"/>
+      <c r="OA64" s="16"/>
+      <c r="OB64" s="16"/>
+      <c r="OC64" s="16"/>
+      <c r="OD64" s="16"/>
+      <c r="OE64" s="16"/>
+      <c r="OF64" s="16"/>
+      <c r="OG64" s="16"/>
+      <c r="OH64" s="16"/>
+      <c r="OI64" s="16"/>
+      <c r="OJ64" s="16"/>
+      <c r="OK64" s="16"/>
+      <c r="OL64" s="16"/>
+      <c r="OM64" s="16"/>
+      <c r="ON64" s="16"/>
+      <c r="OO64" s="16"/>
+      <c r="OP64" s="16"/>
+      <c r="OQ64" s="16"/>
+      <c r="OR64" s="16"/>
+      <c r="OS64" s="16"/>
+      <c r="OT64" s="16"/>
+      <c r="OU64" s="16"/>
+      <c r="OV64" s="16"/>
+      <c r="OW64" s="16"/>
+      <c r="OX64" s="16"/>
+      <c r="OY64" s="16"/>
+      <c r="OZ64" s="16"/>
+      <c r="PA64" s="16"/>
+      <c r="PB64" s="16"/>
+      <c r="PC64" s="16"/>
+      <c r="PD64" s="16"/>
+      <c r="PE64" s="16"/>
+      <c r="PF64" s="16"/>
+      <c r="PG64" s="16"/>
+      <c r="PH64" s="16"/>
+      <c r="PI64" s="16"/>
+      <c r="PJ64" s="16"/>
+      <c r="PK64" s="16"/>
+      <c r="PL64" s="16"/>
+      <c r="PM64" s="16"/>
+      <c r="PN64" s="16"/>
+      <c r="PO64" s="16"/>
+      <c r="PP64" s="16"/>
+      <c r="PQ64" s="16"/>
+      <c r="PR64" s="16"/>
+      <c r="PS64" s="16"/>
+      <c r="PT64" s="16"/>
+      <c r="PU64" s="16"/>
+      <c r="PV64" s="16"/>
+      <c r="PW64" s="16"/>
+      <c r="PX64" s="16"/>
+      <c r="PY64" s="16"/>
+      <c r="PZ64" s="16"/>
+      <c r="QA64" s="16"/>
+      <c r="QB64" s="16"/>
+      <c r="QC64" s="16"/>
+      <c r="QD64" s="16"/>
+      <c r="QE64" s="16"/>
+      <c r="QF64" s="16"/>
+      <c r="QG64" s="16"/>
+      <c r="QH64" s="16"/>
+      <c r="QI64" s="16"/>
+      <c r="QJ64" s="16"/>
+      <c r="QK64" s="16"/>
+      <c r="QL64" s="16"/>
+      <c r="QM64" s="16"/>
+      <c r="QN64" s="16"/>
+      <c r="QO64" s="16"/>
+      <c r="QP64" s="16"/>
+      <c r="QQ64" s="16"/>
+      <c r="QR64" s="16"/>
+      <c r="QS64" s="16"/>
+      <c r="QT64" s="16"/>
+      <c r="QU64" s="16"/>
+      <c r="QV64" s="16"/>
+      <c r="QW64" s="16"/>
+      <c r="QX64" s="16"/>
+      <c r="QY64" s="16"/>
+      <c r="QZ64" s="16"/>
+      <c r="RA64" s="16"/>
+      <c r="RB64" s="16"/>
+      <c r="RC64" s="16"/>
+      <c r="RD64" s="16"/>
+      <c r="RE64" s="16"/>
+      <c r="RF64" s="16"/>
+      <c r="RG64" s="16"/>
+      <c r="RH64" s="16"/>
+      <c r="RI64" s="16"/>
+      <c r="RJ64" s="16"/>
+      <c r="RK64" s="16"/>
+      <c r="RL64" s="16"/>
+      <c r="RM64" s="16"/>
+      <c r="RN64" s="16"/>
+      <c r="RO64" s="16"/>
+      <c r="RP64" s="16"/>
+      <c r="RQ64" s="16"/>
+      <c r="RR64" s="16"/>
+      <c r="RS64" s="16"/>
+      <c r="RT64" s="16"/>
+      <c r="RU64" s="16"/>
+      <c r="RV64" s="16"/>
+      <c r="RW64" s="16"/>
+      <c r="RX64" s="16"/>
+      <c r="RY64" s="16"/>
+      <c r="RZ64" s="16"/>
+      <c r="SA64" s="16"/>
+      <c r="SB64" s="16"/>
+      <c r="SC64" s="16"/>
+      <c r="SD64" s="16"/>
+      <c r="SE64" s="16"/>
+      <c r="SF64" s="16"/>
+      <c r="SG64" s="16"/>
+      <c r="SH64" s="16"/>
+      <c r="SI64" s="16"/>
+      <c r="SJ64" s="16"/>
+      <c r="SK64" s="16"/>
+      <c r="SL64" s="16"/>
+      <c r="SM64" s="16"/>
+      <c r="SN64" s="16"/>
+      <c r="SO64" s="16"/>
+      <c r="SP64" s="16"/>
+      <c r="SQ64" s="16"/>
+      <c r="SR64" s="16"/>
+      <c r="SS64" s="16"/>
+      <c r="ST64" s="16"/>
+      <c r="SU64" s="16"/>
+      <c r="SV64" s="16"/>
+      <c r="SW64" s="16"/>
+      <c r="SX64" s="16"/>
+      <c r="SY64" s="16"/>
+      <c r="SZ64" s="16"/>
+      <c r="TA64" s="16"/>
+      <c r="TB64" s="16"/>
+      <c r="TC64" s="16"/>
+      <c r="TD64" s="16"/>
+      <c r="TE64" s="16"/>
+      <c r="TF64" s="16"/>
+      <c r="TG64" s="16"/>
+      <c r="TH64" s="16"/>
+      <c r="TI64" s="16"/>
+      <c r="TJ64" s="16"/>
+      <c r="TK64" s="16"/>
+      <c r="TL64" s="16"/>
+      <c r="TM64" s="16"/>
+      <c r="TN64" s="16"/>
+      <c r="TO64" s="16"/>
+      <c r="TP64" s="16"/>
+      <c r="TQ64" s="16"/>
+      <c r="TR64" s="16"/>
+      <c r="TS64" s="16"/>
+      <c r="TT64" s="16"/>
+      <c r="TU64" s="16"/>
+      <c r="TV64" s="16"/>
+      <c r="TW64" s="16"/>
+      <c r="TX64" s="16"/>
+      <c r="TY64" s="16"/>
+      <c r="TZ64" s="16"/>
+      <c r="UA64" s="16"/>
+      <c r="UB64" s="16"/>
+      <c r="UC64" s="16"/>
+      <c r="UD64" s="16"/>
+      <c r="UE64" s="16"/>
+      <c r="UF64" s="16"/>
+      <c r="UG64" s="16"/>
+      <c r="UH64" s="16"/>
+      <c r="UI64" s="16"/>
+      <c r="UJ64" s="16"/>
+      <c r="UK64" s="16"/>
+      <c r="UL64" s="16"/>
+      <c r="UM64" s="16"/>
+      <c r="UN64" s="16"/>
+      <c r="UO64" s="16"/>
+      <c r="UP64" s="16"/>
+      <c r="UQ64" s="16"/>
+      <c r="UR64" s="16"/>
+      <c r="US64" s="16"/>
+      <c r="UT64" s="16"/>
+      <c r="UU64" s="16"/>
+      <c r="UV64" s="16"/>
+      <c r="UW64" s="16"/>
+      <c r="UX64" s="16"/>
+      <c r="UY64" s="16"/>
+      <c r="UZ64" s="16"/>
+      <c r="VA64" s="16"/>
+      <c r="VB64" s="16"/>
+      <c r="VC64" s="16"/>
+      <c r="VD64" s="16"/>
+      <c r="VE64" s="16"/>
+      <c r="VF64" s="16"/>
+      <c r="VG64" s="16"/>
+      <c r="VH64" s="16"/>
+      <c r="VI64" s="16"/>
+      <c r="VJ64" s="16"/>
+      <c r="VK64" s="16"/>
+      <c r="VL64" s="16"/>
+      <c r="VM64" s="16"/>
+      <c r="VN64" s="16"/>
+      <c r="VO64" s="16"/>
+      <c r="VP64" s="16"/>
+      <c r="VQ64" s="16"/>
+      <c r="VR64" s="16"/>
+      <c r="VS64" s="16"/>
+      <c r="VT64" s="16"/>
+      <c r="VU64" s="16"/>
+      <c r="VV64" s="16"/>
+      <c r="VW64" s="16"/>
+      <c r="VX64" s="16"/>
+      <c r="VY64" s="16"/>
+      <c r="VZ64" s="16"/>
+      <c r="WA64" s="16"/>
+      <c r="WB64" s="16"/>
+      <c r="WC64" s="16"/>
+      <c r="WD64" s="16"/>
+      <c r="WE64" s="16"/>
+      <c r="WF64" s="16"/>
+      <c r="WG64" s="16"/>
+      <c r="WH64" s="16"/>
+      <c r="WI64" s="16"/>
+      <c r="WJ64" s="16"/>
+      <c r="WK64" s="16"/>
+      <c r="WL64" s="16"/>
+      <c r="WM64" s="16"/>
+      <c r="WN64" s="16"/>
+      <c r="WO64" s="16"/>
+      <c r="WP64" s="16"/>
+      <c r="WQ64" s="16"/>
+      <c r="WR64" s="16"/>
+      <c r="WS64" s="16"/>
+      <c r="WT64" s="16"/>
+      <c r="WU64" s="16"/>
+      <c r="WV64" s="16"/>
+      <c r="WW64" s="16"/>
+      <c r="WX64" s="16"/>
+      <c r="WY64" s="16"/>
+      <c r="WZ64" s="16"/>
+      <c r="XA64" s="16"/>
+      <c r="XB64" s="16"/>
+      <c r="XC64" s="16"/>
+      <c r="XD64" s="16"/>
+      <c r="XE64" s="16"/>
+      <c r="XF64" s="16"/>
+      <c r="XG64" s="16"/>
+      <c r="XH64" s="16"/>
+      <c r="XI64" s="16"/>
+      <c r="XJ64" s="16"/>
+      <c r="XK64" s="16"/>
+      <c r="XL64" s="16"/>
+      <c r="XM64" s="16"/>
+      <c r="XN64" s="16"/>
+      <c r="XO64" s="16"/>
+      <c r="XP64" s="16"/>
+      <c r="XQ64" s="16"/>
+      <c r="XR64" s="16"/>
+      <c r="XS64" s="16"/>
+      <c r="XT64" s="16"/>
+      <c r="XU64" s="16"/>
+      <c r="XV64" s="16"/>
+      <c r="XW64" s="16"/>
+      <c r="XX64" s="16"/>
+      <c r="XY64" s="16"/>
+      <c r="XZ64" s="16"/>
+      <c r="YA64" s="16"/>
+      <c r="YB64" s="16"/>
+      <c r="YC64" s="16"/>
+      <c r="YD64" s="16"/>
+      <c r="YE64" s="16"/>
+      <c r="YF64" s="16"/>
+      <c r="YG64" s="16"/>
+      <c r="YH64" s="16"/>
+      <c r="YI64" s="16"/>
+      <c r="YJ64" s="16"/>
+      <c r="YK64" s="16"/>
+      <c r="YL64" s="16"/>
+      <c r="YM64" s="16"/>
+      <c r="YN64" s="16"/>
+      <c r="YO64" s="16"/>
+      <c r="YP64" s="16"/>
+      <c r="YQ64" s="16"/>
+      <c r="YR64" s="16"/>
+      <c r="YS64" s="16"/>
+      <c r="YT64" s="16"/>
+      <c r="YU64" s="16"/>
+      <c r="YV64" s="16"/>
+      <c r="YW64" s="16"/>
+      <c r="YX64" s="16"/>
+      <c r="YY64" s="16"/>
+      <c r="YZ64" s="16"/>
+      <c r="ZA64" s="16"/>
+      <c r="ZB64" s="16"/>
+      <c r="ZC64" s="16"/>
+      <c r="ZD64" s="16"/>
+      <c r="ZE64" s="16"/>
+      <c r="ZF64" s="16"/>
+      <c r="ZG64" s="16"/>
+      <c r="ZH64" s="16"/>
+      <c r="ZI64" s="16"/>
+      <c r="ZJ64" s="16"/>
+      <c r="ZK64" s="16"/>
+      <c r="ZL64" s="16"/>
+      <c r="ZM64" s="16"/>
+      <c r="ZN64" s="16"/>
+      <c r="ZO64" s="16"/>
+      <c r="ZP64" s="16"/>
+      <c r="ZQ64" s="16"/>
+      <c r="ZR64" s="16"/>
+      <c r="ZS64" s="16"/>
+      <c r="ZT64" s="16"/>
+      <c r="ZU64" s="16"/>
+      <c r="ZV64" s="16"/>
+      <c r="ZW64" s="16"/>
+      <c r="ZX64" s="16"/>
+      <c r="ZY64" s="16"/>
+      <c r="ZZ64" s="16"/>
+      <c r="AAA64" s="16"/>
+      <c r="AAB64" s="16"/>
+      <c r="AAC64" s="16"/>
+      <c r="AAD64" s="16"/>
+      <c r="AAE64" s="16"/>
+      <c r="AAF64" s="16"/>
+      <c r="AAG64" s="16"/>
+      <c r="AAH64" s="16"/>
+      <c r="AAI64" s="16"/>
+      <c r="AAJ64" s="16"/>
+      <c r="AAK64" s="16"/>
+      <c r="AAL64" s="16"/>
+      <c r="AAM64" s="16"/>
+      <c r="AAN64" s="16"/>
+      <c r="AAO64" s="16"/>
+      <c r="AAP64" s="16"/>
+      <c r="AAQ64" s="16"/>
+      <c r="AAR64" s="16"/>
+      <c r="AAS64" s="16"/>
+      <c r="AAT64" s="16"/>
+      <c r="AAU64" s="16"/>
+      <c r="AAV64" s="16"/>
+      <c r="AAW64" s="16"/>
+      <c r="AAX64" s="16"/>
+      <c r="AAY64" s="16"/>
+      <c r="AAZ64" s="16"/>
+      <c r="ABA64" s="16"/>
+      <c r="ABB64" s="16"/>
+      <c r="ABC64" s="16"/>
+      <c r="ABD64" s="16"/>
+      <c r="ABE64" s="16"/>
+      <c r="ABF64" s="16"/>
+      <c r="ABG64" s="16"/>
+      <c r="ABH64" s="16"/>
+      <c r="ABI64" s="16"/>
+      <c r="ABJ64" s="16"/>
+      <c r="ABK64" s="16"/>
+      <c r="ABL64" s="16"/>
+      <c r="ABM64" s="16"/>
+      <c r="ABN64" s="16"/>
+      <c r="ABO64" s="16"/>
+      <c r="ABP64" s="16"/>
+      <c r="ABQ64" s="16"/>
+      <c r="ABR64" s="16"/>
+      <c r="ABS64" s="16"/>
+      <c r="ABT64" s="16"/>
+      <c r="ABU64" s="16"/>
+      <c r="ABV64" s="16"/>
+      <c r="ABW64" s="16"/>
+      <c r="ABX64" s="16"/>
+      <c r="ABY64" s="16"/>
+      <c r="ABZ64" s="16"/>
+      <c r="ACA64" s="16"/>
+      <c r="ACB64" s="16"/>
+      <c r="ACC64" s="16"/>
+      <c r="ACD64" s="16"/>
+      <c r="ACE64" s="16"/>
+      <c r="ACF64" s="16"/>
+      <c r="ACG64" s="16"/>
+      <c r="ACH64" s="16"/>
+      <c r="ACI64" s="16"/>
+      <c r="ACJ64" s="16"/>
+      <c r="ACK64" s="16"/>
+      <c r="ACL64" s="16"/>
+      <c r="ACM64" s="16"/>
+      <c r="ACN64" s="16"/>
+      <c r="ACO64" s="16"/>
+      <c r="ACP64" s="16"/>
+      <c r="ACQ64" s="16"/>
+      <c r="ACR64" s="16"/>
+      <c r="ACS64" s="16"/>
+      <c r="ACT64" s="16"/>
+      <c r="ACU64" s="16"/>
+      <c r="ACV64" s="16"/>
+      <c r="ACW64" s="16"/>
+      <c r="ACX64" s="16"/>
+      <c r="ACY64" s="16"/>
+      <c r="ACZ64" s="16"/>
+      <c r="ADA64" s="16"/>
+      <c r="ADB64" s="16"/>
+      <c r="ADC64" s="16"/>
+      <c r="ADD64" s="16"/>
+      <c r="ADE64" s="16"/>
+      <c r="ADF64" s="16"/>
+      <c r="ADG64" s="16"/>
+      <c r="ADH64" s="16"/>
+      <c r="ADI64" s="16"/>
+      <c r="ADJ64" s="16"/>
+      <c r="ADK64" s="16"/>
+      <c r="ADL64" s="16"/>
+      <c r="ADM64" s="16"/>
+      <c r="ADN64" s="16"/>
+      <c r="ADO64" s="16"/>
+      <c r="ADP64" s="16"/>
+      <c r="ADQ64" s="16"/>
+      <c r="ADR64" s="16"/>
+      <c r="ADS64" s="16"/>
+      <c r="ADT64" s="16"/>
+      <c r="ADU64" s="16"/>
+      <c r="ADV64" s="16"/>
+      <c r="ADW64" s="16"/>
+      <c r="ADX64" s="16"/>
+      <c r="ADY64" s="16"/>
+      <c r="ADZ64" s="16"/>
+      <c r="AEA64" s="16"/>
+      <c r="AEB64" s="16"/>
+      <c r="AEC64" s="16"/>
+      <c r="AED64" s="16"/>
+      <c r="AEE64" s="16"/>
+      <c r="AEF64" s="16"/>
+      <c r="AEG64" s="16"/>
+      <c r="AEH64" s="16"/>
+      <c r="AEI64" s="16"/>
+      <c r="AEJ64" s="16"/>
+      <c r="AEK64" s="16"/>
+      <c r="AEL64" s="16"/>
+      <c r="AEM64" s="16"/>
+      <c r="AEN64" s="16"/>
+      <c r="AEO64" s="16"/>
+      <c r="AEP64" s="16"/>
+      <c r="AEQ64" s="16"/>
+      <c r="AER64" s="16"/>
+      <c r="AES64" s="16"/>
+      <c r="AET64" s="16"/>
+      <c r="AEU64" s="16"/>
+      <c r="AEV64" s="16"/>
+      <c r="AEW64" s="16"/>
+      <c r="AEX64" s="16"/>
+      <c r="AEY64" s="16"/>
+      <c r="AEZ64" s="16"/>
+      <c r="AFA64" s="16"/>
+      <c r="AFB64" s="16"/>
+      <c r="AFC64" s="16"/>
+      <c r="AFD64" s="16"/>
+      <c r="AFE64" s="16"/>
+      <c r="AFF64" s="16"/>
+      <c r="AFG64" s="16"/>
+      <c r="AFH64" s="16"/>
+      <c r="AFI64" s="16"/>
+      <c r="AFJ64" s="16"/>
+      <c r="AFK64" s="16"/>
+      <c r="AFL64" s="16"/>
+      <c r="AFM64" s="16"/>
+      <c r="AFN64" s="16"/>
+      <c r="AFO64" s="16"/>
+      <c r="AFP64" s="16"/>
+      <c r="AFQ64" s="16"/>
+      <c r="AFR64" s="16"/>
+      <c r="AFS64" s="16"/>
+      <c r="AFT64" s="16"/>
+      <c r="AFU64" s="16"/>
+      <c r="AFV64" s="16"/>
+      <c r="AFW64" s="16"/>
+      <c r="AFX64" s="16"/>
+      <c r="AFY64" s="16"/>
+      <c r="AFZ64" s="16"/>
+      <c r="AGA64" s="16"/>
+      <c r="AGB64" s="16"/>
+      <c r="AGC64" s="16"/>
+      <c r="AGD64" s="16"/>
+      <c r="AGE64" s="16"/>
+      <c r="AGF64" s="16"/>
+      <c r="AGG64" s="16"/>
+      <c r="AGH64" s="16"/>
+      <c r="AGI64" s="16"/>
+      <c r="AGJ64" s="16"/>
+      <c r="AGK64" s="16"/>
+      <c r="AGL64" s="16"/>
+      <c r="AGM64" s="16"/>
+      <c r="AGN64" s="16"/>
+      <c r="AGO64" s="16"/>
+      <c r="AGP64" s="16"/>
+      <c r="AGQ64" s="16"/>
+      <c r="AGR64" s="16"/>
+      <c r="AGS64" s="16"/>
+      <c r="AGT64" s="16"/>
+      <c r="AGU64" s="16"/>
+      <c r="AGV64" s="16"/>
+      <c r="AGW64" s="16"/>
+      <c r="AGX64" s="16"/>
+      <c r="AGY64" s="16"/>
+      <c r="AGZ64" s="16"/>
+      <c r="AHA64" s="16"/>
+      <c r="AHB64" s="16"/>
+      <c r="AHC64" s="16"/>
+      <c r="AHD64" s="16"/>
+      <c r="AHE64" s="16"/>
+      <c r="AHF64" s="16"/>
+      <c r="AHG64" s="16"/>
+      <c r="AHH64" s="16"/>
+      <c r="AHI64" s="16"/>
+      <c r="AHJ64" s="16"/>
+      <c r="AHK64" s="16"/>
+      <c r="AHL64" s="16"/>
+      <c r="AHM64" s="16"/>
+      <c r="AHN64" s="16"/>
+      <c r="AHO64" s="16"/>
+      <c r="AHP64" s="16"/>
+      <c r="AHQ64" s="16"/>
+      <c r="AHR64" s="16"/>
+      <c r="AHS64" s="16"/>
+      <c r="AHT64" s="16"/>
+      <c r="AHU64" s="16"/>
+      <c r="AHV64" s="16"/>
+      <c r="AHW64" s="16"/>
+      <c r="AHX64" s="16"/>
+      <c r="AHY64" s="16"/>
+      <c r="AHZ64" s="16"/>
+      <c r="AIA64" s="16"/>
+      <c r="AIB64" s="16"/>
+      <c r="AIC64" s="16"/>
+      <c r="AID64" s="16"/>
+      <c r="AIE64" s="16"/>
+      <c r="AIF64" s="16"/>
+      <c r="AIG64" s="16"/>
+      <c r="AIH64" s="16"/>
+      <c r="AII64" s="16"/>
+      <c r="AIJ64" s="16"/>
+      <c r="AIK64" s="16"/>
+      <c r="AIL64" s="16"/>
+      <c r="AIM64" s="16"/>
+      <c r="AIN64" s="16"/>
+      <c r="AIO64" s="16"/>
+      <c r="AIP64" s="16"/>
+      <c r="AIQ64" s="16"/>
+      <c r="AIR64" s="16"/>
+      <c r="AIS64" s="16"/>
+      <c r="AIT64" s="16"/>
+      <c r="AIU64" s="16"/>
+      <c r="AIV64" s="16"/>
+      <c r="AIW64" s="16"/>
+      <c r="AIX64" s="16"/>
+      <c r="AIY64" s="16"/>
+      <c r="AIZ64" s="16"/>
+      <c r="AJA64" s="16"/>
+      <c r="AJB64" s="16"/>
+      <c r="AJC64" s="16"/>
+      <c r="AJD64" s="16"/>
+      <c r="AJE64" s="16"/>
+      <c r="AJF64" s="16"/>
+      <c r="AJG64" s="16"/>
+      <c r="AJH64" s="16"/>
+      <c r="AJI64" s="16"/>
+      <c r="AJJ64" s="16"/>
+      <c r="AJK64" s="16"/>
+      <c r="AJL64" s="16"/>
+      <c r="AJM64" s="16"/>
+      <c r="AJN64" s="16"/>
+      <c r="AJO64" s="16"/>
+      <c r="AJP64" s="16"/>
+      <c r="AJQ64" s="16"/>
+      <c r="AJR64" s="16"/>
+      <c r="AJS64" s="16"/>
+      <c r="AJT64" s="16"/>
+      <c r="AJU64" s="16"/>
+      <c r="AJV64" s="16"/>
+      <c r="AJW64" s="16"/>
+      <c r="AJX64" s="16"/>
+      <c r="AJY64" s="16"/>
+      <c r="AJZ64" s="16"/>
+      <c r="AKA64" s="16"/>
+      <c r="AKB64" s="16"/>
+      <c r="AKC64" s="16"/>
+      <c r="AKD64" s="16"/>
+      <c r="AKE64" s="16"/>
+      <c r="AKF64" s="16"/>
+      <c r="AKG64" s="16"/>
+      <c r="AKH64" s="16"/>
+      <c r="AKI64" s="16"/>
+      <c r="AKJ64" s="16"/>
+      <c r="AKK64" s="16"/>
+      <c r="AKL64" s="16"/>
+      <c r="AKM64" s="16"/>
+      <c r="AKN64" s="16"/>
+      <c r="AKO64" s="16"/>
+      <c r="AKP64" s="16"/>
+      <c r="AKQ64" s="16"/>
+      <c r="AKR64" s="16"/>
+      <c r="AKS64" s="16"/>
+      <c r="AKT64" s="16"/>
+      <c r="AKU64" s="16"/>
+      <c r="AKV64" s="16"/>
+      <c r="AKW64" s="16"/>
+      <c r="AKX64" s="16"/>
+      <c r="AKY64" s="16"/>
+      <c r="AKZ64" s="16"/>
+      <c r="ALA64" s="16"/>
+      <c r="ALB64" s="16"/>
+      <c r="ALC64" s="16"/>
+      <c r="ALD64" s="16"/>
+      <c r="ALE64" s="16"/>
+      <c r="ALF64" s="16"/>
+      <c r="ALG64" s="16"/>
+      <c r="ALH64" s="16"/>
+      <c r="ALI64" s="16"/>
+      <c r="ALJ64" s="16"/>
+      <c r="ALK64" s="16"/>
+      <c r="ALL64" s="16"/>
+      <c r="ALM64" s="16"/>
+      <c r="ALN64" s="16"/>
+      <c r="ALO64" s="16"/>
+      <c r="ALP64" s="16"/>
+      <c r="ALQ64" s="16"/>
+      <c r="ALR64" s="16"/>
+      <c r="ALS64" s="16"/>
+      <c r="ALT64" s="16"/>
+      <c r="ALU64" s="16"/>
+      <c r="ALV64" s="16"/>
+      <c r="ALW64" s="16"/>
+      <c r="ALX64" s="16"/>
+      <c r="ALY64" s="16"/>
+      <c r="ALZ64" s="16"/>
+      <c r="AMA64" s="16"/>
+      <c r="AMB64" s="16"/>
+      <c r="AMC64" s="16"/>
+      <c r="AMD64" s="16"/>
+      <c r="AME64" s="16"/>
+      <c r="AMF64" s="16"/>
+      <c r="AMG64" s="16"/>
+      <c r="AMH64" s="16"/>
+      <c r="AMI64" s="16"/>
+      <c r="AMJ64" s="16"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="9">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2 A6:A7 A10 A13 A25:A26" type="list">
@@ -4547,15 +4814,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="26.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="23.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="5" width="11.7"/>
@@ -4563,7 +4830,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4625,13 +4892,13 @@
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4659,13 +4926,13 @@
     </row>
     <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4721,13 +4988,13 @@
     </row>
     <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4755,13 +5022,13 @@
     </row>
     <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4789,13 +5056,13 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4823,13 +5090,13 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -4856,14 +5123,69 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>129</v>
+      <c r="A10" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4884,7 +5206,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4892,19 +5214,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
@@ -4933,17 +5255,17 @@
         <v>62</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C2" s="18" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-03-22  11-17</v>
+        <v>2024-05-13  12-48</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>

--- a/Guild Digital/Example CHT application/forms/app/device_functionality.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/device_functionality.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="165">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -306,19 +306,10 @@
     <t xml:space="preserve">police_report_advice</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style="color:r#A9A9A9"&gt;Advise the vht to go to the police report and obtain a police letter&lt;/span&gt;</t>
+    <t xml:space="preserve">&lt;span style="color:#FF0000"&gt;Advise the vht to go to the police report and obtain a police letter&lt;/span&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">${stolen_device_reported} =  'no'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_device_summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
   </si>
   <si>
     <r>
@@ -345,35 +336,66 @@
     <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">field-list summary </t>
+  </si>
+  <si>
     <t xml:space="preserve">s_note_vht_details</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style=”text-align:center; background-color: #FFA500;”&gt;VHT Details&lt;/h4&gt;</t>
+    <t xml:space="preserve">VHT Details&lt;I class="fa fa-user"&gt;&lt;/i&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
   </si>
   <si>
     <t xml:space="preserve">s_vht_details</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;${name}&lt;/h5&gt;
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${name}&lt;/h4&gt;
 </t>
   </si>
   <si>
     <t xml:space="preserve">s_device_condition</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style=”text-align:center; background-color: #ADD8E6;”&gt;Status of the device&lt;/h4&gt;</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Status of the device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;I class="fa fa-phone"&gt;&lt;/i&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 blue</t>
   </si>
   <si>
     <t xml:space="preserve">s_okay</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Okay &lt;/h5&gt;</t>
+    <t xml:space="preserve">Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li</t>
   </si>
   <si>
     <t xml:space="preserve">s_device_condition_1</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Broken &lt;/h5&gt;</t>
+    <t xml:space="preserve">Broken</t>
   </si>
   <si>
     <r>
@@ -398,13 +420,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
     <t xml:space="preserve">s_device_condition_2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;Not Charged &lt;/h5&gt;</t>
+    <t xml:space="preserve">Not Charged</t>
   </si>
   <si>
     <r>
@@ -432,36 +451,7 @@
     <t xml:space="preserve">s_device_condition_3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Stolen (tablet or charger)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Stolen:  (tablet or charger)</t>
   </si>
   <si>
     <r>
@@ -489,36 +479,7 @@
     <t xml:space="preserve">s_device_condition_4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Device freezes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Device freezes</t>
   </si>
   <si>
     <r>
@@ -546,6 +507,12 @@
     <t xml:space="preserve">s_device</t>
   </si>
   <si>
+    <t xml:space="preserve">Device:  ${device}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -554,7 +521,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+      <t xml:space="preserve">Reported</t>
     </r>
     <r>
       <rPr>
@@ -564,133 +531,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Device:  ${device}</t>
+      <t xml:space="preserve">:  ${to_who}</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/h5&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">report</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;Reported</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:  ${to_who},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/h5&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s_followup</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Follow Up</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h4&gt;</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">follow_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow Up&lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
   </si>
   <si>
     <t xml:space="preserve">s_followup_note</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">You will  receive a devise follow-up task in due in 5 days </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -712,9 +569,6 @@
   </si>
   <si>
     <t xml:space="preserve">broken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broken</t>
   </si>
   <si>
     <t xml:space="preserve">not_charged</t>
@@ -805,7 +659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -848,16 +702,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -937,7 +799,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -983,14 +845,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,7 +872,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1006,15 +880,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1201,10 +1071,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ65"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B39" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B32" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2403,31 +2273,55 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="AME51" s="9"/>
+      <c r="AMF51" s="9"/>
+      <c r="AMG51" s="9"/>
+      <c r="AMH51" s="9"/>
+      <c r="AMI51" s="9"/>
+      <c r="AMJ51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="10" t="s">
         <v>100</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -2450,17 +2344,18 @@
       <c r="AMI52" s="9"/>
       <c r="AMJ52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C53" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -2483,51 +2378,47 @@
       <c r="AMI53" s="9"/>
       <c r="AMJ53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+    <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>103</v>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="AME54" s="9"/>
-      <c r="AMF54" s="9"/>
-      <c r="AMG54" s="9"/>
-      <c r="AMH54" s="9"/>
-      <c r="AMI54" s="9"/>
-      <c r="AMJ54" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -2540,2226 +2431,1211 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+    <row r="56" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-    </row>
-    <row r="57" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
+    </row>
+    <row r="58" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="F62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="14"/>
+      <c r="B63" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="17"/>
       <c r="E63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
-      <c r="AD63" s="16"/>
-      <c r="AE63" s="16"/>
-      <c r="AF63" s="16"/>
-      <c r="AG63" s="16"/>
-      <c r="AH63" s="16"/>
-      <c r="AI63" s="16"/>
-      <c r="AJ63" s="16"/>
-      <c r="AK63" s="16"/>
-      <c r="AL63" s="16"/>
-      <c r="AM63" s="16"/>
-      <c r="AN63" s="16"/>
-      <c r="AO63" s="16"/>
-      <c r="AP63" s="16"/>
-      <c r="AQ63" s="16"/>
-      <c r="AR63" s="16"/>
-      <c r="AS63" s="16"/>
-      <c r="AT63" s="16"/>
-      <c r="AU63" s="16"/>
-      <c r="AV63" s="16"/>
-      <c r="AW63" s="16"/>
-      <c r="AX63" s="16"/>
-      <c r="AY63" s="16"/>
-      <c r="AZ63" s="16"/>
-      <c r="BA63" s="16"/>
-      <c r="BB63" s="16"/>
-      <c r="BC63" s="16"/>
-      <c r="BD63" s="16"/>
-      <c r="BE63" s="16"/>
-      <c r="BF63" s="16"/>
-      <c r="BG63" s="16"/>
-      <c r="BH63" s="16"/>
-      <c r="BI63" s="16"/>
-      <c r="BJ63" s="16"/>
-      <c r="BK63" s="16"/>
-      <c r="BL63" s="16"/>
-      <c r="BM63" s="16"/>
-      <c r="BN63" s="16"/>
-      <c r="BO63" s="16"/>
-      <c r="BP63" s="16"/>
-      <c r="BQ63" s="16"/>
-      <c r="BR63" s="16"/>
-      <c r="BS63" s="16"/>
-      <c r="BT63" s="16"/>
-      <c r="BU63" s="16"/>
-      <c r="BV63" s="16"/>
-      <c r="BW63" s="16"/>
-      <c r="BX63" s="16"/>
-      <c r="BY63" s="16"/>
-      <c r="BZ63" s="16"/>
-      <c r="CA63" s="16"/>
-      <c r="CB63" s="16"/>
-      <c r="CC63" s="16"/>
-      <c r="CD63" s="16"/>
-      <c r="CE63" s="16"/>
-      <c r="CF63" s="16"/>
-      <c r="CG63" s="16"/>
-      <c r="CH63" s="16"/>
-      <c r="CI63" s="16"/>
-      <c r="CJ63" s="16"/>
-      <c r="CK63" s="16"/>
-      <c r="CL63" s="16"/>
-      <c r="CM63" s="16"/>
-      <c r="CN63" s="16"/>
-      <c r="CO63" s="16"/>
-      <c r="CP63" s="16"/>
-      <c r="CQ63" s="16"/>
-      <c r="CR63" s="16"/>
-      <c r="CS63" s="16"/>
-      <c r="CT63" s="16"/>
-      <c r="CU63" s="16"/>
-      <c r="CV63" s="16"/>
-      <c r="CW63" s="16"/>
-      <c r="CX63" s="16"/>
-      <c r="CY63" s="16"/>
-      <c r="CZ63" s="16"/>
-      <c r="DA63" s="16"/>
-      <c r="DB63" s="16"/>
-      <c r="DC63" s="16"/>
-      <c r="DD63" s="16"/>
-      <c r="DE63" s="16"/>
-      <c r="DF63" s="16"/>
-      <c r="DG63" s="16"/>
-      <c r="DH63" s="16"/>
-      <c r="DI63" s="16"/>
-      <c r="DJ63" s="16"/>
-      <c r="DK63" s="16"/>
-      <c r="DL63" s="16"/>
-      <c r="DM63" s="16"/>
-      <c r="DN63" s="16"/>
-      <c r="DO63" s="16"/>
-      <c r="DP63" s="16"/>
-      <c r="DQ63" s="16"/>
-      <c r="DR63" s="16"/>
-      <c r="DS63" s="16"/>
-      <c r="DT63" s="16"/>
-      <c r="DU63" s="16"/>
-      <c r="DV63" s="16"/>
-      <c r="DW63" s="16"/>
-      <c r="DX63" s="16"/>
-      <c r="DY63" s="16"/>
-      <c r="DZ63" s="16"/>
-      <c r="EA63" s="16"/>
-      <c r="EB63" s="16"/>
-      <c r="EC63" s="16"/>
-      <c r="ED63" s="16"/>
-      <c r="EE63" s="16"/>
-      <c r="EF63" s="16"/>
-      <c r="EG63" s="16"/>
-      <c r="EH63" s="16"/>
-      <c r="EI63" s="16"/>
-      <c r="EJ63" s="16"/>
-      <c r="EK63" s="16"/>
-      <c r="EL63" s="16"/>
-      <c r="EM63" s="16"/>
-      <c r="EN63" s="16"/>
-      <c r="EO63" s="16"/>
-      <c r="EP63" s="16"/>
-      <c r="EQ63" s="16"/>
-      <c r="ER63" s="16"/>
-      <c r="ES63" s="16"/>
-      <c r="ET63" s="16"/>
-      <c r="EU63" s="16"/>
-      <c r="EV63" s="16"/>
-      <c r="EW63" s="16"/>
-      <c r="EX63" s="16"/>
-      <c r="EY63" s="16"/>
-      <c r="EZ63" s="16"/>
-      <c r="FA63" s="16"/>
-      <c r="FB63" s="16"/>
-      <c r="FC63" s="16"/>
-      <c r="FD63" s="16"/>
-      <c r="FE63" s="16"/>
-      <c r="FF63" s="16"/>
-      <c r="FG63" s="16"/>
-      <c r="FH63" s="16"/>
-      <c r="FI63" s="16"/>
-      <c r="FJ63" s="16"/>
-      <c r="FK63" s="16"/>
-      <c r="FL63" s="16"/>
-      <c r="FM63" s="16"/>
-      <c r="FN63" s="16"/>
-      <c r="FO63" s="16"/>
-      <c r="FP63" s="16"/>
-      <c r="FQ63" s="16"/>
-      <c r="FR63" s="16"/>
-      <c r="FS63" s="16"/>
-      <c r="FT63" s="16"/>
-      <c r="FU63" s="16"/>
-      <c r="FV63" s="16"/>
-      <c r="FW63" s="16"/>
-      <c r="FX63" s="16"/>
-      <c r="FY63" s="16"/>
-      <c r="FZ63" s="16"/>
-      <c r="GA63" s="16"/>
-      <c r="GB63" s="16"/>
-      <c r="GC63" s="16"/>
-      <c r="GD63" s="16"/>
-      <c r="GE63" s="16"/>
-      <c r="GF63" s="16"/>
-      <c r="GG63" s="16"/>
-      <c r="GH63" s="16"/>
-      <c r="GI63" s="16"/>
-      <c r="GJ63" s="16"/>
-      <c r="GK63" s="16"/>
-      <c r="GL63" s="16"/>
-      <c r="GM63" s="16"/>
-      <c r="GN63" s="16"/>
-      <c r="GO63" s="16"/>
-      <c r="GP63" s="16"/>
-      <c r="GQ63" s="16"/>
-      <c r="GR63" s="16"/>
-      <c r="GS63" s="16"/>
-      <c r="GT63" s="16"/>
-      <c r="GU63" s="16"/>
-      <c r="GV63" s="16"/>
-      <c r="GW63" s="16"/>
-      <c r="GX63" s="16"/>
-      <c r="GY63" s="16"/>
-      <c r="GZ63" s="16"/>
-      <c r="HA63" s="16"/>
-      <c r="HB63" s="16"/>
-      <c r="HC63" s="16"/>
-      <c r="HD63" s="16"/>
-      <c r="HE63" s="16"/>
-      <c r="HF63" s="16"/>
-      <c r="HG63" s="16"/>
-      <c r="HH63" s="16"/>
-      <c r="HI63" s="16"/>
-      <c r="HJ63" s="16"/>
-      <c r="HK63" s="16"/>
-      <c r="HL63" s="16"/>
-      <c r="HM63" s="16"/>
-      <c r="HN63" s="16"/>
-      <c r="HO63" s="16"/>
-      <c r="HP63" s="16"/>
-      <c r="HQ63" s="16"/>
-      <c r="HR63" s="16"/>
-      <c r="HS63" s="16"/>
-      <c r="HT63" s="16"/>
-      <c r="HU63" s="16"/>
-      <c r="HV63" s="16"/>
-      <c r="HW63" s="16"/>
-      <c r="HX63" s="16"/>
-      <c r="HY63" s="16"/>
-      <c r="HZ63" s="16"/>
-      <c r="IA63" s="16"/>
-      <c r="IB63" s="16"/>
-      <c r="IC63" s="16"/>
-      <c r="ID63" s="16"/>
-      <c r="IE63" s="16"/>
-      <c r="IF63" s="16"/>
-      <c r="IG63" s="16"/>
-      <c r="IH63" s="16"/>
-      <c r="II63" s="16"/>
-      <c r="IJ63" s="16"/>
-      <c r="IK63" s="16"/>
-      <c r="IL63" s="16"/>
-      <c r="IM63" s="16"/>
-      <c r="IN63" s="16"/>
-      <c r="IO63" s="16"/>
-      <c r="IP63" s="16"/>
-      <c r="IQ63" s="16"/>
-      <c r="IR63" s="16"/>
-      <c r="IS63" s="16"/>
-      <c r="IT63" s="16"/>
-      <c r="IU63" s="16"/>
-      <c r="IV63" s="16"/>
-      <c r="IW63" s="16"/>
-      <c r="IX63" s="16"/>
-      <c r="IY63" s="16"/>
-      <c r="IZ63" s="16"/>
-      <c r="JA63" s="16"/>
-      <c r="JB63" s="16"/>
-      <c r="JC63" s="16"/>
-      <c r="JD63" s="16"/>
-      <c r="JE63" s="16"/>
-      <c r="JF63" s="16"/>
-      <c r="JG63" s="16"/>
-      <c r="JH63" s="16"/>
-      <c r="JI63" s="16"/>
-      <c r="JJ63" s="16"/>
-      <c r="JK63" s="16"/>
-      <c r="JL63" s="16"/>
-      <c r="JM63" s="16"/>
-      <c r="JN63" s="16"/>
-      <c r="JO63" s="16"/>
-      <c r="JP63" s="16"/>
-      <c r="JQ63" s="16"/>
-      <c r="JR63" s="16"/>
-      <c r="JS63" s="16"/>
-      <c r="JT63" s="16"/>
-      <c r="JU63" s="16"/>
-      <c r="JV63" s="16"/>
-      <c r="JW63" s="16"/>
-      <c r="JX63" s="16"/>
-      <c r="JY63" s="16"/>
-      <c r="JZ63" s="16"/>
-      <c r="KA63" s="16"/>
-      <c r="KB63" s="16"/>
-      <c r="KC63" s="16"/>
-      <c r="KD63" s="16"/>
-      <c r="KE63" s="16"/>
-      <c r="KF63" s="16"/>
-      <c r="KG63" s="16"/>
-      <c r="KH63" s="16"/>
-      <c r="KI63" s="16"/>
-      <c r="KJ63" s="16"/>
-      <c r="KK63" s="16"/>
-      <c r="KL63" s="16"/>
-      <c r="KM63" s="16"/>
-      <c r="KN63" s="16"/>
-      <c r="KO63" s="16"/>
-      <c r="KP63" s="16"/>
-      <c r="KQ63" s="16"/>
-      <c r="KR63" s="16"/>
-      <c r="KS63" s="16"/>
-      <c r="KT63" s="16"/>
-      <c r="KU63" s="16"/>
-      <c r="KV63" s="16"/>
-      <c r="KW63" s="16"/>
-      <c r="KX63" s="16"/>
-      <c r="KY63" s="16"/>
-      <c r="KZ63" s="16"/>
-      <c r="LA63" s="16"/>
-      <c r="LB63" s="16"/>
-      <c r="LC63" s="16"/>
-      <c r="LD63" s="16"/>
-      <c r="LE63" s="16"/>
-      <c r="LF63" s="16"/>
-      <c r="LG63" s="16"/>
-      <c r="LH63" s="16"/>
-      <c r="LI63" s="16"/>
-      <c r="LJ63" s="16"/>
-      <c r="LK63" s="16"/>
-      <c r="LL63" s="16"/>
-      <c r="LM63" s="16"/>
-      <c r="LN63" s="16"/>
-      <c r="LO63" s="16"/>
-      <c r="LP63" s="16"/>
-      <c r="LQ63" s="16"/>
-      <c r="LR63" s="16"/>
-      <c r="LS63" s="16"/>
-      <c r="LT63" s="16"/>
-      <c r="LU63" s="16"/>
-      <c r="LV63" s="16"/>
-      <c r="LW63" s="16"/>
-      <c r="LX63" s="16"/>
-      <c r="LY63" s="16"/>
-      <c r="LZ63" s="16"/>
-      <c r="MA63" s="16"/>
-      <c r="MB63" s="16"/>
-      <c r="MC63" s="16"/>
-      <c r="MD63" s="16"/>
-      <c r="ME63" s="16"/>
-      <c r="MF63" s="16"/>
-      <c r="MG63" s="16"/>
-      <c r="MH63" s="16"/>
-      <c r="MI63" s="16"/>
-      <c r="MJ63" s="16"/>
-      <c r="MK63" s="16"/>
-      <c r="ML63" s="16"/>
-      <c r="MM63" s="16"/>
-      <c r="MN63" s="16"/>
-      <c r="MO63" s="16"/>
-      <c r="MP63" s="16"/>
-      <c r="MQ63" s="16"/>
-      <c r="MR63" s="16"/>
-      <c r="MS63" s="16"/>
-      <c r="MT63" s="16"/>
-      <c r="MU63" s="16"/>
-      <c r="MV63" s="16"/>
-      <c r="MW63" s="16"/>
-      <c r="MX63" s="16"/>
-      <c r="MY63" s="16"/>
-      <c r="MZ63" s="16"/>
-      <c r="NA63" s="16"/>
-      <c r="NB63" s="16"/>
-      <c r="NC63" s="16"/>
-      <c r="ND63" s="16"/>
-      <c r="NE63" s="16"/>
-      <c r="NF63" s="16"/>
-      <c r="NG63" s="16"/>
-      <c r="NH63" s="16"/>
-      <c r="NI63" s="16"/>
-      <c r="NJ63" s="16"/>
-      <c r="NK63" s="16"/>
-      <c r="NL63" s="16"/>
-      <c r="NM63" s="16"/>
-      <c r="NN63" s="16"/>
-      <c r="NO63" s="16"/>
-      <c r="NP63" s="16"/>
-      <c r="NQ63" s="16"/>
-      <c r="NR63" s="16"/>
-      <c r="NS63" s="16"/>
-      <c r="NT63" s="16"/>
-      <c r="NU63" s="16"/>
-      <c r="NV63" s="16"/>
-      <c r="NW63" s="16"/>
-      <c r="NX63" s="16"/>
-      <c r="NY63" s="16"/>
-      <c r="NZ63" s="16"/>
-      <c r="OA63" s="16"/>
-      <c r="OB63" s="16"/>
-      <c r="OC63" s="16"/>
-      <c r="OD63" s="16"/>
-      <c r="OE63" s="16"/>
-      <c r="OF63" s="16"/>
-      <c r="OG63" s="16"/>
-      <c r="OH63" s="16"/>
-      <c r="OI63" s="16"/>
-      <c r="OJ63" s="16"/>
-      <c r="OK63" s="16"/>
-      <c r="OL63" s="16"/>
-      <c r="OM63" s="16"/>
-      <c r="ON63" s="16"/>
-      <c r="OO63" s="16"/>
-      <c r="OP63" s="16"/>
-      <c r="OQ63" s="16"/>
-      <c r="OR63" s="16"/>
-      <c r="OS63" s="16"/>
-      <c r="OT63" s="16"/>
-      <c r="OU63" s="16"/>
-      <c r="OV63" s="16"/>
-      <c r="OW63" s="16"/>
-      <c r="OX63" s="16"/>
-      <c r="OY63" s="16"/>
-      <c r="OZ63" s="16"/>
-      <c r="PA63" s="16"/>
-      <c r="PB63" s="16"/>
-      <c r="PC63" s="16"/>
-      <c r="PD63" s="16"/>
-      <c r="PE63" s="16"/>
-      <c r="PF63" s="16"/>
-      <c r="PG63" s="16"/>
-      <c r="PH63" s="16"/>
-      <c r="PI63" s="16"/>
-      <c r="PJ63" s="16"/>
-      <c r="PK63" s="16"/>
-      <c r="PL63" s="16"/>
-      <c r="PM63" s="16"/>
-      <c r="PN63" s="16"/>
-      <c r="PO63" s="16"/>
-      <c r="PP63" s="16"/>
-      <c r="PQ63" s="16"/>
-      <c r="PR63" s="16"/>
-      <c r="PS63" s="16"/>
-      <c r="PT63" s="16"/>
-      <c r="PU63" s="16"/>
-      <c r="PV63" s="16"/>
-      <c r="PW63" s="16"/>
-      <c r="PX63" s="16"/>
-      <c r="PY63" s="16"/>
-      <c r="PZ63" s="16"/>
-      <c r="QA63" s="16"/>
-      <c r="QB63" s="16"/>
-      <c r="QC63" s="16"/>
-      <c r="QD63" s="16"/>
-      <c r="QE63" s="16"/>
-      <c r="QF63" s="16"/>
-      <c r="QG63" s="16"/>
-      <c r="QH63" s="16"/>
-      <c r="QI63" s="16"/>
-      <c r="QJ63" s="16"/>
-      <c r="QK63" s="16"/>
-      <c r="QL63" s="16"/>
-      <c r="QM63" s="16"/>
-      <c r="QN63" s="16"/>
-      <c r="QO63" s="16"/>
-      <c r="QP63" s="16"/>
-      <c r="QQ63" s="16"/>
-      <c r="QR63" s="16"/>
-      <c r="QS63" s="16"/>
-      <c r="QT63" s="16"/>
-      <c r="QU63" s="16"/>
-      <c r="QV63" s="16"/>
-      <c r="QW63" s="16"/>
-      <c r="QX63" s="16"/>
-      <c r="QY63" s="16"/>
-      <c r="QZ63" s="16"/>
-      <c r="RA63" s="16"/>
-      <c r="RB63" s="16"/>
-      <c r="RC63" s="16"/>
-      <c r="RD63" s="16"/>
-      <c r="RE63" s="16"/>
-      <c r="RF63" s="16"/>
-      <c r="RG63" s="16"/>
-      <c r="RH63" s="16"/>
-      <c r="RI63" s="16"/>
-      <c r="RJ63" s="16"/>
-      <c r="RK63" s="16"/>
-      <c r="RL63" s="16"/>
-      <c r="RM63" s="16"/>
-      <c r="RN63" s="16"/>
-      <c r="RO63" s="16"/>
-      <c r="RP63" s="16"/>
-      <c r="RQ63" s="16"/>
-      <c r="RR63" s="16"/>
-      <c r="RS63" s="16"/>
-      <c r="RT63" s="16"/>
-      <c r="RU63" s="16"/>
-      <c r="RV63" s="16"/>
-      <c r="RW63" s="16"/>
-      <c r="RX63" s="16"/>
-      <c r="RY63" s="16"/>
-      <c r="RZ63" s="16"/>
-      <c r="SA63" s="16"/>
-      <c r="SB63" s="16"/>
-      <c r="SC63" s="16"/>
-      <c r="SD63" s="16"/>
-      <c r="SE63" s="16"/>
-      <c r="SF63" s="16"/>
-      <c r="SG63" s="16"/>
-      <c r="SH63" s="16"/>
-      <c r="SI63" s="16"/>
-      <c r="SJ63" s="16"/>
-      <c r="SK63" s="16"/>
-      <c r="SL63" s="16"/>
-      <c r="SM63" s="16"/>
-      <c r="SN63" s="16"/>
-      <c r="SO63" s="16"/>
-      <c r="SP63" s="16"/>
-      <c r="SQ63" s="16"/>
-      <c r="SR63" s="16"/>
-      <c r="SS63" s="16"/>
-      <c r="ST63" s="16"/>
-      <c r="SU63" s="16"/>
-      <c r="SV63" s="16"/>
-      <c r="SW63" s="16"/>
-      <c r="SX63" s="16"/>
-      <c r="SY63" s="16"/>
-      <c r="SZ63" s="16"/>
-      <c r="TA63" s="16"/>
-      <c r="TB63" s="16"/>
-      <c r="TC63" s="16"/>
-      <c r="TD63" s="16"/>
-      <c r="TE63" s="16"/>
-      <c r="TF63" s="16"/>
-      <c r="TG63" s="16"/>
-      <c r="TH63" s="16"/>
-      <c r="TI63" s="16"/>
-      <c r="TJ63" s="16"/>
-      <c r="TK63" s="16"/>
-      <c r="TL63" s="16"/>
-      <c r="TM63" s="16"/>
-      <c r="TN63" s="16"/>
-      <c r="TO63" s="16"/>
-      <c r="TP63" s="16"/>
-      <c r="TQ63" s="16"/>
-      <c r="TR63" s="16"/>
-      <c r="TS63" s="16"/>
-      <c r="TT63" s="16"/>
-      <c r="TU63" s="16"/>
-      <c r="TV63" s="16"/>
-      <c r="TW63" s="16"/>
-      <c r="TX63" s="16"/>
-      <c r="TY63" s="16"/>
-      <c r="TZ63" s="16"/>
-      <c r="UA63" s="16"/>
-      <c r="UB63" s="16"/>
-      <c r="UC63" s="16"/>
-      <c r="UD63" s="16"/>
-      <c r="UE63" s="16"/>
-      <c r="UF63" s="16"/>
-      <c r="UG63" s="16"/>
-      <c r="UH63" s="16"/>
-      <c r="UI63" s="16"/>
-      <c r="UJ63" s="16"/>
-      <c r="UK63" s="16"/>
-      <c r="UL63" s="16"/>
-      <c r="UM63" s="16"/>
-      <c r="UN63" s="16"/>
-      <c r="UO63" s="16"/>
-      <c r="UP63" s="16"/>
-      <c r="UQ63" s="16"/>
-      <c r="UR63" s="16"/>
-      <c r="US63" s="16"/>
-      <c r="UT63" s="16"/>
-      <c r="UU63" s="16"/>
-      <c r="UV63" s="16"/>
-      <c r="UW63" s="16"/>
-      <c r="UX63" s="16"/>
-      <c r="UY63" s="16"/>
-      <c r="UZ63" s="16"/>
-      <c r="VA63" s="16"/>
-      <c r="VB63" s="16"/>
-      <c r="VC63" s="16"/>
-      <c r="VD63" s="16"/>
-      <c r="VE63" s="16"/>
-      <c r="VF63" s="16"/>
-      <c r="VG63" s="16"/>
-      <c r="VH63" s="16"/>
-      <c r="VI63" s="16"/>
-      <c r="VJ63" s="16"/>
-      <c r="VK63" s="16"/>
-      <c r="VL63" s="16"/>
-      <c r="VM63" s="16"/>
-      <c r="VN63" s="16"/>
-      <c r="VO63" s="16"/>
-      <c r="VP63" s="16"/>
-      <c r="VQ63" s="16"/>
-      <c r="VR63" s="16"/>
-      <c r="VS63" s="16"/>
-      <c r="VT63" s="16"/>
-      <c r="VU63" s="16"/>
-      <c r="VV63" s="16"/>
-      <c r="VW63" s="16"/>
-      <c r="VX63" s="16"/>
-      <c r="VY63" s="16"/>
-      <c r="VZ63" s="16"/>
-      <c r="WA63" s="16"/>
-      <c r="WB63" s="16"/>
-      <c r="WC63" s="16"/>
-      <c r="WD63" s="16"/>
-      <c r="WE63" s="16"/>
-      <c r="WF63" s="16"/>
-      <c r="WG63" s="16"/>
-      <c r="WH63" s="16"/>
-      <c r="WI63" s="16"/>
-      <c r="WJ63" s="16"/>
-      <c r="WK63" s="16"/>
-      <c r="WL63" s="16"/>
-      <c r="WM63" s="16"/>
-      <c r="WN63" s="16"/>
-      <c r="WO63" s="16"/>
-      <c r="WP63" s="16"/>
-      <c r="WQ63" s="16"/>
-      <c r="WR63" s="16"/>
-      <c r="WS63" s="16"/>
-      <c r="WT63" s="16"/>
-      <c r="WU63" s="16"/>
-      <c r="WV63" s="16"/>
-      <c r="WW63" s="16"/>
-      <c r="WX63" s="16"/>
-      <c r="WY63" s="16"/>
-      <c r="WZ63" s="16"/>
-      <c r="XA63" s="16"/>
-      <c r="XB63" s="16"/>
-      <c r="XC63" s="16"/>
-      <c r="XD63" s="16"/>
-      <c r="XE63" s="16"/>
-      <c r="XF63" s="16"/>
-      <c r="XG63" s="16"/>
-      <c r="XH63" s="16"/>
-      <c r="XI63" s="16"/>
-      <c r="XJ63" s="16"/>
-      <c r="XK63" s="16"/>
-      <c r="XL63" s="16"/>
-      <c r="XM63" s="16"/>
-      <c r="XN63" s="16"/>
-      <c r="XO63" s="16"/>
-      <c r="XP63" s="16"/>
-      <c r="XQ63" s="16"/>
-      <c r="XR63" s="16"/>
-      <c r="XS63" s="16"/>
-      <c r="XT63" s="16"/>
-      <c r="XU63" s="16"/>
-      <c r="XV63" s="16"/>
-      <c r="XW63" s="16"/>
-      <c r="XX63" s="16"/>
-      <c r="XY63" s="16"/>
-      <c r="XZ63" s="16"/>
-      <c r="YA63" s="16"/>
-      <c r="YB63" s="16"/>
-      <c r="YC63" s="16"/>
-      <c r="YD63" s="16"/>
-      <c r="YE63" s="16"/>
-      <c r="YF63" s="16"/>
-      <c r="YG63" s="16"/>
-      <c r="YH63" s="16"/>
-      <c r="YI63" s="16"/>
-      <c r="YJ63" s="16"/>
-      <c r="YK63" s="16"/>
-      <c r="YL63" s="16"/>
-      <c r="YM63" s="16"/>
-      <c r="YN63" s="16"/>
-      <c r="YO63" s="16"/>
-      <c r="YP63" s="16"/>
-      <c r="YQ63" s="16"/>
-      <c r="YR63" s="16"/>
-      <c r="YS63" s="16"/>
-      <c r="YT63" s="16"/>
-      <c r="YU63" s="16"/>
-      <c r="YV63" s="16"/>
-      <c r="YW63" s="16"/>
-      <c r="YX63" s="16"/>
-      <c r="YY63" s="16"/>
-      <c r="YZ63" s="16"/>
-      <c r="ZA63" s="16"/>
-      <c r="ZB63" s="16"/>
-      <c r="ZC63" s="16"/>
-      <c r="ZD63" s="16"/>
-      <c r="ZE63" s="16"/>
-      <c r="ZF63" s="16"/>
-      <c r="ZG63" s="16"/>
-      <c r="ZH63" s="16"/>
-      <c r="ZI63" s="16"/>
-      <c r="ZJ63" s="16"/>
-      <c r="ZK63" s="16"/>
-      <c r="ZL63" s="16"/>
-      <c r="ZM63" s="16"/>
-      <c r="ZN63" s="16"/>
-      <c r="ZO63" s="16"/>
-      <c r="ZP63" s="16"/>
-      <c r="ZQ63" s="16"/>
-      <c r="ZR63" s="16"/>
-      <c r="ZS63" s="16"/>
-      <c r="ZT63" s="16"/>
-      <c r="ZU63" s="16"/>
-      <c r="ZV63" s="16"/>
-      <c r="ZW63" s="16"/>
-      <c r="ZX63" s="16"/>
-      <c r="ZY63" s="16"/>
-      <c r="ZZ63" s="16"/>
-      <c r="AAA63" s="16"/>
-      <c r="AAB63" s="16"/>
-      <c r="AAC63" s="16"/>
-      <c r="AAD63" s="16"/>
-      <c r="AAE63" s="16"/>
-      <c r="AAF63" s="16"/>
-      <c r="AAG63" s="16"/>
-      <c r="AAH63" s="16"/>
-      <c r="AAI63" s="16"/>
-      <c r="AAJ63" s="16"/>
-      <c r="AAK63" s="16"/>
-      <c r="AAL63" s="16"/>
-      <c r="AAM63" s="16"/>
-      <c r="AAN63" s="16"/>
-      <c r="AAO63" s="16"/>
-      <c r="AAP63" s="16"/>
-      <c r="AAQ63" s="16"/>
-      <c r="AAR63" s="16"/>
-      <c r="AAS63" s="16"/>
-      <c r="AAT63" s="16"/>
-      <c r="AAU63" s="16"/>
-      <c r="AAV63" s="16"/>
-      <c r="AAW63" s="16"/>
-      <c r="AAX63" s="16"/>
-      <c r="AAY63" s="16"/>
-      <c r="AAZ63" s="16"/>
-      <c r="ABA63" s="16"/>
-      <c r="ABB63" s="16"/>
-      <c r="ABC63" s="16"/>
-      <c r="ABD63" s="16"/>
-      <c r="ABE63" s="16"/>
-      <c r="ABF63" s="16"/>
-      <c r="ABG63" s="16"/>
-      <c r="ABH63" s="16"/>
-      <c r="ABI63" s="16"/>
-      <c r="ABJ63" s="16"/>
-      <c r="ABK63" s="16"/>
-      <c r="ABL63" s="16"/>
-      <c r="ABM63" s="16"/>
-      <c r="ABN63" s="16"/>
-      <c r="ABO63" s="16"/>
-      <c r="ABP63" s="16"/>
-      <c r="ABQ63" s="16"/>
-      <c r="ABR63" s="16"/>
-      <c r="ABS63" s="16"/>
-      <c r="ABT63" s="16"/>
-      <c r="ABU63" s="16"/>
-      <c r="ABV63" s="16"/>
-      <c r="ABW63" s="16"/>
-      <c r="ABX63" s="16"/>
-      <c r="ABY63" s="16"/>
-      <c r="ABZ63" s="16"/>
-      <c r="ACA63" s="16"/>
-      <c r="ACB63" s="16"/>
-      <c r="ACC63" s="16"/>
-      <c r="ACD63" s="16"/>
-      <c r="ACE63" s="16"/>
-      <c r="ACF63" s="16"/>
-      <c r="ACG63" s="16"/>
-      <c r="ACH63" s="16"/>
-      <c r="ACI63" s="16"/>
-      <c r="ACJ63" s="16"/>
-      <c r="ACK63" s="16"/>
-      <c r="ACL63" s="16"/>
-      <c r="ACM63" s="16"/>
-      <c r="ACN63" s="16"/>
-      <c r="ACO63" s="16"/>
-      <c r="ACP63" s="16"/>
-      <c r="ACQ63" s="16"/>
-      <c r="ACR63" s="16"/>
-      <c r="ACS63" s="16"/>
-      <c r="ACT63" s="16"/>
-      <c r="ACU63" s="16"/>
-      <c r="ACV63" s="16"/>
-      <c r="ACW63" s="16"/>
-      <c r="ACX63" s="16"/>
-      <c r="ACY63" s="16"/>
-      <c r="ACZ63" s="16"/>
-      <c r="ADA63" s="16"/>
-      <c r="ADB63" s="16"/>
-      <c r="ADC63" s="16"/>
-      <c r="ADD63" s="16"/>
-      <c r="ADE63" s="16"/>
-      <c r="ADF63" s="16"/>
-      <c r="ADG63" s="16"/>
-      <c r="ADH63" s="16"/>
-      <c r="ADI63" s="16"/>
-      <c r="ADJ63" s="16"/>
-      <c r="ADK63" s="16"/>
-      <c r="ADL63" s="16"/>
-      <c r="ADM63" s="16"/>
-      <c r="ADN63" s="16"/>
-      <c r="ADO63" s="16"/>
-      <c r="ADP63" s="16"/>
-      <c r="ADQ63" s="16"/>
-      <c r="ADR63" s="16"/>
-      <c r="ADS63" s="16"/>
-      <c r="ADT63" s="16"/>
-      <c r="ADU63" s="16"/>
-      <c r="ADV63" s="16"/>
-      <c r="ADW63" s="16"/>
-      <c r="ADX63" s="16"/>
-      <c r="ADY63" s="16"/>
-      <c r="ADZ63" s="16"/>
-      <c r="AEA63" s="16"/>
-      <c r="AEB63" s="16"/>
-      <c r="AEC63" s="16"/>
-      <c r="AED63" s="16"/>
-      <c r="AEE63" s="16"/>
-      <c r="AEF63" s="16"/>
-      <c r="AEG63" s="16"/>
-      <c r="AEH63" s="16"/>
-      <c r="AEI63" s="16"/>
-      <c r="AEJ63" s="16"/>
-      <c r="AEK63" s="16"/>
-      <c r="AEL63" s="16"/>
-      <c r="AEM63" s="16"/>
-      <c r="AEN63" s="16"/>
-      <c r="AEO63" s="16"/>
-      <c r="AEP63" s="16"/>
-      <c r="AEQ63" s="16"/>
-      <c r="AER63" s="16"/>
-      <c r="AES63" s="16"/>
-      <c r="AET63" s="16"/>
-      <c r="AEU63" s="16"/>
-      <c r="AEV63" s="16"/>
-      <c r="AEW63" s="16"/>
-      <c r="AEX63" s="16"/>
-      <c r="AEY63" s="16"/>
-      <c r="AEZ63" s="16"/>
-      <c r="AFA63" s="16"/>
-      <c r="AFB63" s="16"/>
-      <c r="AFC63" s="16"/>
-      <c r="AFD63" s="16"/>
-      <c r="AFE63" s="16"/>
-      <c r="AFF63" s="16"/>
-      <c r="AFG63" s="16"/>
-      <c r="AFH63" s="16"/>
-      <c r="AFI63" s="16"/>
-      <c r="AFJ63" s="16"/>
-      <c r="AFK63" s="16"/>
-      <c r="AFL63" s="16"/>
-      <c r="AFM63" s="16"/>
-      <c r="AFN63" s="16"/>
-      <c r="AFO63" s="16"/>
-      <c r="AFP63" s="16"/>
-      <c r="AFQ63" s="16"/>
-      <c r="AFR63" s="16"/>
-      <c r="AFS63" s="16"/>
-      <c r="AFT63" s="16"/>
-      <c r="AFU63" s="16"/>
-      <c r="AFV63" s="16"/>
-      <c r="AFW63" s="16"/>
-      <c r="AFX63" s="16"/>
-      <c r="AFY63" s="16"/>
-      <c r="AFZ63" s="16"/>
-      <c r="AGA63" s="16"/>
-      <c r="AGB63" s="16"/>
-      <c r="AGC63" s="16"/>
-      <c r="AGD63" s="16"/>
-      <c r="AGE63" s="16"/>
-      <c r="AGF63" s="16"/>
-      <c r="AGG63" s="16"/>
-      <c r="AGH63" s="16"/>
-      <c r="AGI63" s="16"/>
-      <c r="AGJ63" s="16"/>
-      <c r="AGK63" s="16"/>
-      <c r="AGL63" s="16"/>
-      <c r="AGM63" s="16"/>
-      <c r="AGN63" s="16"/>
-      <c r="AGO63" s="16"/>
-      <c r="AGP63" s="16"/>
-      <c r="AGQ63" s="16"/>
-      <c r="AGR63" s="16"/>
-      <c r="AGS63" s="16"/>
-      <c r="AGT63" s="16"/>
-      <c r="AGU63" s="16"/>
-      <c r="AGV63" s="16"/>
-      <c r="AGW63" s="16"/>
-      <c r="AGX63" s="16"/>
-      <c r="AGY63" s="16"/>
-      <c r="AGZ63" s="16"/>
-      <c r="AHA63" s="16"/>
-      <c r="AHB63" s="16"/>
-      <c r="AHC63" s="16"/>
-      <c r="AHD63" s="16"/>
-      <c r="AHE63" s="16"/>
-      <c r="AHF63" s="16"/>
-      <c r="AHG63" s="16"/>
-      <c r="AHH63" s="16"/>
-      <c r="AHI63" s="16"/>
-      <c r="AHJ63" s="16"/>
-      <c r="AHK63" s="16"/>
-      <c r="AHL63" s="16"/>
-      <c r="AHM63" s="16"/>
-      <c r="AHN63" s="16"/>
-      <c r="AHO63" s="16"/>
-      <c r="AHP63" s="16"/>
-      <c r="AHQ63" s="16"/>
-      <c r="AHR63" s="16"/>
-      <c r="AHS63" s="16"/>
-      <c r="AHT63" s="16"/>
-      <c r="AHU63" s="16"/>
-      <c r="AHV63" s="16"/>
-      <c r="AHW63" s="16"/>
-      <c r="AHX63" s="16"/>
-      <c r="AHY63" s="16"/>
-      <c r="AHZ63" s="16"/>
-      <c r="AIA63" s="16"/>
-      <c r="AIB63" s="16"/>
-      <c r="AIC63" s="16"/>
-      <c r="AID63" s="16"/>
-      <c r="AIE63" s="16"/>
-      <c r="AIF63" s="16"/>
-      <c r="AIG63" s="16"/>
-      <c r="AIH63" s="16"/>
-      <c r="AII63" s="16"/>
-      <c r="AIJ63" s="16"/>
-      <c r="AIK63" s="16"/>
-      <c r="AIL63" s="16"/>
-      <c r="AIM63" s="16"/>
-      <c r="AIN63" s="16"/>
-      <c r="AIO63" s="16"/>
-      <c r="AIP63" s="16"/>
-      <c r="AIQ63" s="16"/>
-      <c r="AIR63" s="16"/>
-      <c r="AIS63" s="16"/>
-      <c r="AIT63" s="16"/>
-      <c r="AIU63" s="16"/>
-      <c r="AIV63" s="16"/>
-      <c r="AIW63" s="16"/>
-      <c r="AIX63" s="16"/>
-      <c r="AIY63" s="16"/>
-      <c r="AIZ63" s="16"/>
-      <c r="AJA63" s="16"/>
-      <c r="AJB63" s="16"/>
-      <c r="AJC63" s="16"/>
-      <c r="AJD63" s="16"/>
-      <c r="AJE63" s="16"/>
-      <c r="AJF63" s="16"/>
-      <c r="AJG63" s="16"/>
-      <c r="AJH63" s="16"/>
-      <c r="AJI63" s="16"/>
-      <c r="AJJ63" s="16"/>
-      <c r="AJK63" s="16"/>
-      <c r="AJL63" s="16"/>
-      <c r="AJM63" s="16"/>
-      <c r="AJN63" s="16"/>
-      <c r="AJO63" s="16"/>
-      <c r="AJP63" s="16"/>
-      <c r="AJQ63" s="16"/>
-      <c r="AJR63" s="16"/>
-      <c r="AJS63" s="16"/>
-      <c r="AJT63" s="16"/>
-      <c r="AJU63" s="16"/>
-      <c r="AJV63" s="16"/>
-      <c r="AJW63" s="16"/>
-      <c r="AJX63" s="16"/>
-      <c r="AJY63" s="16"/>
-      <c r="AJZ63" s="16"/>
-      <c r="AKA63" s="16"/>
-      <c r="AKB63" s="16"/>
-      <c r="AKC63" s="16"/>
-      <c r="AKD63" s="16"/>
-      <c r="AKE63" s="16"/>
-      <c r="AKF63" s="16"/>
-      <c r="AKG63" s="16"/>
-      <c r="AKH63" s="16"/>
-      <c r="AKI63" s="16"/>
-      <c r="AKJ63" s="16"/>
-      <c r="AKK63" s="16"/>
-      <c r="AKL63" s="16"/>
-      <c r="AKM63" s="16"/>
-      <c r="AKN63" s="16"/>
-      <c r="AKO63" s="16"/>
-      <c r="AKP63" s="16"/>
-      <c r="AKQ63" s="16"/>
-      <c r="AKR63" s="16"/>
-      <c r="AKS63" s="16"/>
-      <c r="AKT63" s="16"/>
-      <c r="AKU63" s="16"/>
-      <c r="AKV63" s="16"/>
-      <c r="AKW63" s="16"/>
-      <c r="AKX63" s="16"/>
-      <c r="AKY63" s="16"/>
-      <c r="AKZ63" s="16"/>
-      <c r="ALA63" s="16"/>
-      <c r="ALB63" s="16"/>
-      <c r="ALC63" s="16"/>
-      <c r="ALD63" s="16"/>
-      <c r="ALE63" s="16"/>
-      <c r="ALF63" s="16"/>
-      <c r="ALG63" s="16"/>
-      <c r="ALH63" s="16"/>
-      <c r="ALI63" s="16"/>
-      <c r="ALJ63" s="16"/>
-      <c r="ALK63" s="16"/>
-      <c r="ALL63" s="16"/>
-      <c r="ALM63" s="16"/>
-      <c r="ALN63" s="16"/>
-      <c r="ALO63" s="16"/>
-      <c r="ALP63" s="16"/>
-      <c r="ALQ63" s="16"/>
-      <c r="ALR63" s="16"/>
-      <c r="ALS63" s="16"/>
-      <c r="ALT63" s="16"/>
-      <c r="ALU63" s="16"/>
-      <c r="ALV63" s="16"/>
-      <c r="ALW63" s="16"/>
-      <c r="ALX63" s="16"/>
-      <c r="ALY63" s="16"/>
-      <c r="ALZ63" s="16"/>
-      <c r="AMA63" s="16"/>
-      <c r="AMB63" s="16"/>
-      <c r="AMC63" s="16"/>
-      <c r="AMD63" s="16"/>
-      <c r="AME63" s="16"/>
-      <c r="AMF63" s="16"/>
-      <c r="AMG63" s="16"/>
-      <c r="AMH63" s="16"/>
-      <c r="AMI63" s="16"/>
-      <c r="AMJ63" s="16"/>
-    </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
-      <c r="AD64" s="16"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
-      <c r="AG64" s="16"/>
-      <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="16"/>
-      <c r="AK64" s="16"/>
-      <c r="AL64" s="16"/>
-      <c r="AM64" s="16"/>
-      <c r="AN64" s="16"/>
-      <c r="AO64" s="16"/>
-      <c r="AP64" s="16"/>
-      <c r="AQ64" s="16"/>
-      <c r="AR64" s="16"/>
-      <c r="AS64" s="16"/>
-      <c r="AT64" s="16"/>
-      <c r="AU64" s="16"/>
-      <c r="AV64" s="16"/>
-      <c r="AW64" s="16"/>
-      <c r="AX64" s="16"/>
-      <c r="AY64" s="16"/>
-      <c r="AZ64" s="16"/>
-      <c r="BA64" s="16"/>
-      <c r="BB64" s="16"/>
-      <c r="BC64" s="16"/>
-      <c r="BD64" s="16"/>
-      <c r="BE64" s="16"/>
-      <c r="BF64" s="16"/>
-      <c r="BG64" s="16"/>
-      <c r="BH64" s="16"/>
-      <c r="BI64" s="16"/>
-      <c r="BJ64" s="16"/>
-      <c r="BK64" s="16"/>
-      <c r="BL64" s="16"/>
-      <c r="BM64" s="16"/>
-      <c r="BN64" s="16"/>
-      <c r="BO64" s="16"/>
-      <c r="BP64" s="16"/>
-      <c r="BQ64" s="16"/>
-      <c r="BR64" s="16"/>
-      <c r="BS64" s="16"/>
-      <c r="BT64" s="16"/>
-      <c r="BU64" s="16"/>
-      <c r="BV64" s="16"/>
-      <c r="BW64" s="16"/>
-      <c r="BX64" s="16"/>
-      <c r="BY64" s="16"/>
-      <c r="BZ64" s="16"/>
-      <c r="CA64" s="16"/>
-      <c r="CB64" s="16"/>
-      <c r="CC64" s="16"/>
-      <c r="CD64" s="16"/>
-      <c r="CE64" s="16"/>
-      <c r="CF64" s="16"/>
-      <c r="CG64" s="16"/>
-      <c r="CH64" s="16"/>
-      <c r="CI64" s="16"/>
-      <c r="CJ64" s="16"/>
-      <c r="CK64" s="16"/>
-      <c r="CL64" s="16"/>
-      <c r="CM64" s="16"/>
-      <c r="CN64" s="16"/>
-      <c r="CO64" s="16"/>
-      <c r="CP64" s="16"/>
-      <c r="CQ64" s="16"/>
-      <c r="CR64" s="16"/>
-      <c r="CS64" s="16"/>
-      <c r="CT64" s="16"/>
-      <c r="CU64" s="16"/>
-      <c r="CV64" s="16"/>
-      <c r="CW64" s="16"/>
-      <c r="CX64" s="16"/>
-      <c r="CY64" s="16"/>
-      <c r="CZ64" s="16"/>
-      <c r="DA64" s="16"/>
-      <c r="DB64" s="16"/>
-      <c r="DC64" s="16"/>
-      <c r="DD64" s="16"/>
-      <c r="DE64" s="16"/>
-      <c r="DF64" s="16"/>
-      <c r="DG64" s="16"/>
-      <c r="DH64" s="16"/>
-      <c r="DI64" s="16"/>
-      <c r="DJ64" s="16"/>
-      <c r="DK64" s="16"/>
-      <c r="DL64" s="16"/>
-      <c r="DM64" s="16"/>
-      <c r="DN64" s="16"/>
-      <c r="DO64" s="16"/>
-      <c r="DP64" s="16"/>
-      <c r="DQ64" s="16"/>
-      <c r="DR64" s="16"/>
-      <c r="DS64" s="16"/>
-      <c r="DT64" s="16"/>
-      <c r="DU64" s="16"/>
-      <c r="DV64" s="16"/>
-      <c r="DW64" s="16"/>
-      <c r="DX64" s="16"/>
-      <c r="DY64" s="16"/>
-      <c r="DZ64" s="16"/>
-      <c r="EA64" s="16"/>
-      <c r="EB64" s="16"/>
-      <c r="EC64" s="16"/>
-      <c r="ED64" s="16"/>
-      <c r="EE64" s="16"/>
-      <c r="EF64" s="16"/>
-      <c r="EG64" s="16"/>
-      <c r="EH64" s="16"/>
-      <c r="EI64" s="16"/>
-      <c r="EJ64" s="16"/>
-      <c r="EK64" s="16"/>
-      <c r="EL64" s="16"/>
-      <c r="EM64" s="16"/>
-      <c r="EN64" s="16"/>
-      <c r="EO64" s="16"/>
-      <c r="EP64" s="16"/>
-      <c r="EQ64" s="16"/>
-      <c r="ER64" s="16"/>
-      <c r="ES64" s="16"/>
-      <c r="ET64" s="16"/>
-      <c r="EU64" s="16"/>
-      <c r="EV64" s="16"/>
-      <c r="EW64" s="16"/>
-      <c r="EX64" s="16"/>
-      <c r="EY64" s="16"/>
-      <c r="EZ64" s="16"/>
-      <c r="FA64" s="16"/>
-      <c r="FB64" s="16"/>
-      <c r="FC64" s="16"/>
-      <c r="FD64" s="16"/>
-      <c r="FE64" s="16"/>
-      <c r="FF64" s="16"/>
-      <c r="FG64" s="16"/>
-      <c r="FH64" s="16"/>
-      <c r="FI64" s="16"/>
-      <c r="FJ64" s="16"/>
-      <c r="FK64" s="16"/>
-      <c r="FL64" s="16"/>
-      <c r="FM64" s="16"/>
-      <c r="FN64" s="16"/>
-      <c r="FO64" s="16"/>
-      <c r="FP64" s="16"/>
-      <c r="FQ64" s="16"/>
-      <c r="FR64" s="16"/>
-      <c r="FS64" s="16"/>
-      <c r="FT64" s="16"/>
-      <c r="FU64" s="16"/>
-      <c r="FV64" s="16"/>
-      <c r="FW64" s="16"/>
-      <c r="FX64" s="16"/>
-      <c r="FY64" s="16"/>
-      <c r="FZ64" s="16"/>
-      <c r="GA64" s="16"/>
-      <c r="GB64" s="16"/>
-      <c r="GC64" s="16"/>
-      <c r="GD64" s="16"/>
-      <c r="GE64" s="16"/>
-      <c r="GF64" s="16"/>
-      <c r="GG64" s="16"/>
-      <c r="GH64" s="16"/>
-      <c r="GI64" s="16"/>
-      <c r="GJ64" s="16"/>
-      <c r="GK64" s="16"/>
-      <c r="GL64" s="16"/>
-      <c r="GM64" s="16"/>
-      <c r="GN64" s="16"/>
-      <c r="GO64" s="16"/>
-      <c r="GP64" s="16"/>
-      <c r="GQ64" s="16"/>
-      <c r="GR64" s="16"/>
-      <c r="GS64" s="16"/>
-      <c r="GT64" s="16"/>
-      <c r="GU64" s="16"/>
-      <c r="GV64" s="16"/>
-      <c r="GW64" s="16"/>
-      <c r="GX64" s="16"/>
-      <c r="GY64" s="16"/>
-      <c r="GZ64" s="16"/>
-      <c r="HA64" s="16"/>
-      <c r="HB64" s="16"/>
-      <c r="HC64" s="16"/>
-      <c r="HD64" s="16"/>
-      <c r="HE64" s="16"/>
-      <c r="HF64" s="16"/>
-      <c r="HG64" s="16"/>
-      <c r="HH64" s="16"/>
-      <c r="HI64" s="16"/>
-      <c r="HJ64" s="16"/>
-      <c r="HK64" s="16"/>
-      <c r="HL64" s="16"/>
-      <c r="HM64" s="16"/>
-      <c r="HN64" s="16"/>
-      <c r="HO64" s="16"/>
-      <c r="HP64" s="16"/>
-      <c r="HQ64" s="16"/>
-      <c r="HR64" s="16"/>
-      <c r="HS64" s="16"/>
-      <c r="HT64" s="16"/>
-      <c r="HU64" s="16"/>
-      <c r="HV64" s="16"/>
-      <c r="HW64" s="16"/>
-      <c r="HX64" s="16"/>
-      <c r="HY64" s="16"/>
-      <c r="HZ64" s="16"/>
-      <c r="IA64" s="16"/>
-      <c r="IB64" s="16"/>
-      <c r="IC64" s="16"/>
-      <c r="ID64" s="16"/>
-      <c r="IE64" s="16"/>
-      <c r="IF64" s="16"/>
-      <c r="IG64" s="16"/>
-      <c r="IH64" s="16"/>
-      <c r="II64" s="16"/>
-      <c r="IJ64" s="16"/>
-      <c r="IK64" s="16"/>
-      <c r="IL64" s="16"/>
-      <c r="IM64" s="16"/>
-      <c r="IN64" s="16"/>
-      <c r="IO64" s="16"/>
-      <c r="IP64" s="16"/>
-      <c r="IQ64" s="16"/>
-      <c r="IR64" s="16"/>
-      <c r="IS64" s="16"/>
-      <c r="IT64" s="16"/>
-      <c r="IU64" s="16"/>
-      <c r="IV64" s="16"/>
-      <c r="IW64" s="16"/>
-      <c r="IX64" s="16"/>
-      <c r="IY64" s="16"/>
-      <c r="IZ64" s="16"/>
-      <c r="JA64" s="16"/>
-      <c r="JB64" s="16"/>
-      <c r="JC64" s="16"/>
-      <c r="JD64" s="16"/>
-      <c r="JE64" s="16"/>
-      <c r="JF64" s="16"/>
-      <c r="JG64" s="16"/>
-      <c r="JH64" s="16"/>
-      <c r="JI64" s="16"/>
-      <c r="JJ64" s="16"/>
-      <c r="JK64" s="16"/>
-      <c r="JL64" s="16"/>
-      <c r="JM64" s="16"/>
-      <c r="JN64" s="16"/>
-      <c r="JO64" s="16"/>
-      <c r="JP64" s="16"/>
-      <c r="JQ64" s="16"/>
-      <c r="JR64" s="16"/>
-      <c r="JS64" s="16"/>
-      <c r="JT64" s="16"/>
-      <c r="JU64" s="16"/>
-      <c r="JV64" s="16"/>
-      <c r="JW64" s="16"/>
-      <c r="JX64" s="16"/>
-      <c r="JY64" s="16"/>
-      <c r="JZ64" s="16"/>
-      <c r="KA64" s="16"/>
-      <c r="KB64" s="16"/>
-      <c r="KC64" s="16"/>
-      <c r="KD64" s="16"/>
-      <c r="KE64" s="16"/>
-      <c r="KF64" s="16"/>
-      <c r="KG64" s="16"/>
-      <c r="KH64" s="16"/>
-      <c r="KI64" s="16"/>
-      <c r="KJ64" s="16"/>
-      <c r="KK64" s="16"/>
-      <c r="KL64" s="16"/>
-      <c r="KM64" s="16"/>
-      <c r="KN64" s="16"/>
-      <c r="KO64" s="16"/>
-      <c r="KP64" s="16"/>
-      <c r="KQ64" s="16"/>
-      <c r="KR64" s="16"/>
-      <c r="KS64" s="16"/>
-      <c r="KT64" s="16"/>
-      <c r="KU64" s="16"/>
-      <c r="KV64" s="16"/>
-      <c r="KW64" s="16"/>
-      <c r="KX64" s="16"/>
-      <c r="KY64" s="16"/>
-      <c r="KZ64" s="16"/>
-      <c r="LA64" s="16"/>
-      <c r="LB64" s="16"/>
-      <c r="LC64" s="16"/>
-      <c r="LD64" s="16"/>
-      <c r="LE64" s="16"/>
-      <c r="LF64" s="16"/>
-      <c r="LG64" s="16"/>
-      <c r="LH64" s="16"/>
-      <c r="LI64" s="16"/>
-      <c r="LJ64" s="16"/>
-      <c r="LK64" s="16"/>
-      <c r="LL64" s="16"/>
-      <c r="LM64" s="16"/>
-      <c r="LN64" s="16"/>
-      <c r="LO64" s="16"/>
-      <c r="LP64" s="16"/>
-      <c r="LQ64" s="16"/>
-      <c r="LR64" s="16"/>
-      <c r="LS64" s="16"/>
-      <c r="LT64" s="16"/>
-      <c r="LU64" s="16"/>
-      <c r="LV64" s="16"/>
-      <c r="LW64" s="16"/>
-      <c r="LX64" s="16"/>
-      <c r="LY64" s="16"/>
-      <c r="LZ64" s="16"/>
-      <c r="MA64" s="16"/>
-      <c r="MB64" s="16"/>
-      <c r="MC64" s="16"/>
-      <c r="MD64" s="16"/>
-      <c r="ME64" s="16"/>
-      <c r="MF64" s="16"/>
-      <c r="MG64" s="16"/>
-      <c r="MH64" s="16"/>
-      <c r="MI64" s="16"/>
-      <c r="MJ64" s="16"/>
-      <c r="MK64" s="16"/>
-      <c r="ML64" s="16"/>
-      <c r="MM64" s="16"/>
-      <c r="MN64" s="16"/>
-      <c r="MO64" s="16"/>
-      <c r="MP64" s="16"/>
-      <c r="MQ64" s="16"/>
-      <c r="MR64" s="16"/>
-      <c r="MS64" s="16"/>
-      <c r="MT64" s="16"/>
-      <c r="MU64" s="16"/>
-      <c r="MV64" s="16"/>
-      <c r="MW64" s="16"/>
-      <c r="MX64" s="16"/>
-      <c r="MY64" s="16"/>
-      <c r="MZ64" s="16"/>
-      <c r="NA64" s="16"/>
-      <c r="NB64" s="16"/>
-      <c r="NC64" s="16"/>
-      <c r="ND64" s="16"/>
-      <c r="NE64" s="16"/>
-      <c r="NF64" s="16"/>
-      <c r="NG64" s="16"/>
-      <c r="NH64" s="16"/>
-      <c r="NI64" s="16"/>
-      <c r="NJ64" s="16"/>
-      <c r="NK64" s="16"/>
-      <c r="NL64" s="16"/>
-      <c r="NM64" s="16"/>
-      <c r="NN64" s="16"/>
-      <c r="NO64" s="16"/>
-      <c r="NP64" s="16"/>
-      <c r="NQ64" s="16"/>
-      <c r="NR64" s="16"/>
-      <c r="NS64" s="16"/>
-      <c r="NT64" s="16"/>
-      <c r="NU64" s="16"/>
-      <c r="NV64" s="16"/>
-      <c r="NW64" s="16"/>
-      <c r="NX64" s="16"/>
-      <c r="NY64" s="16"/>
-      <c r="NZ64" s="16"/>
-      <c r="OA64" s="16"/>
-      <c r="OB64" s="16"/>
-      <c r="OC64" s="16"/>
-      <c r="OD64" s="16"/>
-      <c r="OE64" s="16"/>
-      <c r="OF64" s="16"/>
-      <c r="OG64" s="16"/>
-      <c r="OH64" s="16"/>
-      <c r="OI64" s="16"/>
-      <c r="OJ64" s="16"/>
-      <c r="OK64" s="16"/>
-      <c r="OL64" s="16"/>
-      <c r="OM64" s="16"/>
-      <c r="ON64" s="16"/>
-      <c r="OO64" s="16"/>
-      <c r="OP64" s="16"/>
-      <c r="OQ64" s="16"/>
-      <c r="OR64" s="16"/>
-      <c r="OS64" s="16"/>
-      <c r="OT64" s="16"/>
-      <c r="OU64" s="16"/>
-      <c r="OV64" s="16"/>
-      <c r="OW64" s="16"/>
-      <c r="OX64" s="16"/>
-      <c r="OY64" s="16"/>
-      <c r="OZ64" s="16"/>
-      <c r="PA64" s="16"/>
-      <c r="PB64" s="16"/>
-      <c r="PC64" s="16"/>
-      <c r="PD64" s="16"/>
-      <c r="PE64" s="16"/>
-      <c r="PF64" s="16"/>
-      <c r="PG64" s="16"/>
-      <c r="PH64" s="16"/>
-      <c r="PI64" s="16"/>
-      <c r="PJ64" s="16"/>
-      <c r="PK64" s="16"/>
-      <c r="PL64" s="16"/>
-      <c r="PM64" s="16"/>
-      <c r="PN64" s="16"/>
-      <c r="PO64" s="16"/>
-      <c r="PP64" s="16"/>
-      <c r="PQ64" s="16"/>
-      <c r="PR64" s="16"/>
-      <c r="PS64" s="16"/>
-      <c r="PT64" s="16"/>
-      <c r="PU64" s="16"/>
-      <c r="PV64" s="16"/>
-      <c r="PW64" s="16"/>
-      <c r="PX64" s="16"/>
-      <c r="PY64" s="16"/>
-      <c r="PZ64" s="16"/>
-      <c r="QA64" s="16"/>
-      <c r="QB64" s="16"/>
-      <c r="QC64" s="16"/>
-      <c r="QD64" s="16"/>
-      <c r="QE64" s="16"/>
-      <c r="QF64" s="16"/>
-      <c r="QG64" s="16"/>
-      <c r="QH64" s="16"/>
-      <c r="QI64" s="16"/>
-      <c r="QJ64" s="16"/>
-      <c r="QK64" s="16"/>
-      <c r="QL64" s="16"/>
-      <c r="QM64" s="16"/>
-      <c r="QN64" s="16"/>
-      <c r="QO64" s="16"/>
-      <c r="QP64" s="16"/>
-      <c r="QQ64" s="16"/>
-      <c r="QR64" s="16"/>
-      <c r="QS64" s="16"/>
-      <c r="QT64" s="16"/>
-      <c r="QU64" s="16"/>
-      <c r="QV64" s="16"/>
-      <c r="QW64" s="16"/>
-      <c r="QX64" s="16"/>
-      <c r="QY64" s="16"/>
-      <c r="QZ64" s="16"/>
-      <c r="RA64" s="16"/>
-      <c r="RB64" s="16"/>
-      <c r="RC64" s="16"/>
-      <c r="RD64" s="16"/>
-      <c r="RE64" s="16"/>
-      <c r="RF64" s="16"/>
-      <c r="RG64" s="16"/>
-      <c r="RH64" s="16"/>
-      <c r="RI64" s="16"/>
-      <c r="RJ64" s="16"/>
-      <c r="RK64" s="16"/>
-      <c r="RL64" s="16"/>
-      <c r="RM64" s="16"/>
-      <c r="RN64" s="16"/>
-      <c r="RO64" s="16"/>
-      <c r="RP64" s="16"/>
-      <c r="RQ64" s="16"/>
-      <c r="RR64" s="16"/>
-      <c r="RS64" s="16"/>
-      <c r="RT64" s="16"/>
-      <c r="RU64" s="16"/>
-      <c r="RV64" s="16"/>
-      <c r="RW64" s="16"/>
-      <c r="RX64" s="16"/>
-      <c r="RY64" s="16"/>
-      <c r="RZ64" s="16"/>
-      <c r="SA64" s="16"/>
-      <c r="SB64" s="16"/>
-      <c r="SC64" s="16"/>
-      <c r="SD64" s="16"/>
-      <c r="SE64" s="16"/>
-      <c r="SF64" s="16"/>
-      <c r="SG64" s="16"/>
-      <c r="SH64" s="16"/>
-      <c r="SI64" s="16"/>
-      <c r="SJ64" s="16"/>
-      <c r="SK64" s="16"/>
-      <c r="SL64" s="16"/>
-      <c r="SM64" s="16"/>
-      <c r="SN64" s="16"/>
-      <c r="SO64" s="16"/>
-      <c r="SP64" s="16"/>
-      <c r="SQ64" s="16"/>
-      <c r="SR64" s="16"/>
-      <c r="SS64" s="16"/>
-      <c r="ST64" s="16"/>
-      <c r="SU64" s="16"/>
-      <c r="SV64" s="16"/>
-      <c r="SW64" s="16"/>
-      <c r="SX64" s="16"/>
-      <c r="SY64" s="16"/>
-      <c r="SZ64" s="16"/>
-      <c r="TA64" s="16"/>
-      <c r="TB64" s="16"/>
-      <c r="TC64" s="16"/>
-      <c r="TD64" s="16"/>
-      <c r="TE64" s="16"/>
-      <c r="TF64" s="16"/>
-      <c r="TG64" s="16"/>
-      <c r="TH64" s="16"/>
-      <c r="TI64" s="16"/>
-      <c r="TJ64" s="16"/>
-      <c r="TK64" s="16"/>
-      <c r="TL64" s="16"/>
-      <c r="TM64" s="16"/>
-      <c r="TN64" s="16"/>
-      <c r="TO64" s="16"/>
-      <c r="TP64" s="16"/>
-      <c r="TQ64" s="16"/>
-      <c r="TR64" s="16"/>
-      <c r="TS64" s="16"/>
-      <c r="TT64" s="16"/>
-      <c r="TU64" s="16"/>
-      <c r="TV64" s="16"/>
-      <c r="TW64" s="16"/>
-      <c r="TX64" s="16"/>
-      <c r="TY64" s="16"/>
-      <c r="TZ64" s="16"/>
-      <c r="UA64" s="16"/>
-      <c r="UB64" s="16"/>
-      <c r="UC64" s="16"/>
-      <c r="UD64" s="16"/>
-      <c r="UE64" s="16"/>
-      <c r="UF64" s="16"/>
-      <c r="UG64" s="16"/>
-      <c r="UH64" s="16"/>
-      <c r="UI64" s="16"/>
-      <c r="UJ64" s="16"/>
-      <c r="UK64" s="16"/>
-      <c r="UL64" s="16"/>
-      <c r="UM64" s="16"/>
-      <c r="UN64" s="16"/>
-      <c r="UO64" s="16"/>
-      <c r="UP64" s="16"/>
-      <c r="UQ64" s="16"/>
-      <c r="UR64" s="16"/>
-      <c r="US64" s="16"/>
-      <c r="UT64" s="16"/>
-      <c r="UU64" s="16"/>
-      <c r="UV64" s="16"/>
-      <c r="UW64" s="16"/>
-      <c r="UX64" s="16"/>
-      <c r="UY64" s="16"/>
-      <c r="UZ64" s="16"/>
-      <c r="VA64" s="16"/>
-      <c r="VB64" s="16"/>
-      <c r="VC64" s="16"/>
-      <c r="VD64" s="16"/>
-      <c r="VE64" s="16"/>
-      <c r="VF64" s="16"/>
-      <c r="VG64" s="16"/>
-      <c r="VH64" s="16"/>
-      <c r="VI64" s="16"/>
-      <c r="VJ64" s="16"/>
-      <c r="VK64" s="16"/>
-      <c r="VL64" s="16"/>
-      <c r="VM64" s="16"/>
-      <c r="VN64" s="16"/>
-      <c r="VO64" s="16"/>
-      <c r="VP64" s="16"/>
-      <c r="VQ64" s="16"/>
-      <c r="VR64" s="16"/>
-      <c r="VS64" s="16"/>
-      <c r="VT64" s="16"/>
-      <c r="VU64" s="16"/>
-      <c r="VV64" s="16"/>
-      <c r="VW64" s="16"/>
-      <c r="VX64" s="16"/>
-      <c r="VY64" s="16"/>
-      <c r="VZ64" s="16"/>
-      <c r="WA64" s="16"/>
-      <c r="WB64" s="16"/>
-      <c r="WC64" s="16"/>
-      <c r="WD64" s="16"/>
-      <c r="WE64" s="16"/>
-      <c r="WF64" s="16"/>
-      <c r="WG64" s="16"/>
-      <c r="WH64" s="16"/>
-      <c r="WI64" s="16"/>
-      <c r="WJ64" s="16"/>
-      <c r="WK64" s="16"/>
-      <c r="WL64" s="16"/>
-      <c r="WM64" s="16"/>
-      <c r="WN64" s="16"/>
-      <c r="WO64" s="16"/>
-      <c r="WP64" s="16"/>
-      <c r="WQ64" s="16"/>
-      <c r="WR64" s="16"/>
-      <c r="WS64" s="16"/>
-      <c r="WT64" s="16"/>
-      <c r="WU64" s="16"/>
-      <c r="WV64" s="16"/>
-      <c r="WW64" s="16"/>
-      <c r="WX64" s="16"/>
-      <c r="WY64" s="16"/>
-      <c r="WZ64" s="16"/>
-      <c r="XA64" s="16"/>
-      <c r="XB64" s="16"/>
-      <c r="XC64" s="16"/>
-      <c r="XD64" s="16"/>
-      <c r="XE64" s="16"/>
-      <c r="XF64" s="16"/>
-      <c r="XG64" s="16"/>
-      <c r="XH64" s="16"/>
-      <c r="XI64" s="16"/>
-      <c r="XJ64" s="16"/>
-      <c r="XK64" s="16"/>
-      <c r="XL64" s="16"/>
-      <c r="XM64" s="16"/>
-      <c r="XN64" s="16"/>
-      <c r="XO64" s="16"/>
-      <c r="XP64" s="16"/>
-      <c r="XQ64" s="16"/>
-      <c r="XR64" s="16"/>
-      <c r="XS64" s="16"/>
-      <c r="XT64" s="16"/>
-      <c r="XU64" s="16"/>
-      <c r="XV64" s="16"/>
-      <c r="XW64" s="16"/>
-      <c r="XX64" s="16"/>
-      <c r="XY64" s="16"/>
-      <c r="XZ64" s="16"/>
-      <c r="YA64" s="16"/>
-      <c r="YB64" s="16"/>
-      <c r="YC64" s="16"/>
-      <c r="YD64" s="16"/>
-      <c r="YE64" s="16"/>
-      <c r="YF64" s="16"/>
-      <c r="YG64" s="16"/>
-      <c r="YH64" s="16"/>
-      <c r="YI64" s="16"/>
-      <c r="YJ64" s="16"/>
-      <c r="YK64" s="16"/>
-      <c r="YL64" s="16"/>
-      <c r="YM64" s="16"/>
-      <c r="YN64" s="16"/>
-      <c r="YO64" s="16"/>
-      <c r="YP64" s="16"/>
-      <c r="YQ64" s="16"/>
-      <c r="YR64" s="16"/>
-      <c r="YS64" s="16"/>
-      <c r="YT64" s="16"/>
-      <c r="YU64" s="16"/>
-      <c r="YV64" s="16"/>
-      <c r="YW64" s="16"/>
-      <c r="YX64" s="16"/>
-      <c r="YY64" s="16"/>
-      <c r="YZ64" s="16"/>
-      <c r="ZA64" s="16"/>
-      <c r="ZB64" s="16"/>
-      <c r="ZC64" s="16"/>
-      <c r="ZD64" s="16"/>
-      <c r="ZE64" s="16"/>
-      <c r="ZF64" s="16"/>
-      <c r="ZG64" s="16"/>
-      <c r="ZH64" s="16"/>
-      <c r="ZI64" s="16"/>
-      <c r="ZJ64" s="16"/>
-      <c r="ZK64" s="16"/>
-      <c r="ZL64" s="16"/>
-      <c r="ZM64" s="16"/>
-      <c r="ZN64" s="16"/>
-      <c r="ZO64" s="16"/>
-      <c r="ZP64" s="16"/>
-      <c r="ZQ64" s="16"/>
-      <c r="ZR64" s="16"/>
-      <c r="ZS64" s="16"/>
-      <c r="ZT64" s="16"/>
-      <c r="ZU64" s="16"/>
-      <c r="ZV64" s="16"/>
-      <c r="ZW64" s="16"/>
-      <c r="ZX64" s="16"/>
-      <c r="ZY64" s="16"/>
-      <c r="ZZ64" s="16"/>
-      <c r="AAA64" s="16"/>
-      <c r="AAB64" s="16"/>
-      <c r="AAC64" s="16"/>
-      <c r="AAD64" s="16"/>
-      <c r="AAE64" s="16"/>
-      <c r="AAF64" s="16"/>
-      <c r="AAG64" s="16"/>
-      <c r="AAH64" s="16"/>
-      <c r="AAI64" s="16"/>
-      <c r="AAJ64" s="16"/>
-      <c r="AAK64" s="16"/>
-      <c r="AAL64" s="16"/>
-      <c r="AAM64" s="16"/>
-      <c r="AAN64" s="16"/>
-      <c r="AAO64" s="16"/>
-      <c r="AAP64" s="16"/>
-      <c r="AAQ64" s="16"/>
-      <c r="AAR64" s="16"/>
-      <c r="AAS64" s="16"/>
-      <c r="AAT64" s="16"/>
-      <c r="AAU64" s="16"/>
-      <c r="AAV64" s="16"/>
-      <c r="AAW64" s="16"/>
-      <c r="AAX64" s="16"/>
-      <c r="AAY64" s="16"/>
-      <c r="AAZ64" s="16"/>
-      <c r="ABA64" s="16"/>
-      <c r="ABB64" s="16"/>
-      <c r="ABC64" s="16"/>
-      <c r="ABD64" s="16"/>
-      <c r="ABE64" s="16"/>
-      <c r="ABF64" s="16"/>
-      <c r="ABG64" s="16"/>
-      <c r="ABH64" s="16"/>
-      <c r="ABI64" s="16"/>
-      <c r="ABJ64" s="16"/>
-      <c r="ABK64" s="16"/>
-      <c r="ABL64" s="16"/>
-      <c r="ABM64" s="16"/>
-      <c r="ABN64" s="16"/>
-      <c r="ABO64" s="16"/>
-      <c r="ABP64" s="16"/>
-      <c r="ABQ64" s="16"/>
-      <c r="ABR64" s="16"/>
-      <c r="ABS64" s="16"/>
-      <c r="ABT64" s="16"/>
-      <c r="ABU64" s="16"/>
-      <c r="ABV64" s="16"/>
-      <c r="ABW64" s="16"/>
-      <c r="ABX64" s="16"/>
-      <c r="ABY64" s="16"/>
-      <c r="ABZ64" s="16"/>
-      <c r="ACA64" s="16"/>
-      <c r="ACB64" s="16"/>
-      <c r="ACC64" s="16"/>
-      <c r="ACD64" s="16"/>
-      <c r="ACE64" s="16"/>
-      <c r="ACF64" s="16"/>
-      <c r="ACG64" s="16"/>
-      <c r="ACH64" s="16"/>
-      <c r="ACI64" s="16"/>
-      <c r="ACJ64" s="16"/>
-      <c r="ACK64" s="16"/>
-      <c r="ACL64" s="16"/>
-      <c r="ACM64" s="16"/>
-      <c r="ACN64" s="16"/>
-      <c r="ACO64" s="16"/>
-      <c r="ACP64" s="16"/>
-      <c r="ACQ64" s="16"/>
-      <c r="ACR64" s="16"/>
-      <c r="ACS64" s="16"/>
-      <c r="ACT64" s="16"/>
-      <c r="ACU64" s="16"/>
-      <c r="ACV64" s="16"/>
-      <c r="ACW64" s="16"/>
-      <c r="ACX64" s="16"/>
-      <c r="ACY64" s="16"/>
-      <c r="ACZ64" s="16"/>
-      <c r="ADA64" s="16"/>
-      <c r="ADB64" s="16"/>
-      <c r="ADC64" s="16"/>
-      <c r="ADD64" s="16"/>
-      <c r="ADE64" s="16"/>
-      <c r="ADF64" s="16"/>
-      <c r="ADG64" s="16"/>
-      <c r="ADH64" s="16"/>
-      <c r="ADI64" s="16"/>
-      <c r="ADJ64" s="16"/>
-      <c r="ADK64" s="16"/>
-      <c r="ADL64" s="16"/>
-      <c r="ADM64" s="16"/>
-      <c r="ADN64" s="16"/>
-      <c r="ADO64" s="16"/>
-      <c r="ADP64" s="16"/>
-      <c r="ADQ64" s="16"/>
-      <c r="ADR64" s="16"/>
-      <c r="ADS64" s="16"/>
-      <c r="ADT64" s="16"/>
-      <c r="ADU64" s="16"/>
-      <c r="ADV64" s="16"/>
-      <c r="ADW64" s="16"/>
-      <c r="ADX64" s="16"/>
-      <c r="ADY64" s="16"/>
-      <c r="ADZ64" s="16"/>
-      <c r="AEA64" s="16"/>
-      <c r="AEB64" s="16"/>
-      <c r="AEC64" s="16"/>
-      <c r="AED64" s="16"/>
-      <c r="AEE64" s="16"/>
-      <c r="AEF64" s="16"/>
-      <c r="AEG64" s="16"/>
-      <c r="AEH64" s="16"/>
-      <c r="AEI64" s="16"/>
-      <c r="AEJ64" s="16"/>
-      <c r="AEK64" s="16"/>
-      <c r="AEL64" s="16"/>
-      <c r="AEM64" s="16"/>
-      <c r="AEN64" s="16"/>
-      <c r="AEO64" s="16"/>
-      <c r="AEP64" s="16"/>
-      <c r="AEQ64" s="16"/>
-      <c r="AER64" s="16"/>
-      <c r="AES64" s="16"/>
-      <c r="AET64" s="16"/>
-      <c r="AEU64" s="16"/>
-      <c r="AEV64" s="16"/>
-      <c r="AEW64" s="16"/>
-      <c r="AEX64" s="16"/>
-      <c r="AEY64" s="16"/>
-      <c r="AEZ64" s="16"/>
-      <c r="AFA64" s="16"/>
-      <c r="AFB64" s="16"/>
-      <c r="AFC64" s="16"/>
-      <c r="AFD64" s="16"/>
-      <c r="AFE64" s="16"/>
-      <c r="AFF64" s="16"/>
-      <c r="AFG64" s="16"/>
-      <c r="AFH64" s="16"/>
-      <c r="AFI64" s="16"/>
-      <c r="AFJ64" s="16"/>
-      <c r="AFK64" s="16"/>
-      <c r="AFL64" s="16"/>
-      <c r="AFM64" s="16"/>
-      <c r="AFN64" s="16"/>
-      <c r="AFO64" s="16"/>
-      <c r="AFP64" s="16"/>
-      <c r="AFQ64" s="16"/>
-      <c r="AFR64" s="16"/>
-      <c r="AFS64" s="16"/>
-      <c r="AFT64" s="16"/>
-      <c r="AFU64" s="16"/>
-      <c r="AFV64" s="16"/>
-      <c r="AFW64" s="16"/>
-      <c r="AFX64" s="16"/>
-      <c r="AFY64" s="16"/>
-      <c r="AFZ64" s="16"/>
-      <c r="AGA64" s="16"/>
-      <c r="AGB64" s="16"/>
-      <c r="AGC64" s="16"/>
-      <c r="AGD64" s="16"/>
-      <c r="AGE64" s="16"/>
-      <c r="AGF64" s="16"/>
-      <c r="AGG64" s="16"/>
-      <c r="AGH64" s="16"/>
-      <c r="AGI64" s="16"/>
-      <c r="AGJ64" s="16"/>
-      <c r="AGK64" s="16"/>
-      <c r="AGL64" s="16"/>
-      <c r="AGM64" s="16"/>
-      <c r="AGN64" s="16"/>
-      <c r="AGO64" s="16"/>
-      <c r="AGP64" s="16"/>
-      <c r="AGQ64" s="16"/>
-      <c r="AGR64" s="16"/>
-      <c r="AGS64" s="16"/>
-      <c r="AGT64" s="16"/>
-      <c r="AGU64" s="16"/>
-      <c r="AGV64" s="16"/>
-      <c r="AGW64" s="16"/>
-      <c r="AGX64" s="16"/>
-      <c r="AGY64" s="16"/>
-      <c r="AGZ64" s="16"/>
-      <c r="AHA64" s="16"/>
-      <c r="AHB64" s="16"/>
-      <c r="AHC64" s="16"/>
-      <c r="AHD64" s="16"/>
-      <c r="AHE64" s="16"/>
-      <c r="AHF64" s="16"/>
-      <c r="AHG64" s="16"/>
-      <c r="AHH64" s="16"/>
-      <c r="AHI64" s="16"/>
-      <c r="AHJ64" s="16"/>
-      <c r="AHK64" s="16"/>
-      <c r="AHL64" s="16"/>
-      <c r="AHM64" s="16"/>
-      <c r="AHN64" s="16"/>
-      <c r="AHO64" s="16"/>
-      <c r="AHP64" s="16"/>
-      <c r="AHQ64" s="16"/>
-      <c r="AHR64" s="16"/>
-      <c r="AHS64" s="16"/>
-      <c r="AHT64" s="16"/>
-      <c r="AHU64" s="16"/>
-      <c r="AHV64" s="16"/>
-      <c r="AHW64" s="16"/>
-      <c r="AHX64" s="16"/>
-      <c r="AHY64" s="16"/>
-      <c r="AHZ64" s="16"/>
-      <c r="AIA64" s="16"/>
-      <c r="AIB64" s="16"/>
-      <c r="AIC64" s="16"/>
-      <c r="AID64" s="16"/>
-      <c r="AIE64" s="16"/>
-      <c r="AIF64" s="16"/>
-      <c r="AIG64" s="16"/>
-      <c r="AIH64" s="16"/>
-      <c r="AII64" s="16"/>
-      <c r="AIJ64" s="16"/>
-      <c r="AIK64" s="16"/>
-      <c r="AIL64" s="16"/>
-      <c r="AIM64" s="16"/>
-      <c r="AIN64" s="16"/>
-      <c r="AIO64" s="16"/>
-      <c r="AIP64" s="16"/>
-      <c r="AIQ64" s="16"/>
-      <c r="AIR64" s="16"/>
-      <c r="AIS64" s="16"/>
-      <c r="AIT64" s="16"/>
-      <c r="AIU64" s="16"/>
-      <c r="AIV64" s="16"/>
-      <c r="AIW64" s="16"/>
-      <c r="AIX64" s="16"/>
-      <c r="AIY64" s="16"/>
-      <c r="AIZ64" s="16"/>
-      <c r="AJA64" s="16"/>
-      <c r="AJB64" s="16"/>
-      <c r="AJC64" s="16"/>
-      <c r="AJD64" s="16"/>
-      <c r="AJE64" s="16"/>
-      <c r="AJF64" s="16"/>
-      <c r="AJG64" s="16"/>
-      <c r="AJH64" s="16"/>
-      <c r="AJI64" s="16"/>
-      <c r="AJJ64" s="16"/>
-      <c r="AJK64" s="16"/>
-      <c r="AJL64" s="16"/>
-      <c r="AJM64" s="16"/>
-      <c r="AJN64" s="16"/>
-      <c r="AJO64" s="16"/>
-      <c r="AJP64" s="16"/>
-      <c r="AJQ64" s="16"/>
-      <c r="AJR64" s="16"/>
-      <c r="AJS64" s="16"/>
-      <c r="AJT64" s="16"/>
-      <c r="AJU64" s="16"/>
-      <c r="AJV64" s="16"/>
-      <c r="AJW64" s="16"/>
-      <c r="AJX64" s="16"/>
-      <c r="AJY64" s="16"/>
-      <c r="AJZ64" s="16"/>
-      <c r="AKA64" s="16"/>
-      <c r="AKB64" s="16"/>
-      <c r="AKC64" s="16"/>
-      <c r="AKD64" s="16"/>
-      <c r="AKE64" s="16"/>
-      <c r="AKF64" s="16"/>
-      <c r="AKG64" s="16"/>
-      <c r="AKH64" s="16"/>
-      <c r="AKI64" s="16"/>
-      <c r="AKJ64" s="16"/>
-      <c r="AKK64" s="16"/>
-      <c r="AKL64" s="16"/>
-      <c r="AKM64" s="16"/>
-      <c r="AKN64" s="16"/>
-      <c r="AKO64" s="16"/>
-      <c r="AKP64" s="16"/>
-      <c r="AKQ64" s="16"/>
-      <c r="AKR64" s="16"/>
-      <c r="AKS64" s="16"/>
-      <c r="AKT64" s="16"/>
-      <c r="AKU64" s="16"/>
-      <c r="AKV64" s="16"/>
-      <c r="AKW64" s="16"/>
-      <c r="AKX64" s="16"/>
-      <c r="AKY64" s="16"/>
-      <c r="AKZ64" s="16"/>
-      <c r="ALA64" s="16"/>
-      <c r="ALB64" s="16"/>
-      <c r="ALC64" s="16"/>
-      <c r="ALD64" s="16"/>
-      <c r="ALE64" s="16"/>
-      <c r="ALF64" s="16"/>
-      <c r="ALG64" s="16"/>
-      <c r="ALH64" s="16"/>
-      <c r="ALI64" s="16"/>
-      <c r="ALJ64" s="16"/>
-      <c r="ALK64" s="16"/>
-      <c r="ALL64" s="16"/>
-      <c r="ALM64" s="16"/>
-      <c r="ALN64" s="16"/>
-      <c r="ALO64" s="16"/>
-      <c r="ALP64" s="16"/>
-      <c r="ALQ64" s="16"/>
-      <c r="ALR64" s="16"/>
-      <c r="ALS64" s="16"/>
-      <c r="ALT64" s="16"/>
-      <c r="ALU64" s="16"/>
-      <c r="ALV64" s="16"/>
-      <c r="ALW64" s="16"/>
-      <c r="ALX64" s="16"/>
-      <c r="ALY64" s="16"/>
-      <c r="ALZ64" s="16"/>
-      <c r="AMA64" s="16"/>
-      <c r="AMB64" s="16"/>
-      <c r="AMC64" s="16"/>
-      <c r="AMD64" s="16"/>
-      <c r="AME64" s="16"/>
-      <c r="AMF64" s="16"/>
-      <c r="AMG64" s="16"/>
-      <c r="AMH64" s="16"/>
-      <c r="AMI64" s="16"/>
-      <c r="AMJ64" s="16"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="19"/>
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="19"/>
+      <c r="AQ63" s="19"/>
+      <c r="AR63" s="19"/>
+      <c r="AS63" s="19"/>
+      <c r="AT63" s="19"/>
+      <c r="AU63" s="19"/>
+      <c r="AV63" s="19"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="19"/>
+      <c r="AY63" s="19"/>
+      <c r="AZ63" s="19"/>
+      <c r="BA63" s="19"/>
+      <c r="BB63" s="19"/>
+      <c r="BC63" s="19"/>
+      <c r="BD63" s="19"/>
+      <c r="BE63" s="19"/>
+      <c r="BF63" s="19"/>
+      <c r="BG63" s="19"/>
+      <c r="BH63" s="19"/>
+      <c r="BI63" s="19"/>
+      <c r="BJ63" s="19"/>
+      <c r="BK63" s="19"/>
+      <c r="BL63" s="19"/>
+      <c r="BM63" s="19"/>
+      <c r="BN63" s="19"/>
+      <c r="BO63" s="19"/>
+      <c r="BP63" s="19"/>
+      <c r="BQ63" s="19"/>
+      <c r="BR63" s="19"/>
+      <c r="BS63" s="19"/>
+      <c r="BT63" s="19"/>
+      <c r="BU63" s="19"/>
+      <c r="BV63" s="19"/>
+      <c r="BW63" s="19"/>
+      <c r="BX63" s="19"/>
+      <c r="BY63" s="19"/>
+      <c r="BZ63" s="19"/>
+      <c r="CA63" s="19"/>
+      <c r="CB63" s="19"/>
+      <c r="CC63" s="19"/>
+      <c r="CD63" s="19"/>
+      <c r="CE63" s="19"/>
+      <c r="CF63" s="19"/>
+      <c r="CG63" s="19"/>
+      <c r="CH63" s="19"/>
+      <c r="CI63" s="19"/>
+      <c r="CJ63" s="19"/>
+      <c r="CK63" s="19"/>
+      <c r="CL63" s="19"/>
+      <c r="CM63" s="19"/>
+      <c r="CN63" s="19"/>
+      <c r="CO63" s="19"/>
+      <c r="CP63" s="19"/>
+      <c r="CQ63" s="19"/>
+      <c r="CR63" s="19"/>
+      <c r="CS63" s="19"/>
+      <c r="CT63" s="19"/>
+      <c r="CU63" s="19"/>
+      <c r="CV63" s="19"/>
+      <c r="CW63" s="19"/>
+      <c r="CX63" s="19"/>
+      <c r="CY63" s="19"/>
+      <c r="CZ63" s="19"/>
+      <c r="DA63" s="19"/>
+      <c r="DB63" s="19"/>
+      <c r="DC63" s="19"/>
+      <c r="DD63" s="19"/>
+      <c r="DE63" s="19"/>
+      <c r="DF63" s="19"/>
+      <c r="DG63" s="19"/>
+      <c r="DH63" s="19"/>
+      <c r="DI63" s="19"/>
+      <c r="DJ63" s="19"/>
+      <c r="DK63" s="19"/>
+      <c r="DL63" s="19"/>
+      <c r="DM63" s="19"/>
+      <c r="DN63" s="19"/>
+      <c r="DO63" s="19"/>
+      <c r="DP63" s="19"/>
+      <c r="DQ63" s="19"/>
+      <c r="DR63" s="19"/>
+      <c r="DS63" s="19"/>
+      <c r="DT63" s="19"/>
+      <c r="DU63" s="19"/>
+      <c r="DV63" s="19"/>
+      <c r="DW63" s="19"/>
+      <c r="DX63" s="19"/>
+      <c r="DY63" s="19"/>
+      <c r="DZ63" s="19"/>
+      <c r="EA63" s="19"/>
+      <c r="EB63" s="19"/>
+      <c r="EC63" s="19"/>
+      <c r="ED63" s="19"/>
+      <c r="EE63" s="19"/>
+      <c r="EF63" s="19"/>
+      <c r="EG63" s="19"/>
+      <c r="EH63" s="19"/>
+      <c r="EI63" s="19"/>
+      <c r="EJ63" s="19"/>
+      <c r="EK63" s="19"/>
+      <c r="EL63" s="19"/>
+      <c r="EM63" s="19"/>
+      <c r="EN63" s="19"/>
+      <c r="EO63" s="19"/>
+      <c r="EP63" s="19"/>
+      <c r="EQ63" s="19"/>
+      <c r="ER63" s="19"/>
+      <c r="ES63" s="19"/>
+      <c r="ET63" s="19"/>
+      <c r="EU63" s="19"/>
+      <c r="EV63" s="19"/>
+      <c r="EW63" s="19"/>
+      <c r="EX63" s="19"/>
+      <c r="EY63" s="19"/>
+      <c r="EZ63" s="19"/>
+      <c r="FA63" s="19"/>
+      <c r="FB63" s="19"/>
+      <c r="FC63" s="19"/>
+      <c r="FD63" s="19"/>
+      <c r="FE63" s="19"/>
+      <c r="FF63" s="19"/>
+      <c r="FG63" s="19"/>
+      <c r="FH63" s="19"/>
+      <c r="FI63" s="19"/>
+      <c r="FJ63" s="19"/>
+      <c r="FK63" s="19"/>
+      <c r="FL63" s="19"/>
+      <c r="FM63" s="19"/>
+      <c r="FN63" s="19"/>
+      <c r="FO63" s="19"/>
+      <c r="FP63" s="19"/>
+      <c r="FQ63" s="19"/>
+      <c r="FR63" s="19"/>
+      <c r="FS63" s="19"/>
+      <c r="FT63" s="19"/>
+      <c r="FU63" s="19"/>
+      <c r="FV63" s="19"/>
+      <c r="FW63" s="19"/>
+      <c r="FX63" s="19"/>
+      <c r="FY63" s="19"/>
+      <c r="FZ63" s="19"/>
+      <c r="GA63" s="19"/>
+      <c r="GB63" s="19"/>
+      <c r="GC63" s="19"/>
+      <c r="GD63" s="19"/>
+      <c r="GE63" s="19"/>
+      <c r="GF63" s="19"/>
+      <c r="GG63" s="19"/>
+      <c r="GH63" s="19"/>
+      <c r="GI63" s="19"/>
+      <c r="GJ63" s="19"/>
+      <c r="GK63" s="19"/>
+      <c r="GL63" s="19"/>
+      <c r="GM63" s="19"/>
+      <c r="GN63" s="19"/>
+      <c r="GO63" s="19"/>
+      <c r="GP63" s="19"/>
+      <c r="GQ63" s="19"/>
+      <c r="GR63" s="19"/>
+      <c r="GS63" s="19"/>
+      <c r="GT63" s="19"/>
+      <c r="GU63" s="19"/>
+      <c r="GV63" s="19"/>
+      <c r="GW63" s="19"/>
+      <c r="GX63" s="19"/>
+      <c r="GY63" s="19"/>
+      <c r="GZ63" s="19"/>
+      <c r="HA63" s="19"/>
+      <c r="HB63" s="19"/>
+      <c r="HC63" s="19"/>
+      <c r="HD63" s="19"/>
+      <c r="HE63" s="19"/>
+      <c r="HF63" s="19"/>
+      <c r="HG63" s="19"/>
+      <c r="HH63" s="19"/>
+      <c r="HI63" s="19"/>
+      <c r="HJ63" s="19"/>
+      <c r="HK63" s="19"/>
+      <c r="HL63" s="19"/>
+      <c r="HM63" s="19"/>
+      <c r="HN63" s="19"/>
+      <c r="HO63" s="19"/>
+      <c r="HP63" s="19"/>
+      <c r="HQ63" s="19"/>
+      <c r="HR63" s="19"/>
+      <c r="HS63" s="19"/>
+      <c r="HT63" s="19"/>
+      <c r="HU63" s="19"/>
+      <c r="HV63" s="19"/>
+      <c r="HW63" s="19"/>
+      <c r="HX63" s="19"/>
+      <c r="HY63" s="19"/>
+      <c r="HZ63" s="19"/>
+      <c r="IA63" s="19"/>
+      <c r="IB63" s="19"/>
+      <c r="IC63" s="19"/>
+      <c r="ID63" s="19"/>
+      <c r="IE63" s="19"/>
+      <c r="IF63" s="19"/>
+      <c r="IG63" s="19"/>
+      <c r="IH63" s="19"/>
+      <c r="II63" s="19"/>
+      <c r="IJ63" s="19"/>
+      <c r="IK63" s="19"/>
+      <c r="IL63" s="19"/>
+      <c r="IM63" s="19"/>
+      <c r="IN63" s="19"/>
+      <c r="IO63" s="19"/>
+      <c r="IP63" s="19"/>
+      <c r="IQ63" s="19"/>
+      <c r="IR63" s="19"/>
+      <c r="IS63" s="19"/>
+      <c r="IT63" s="19"/>
+      <c r="IU63" s="19"/>
+      <c r="IV63" s="19"/>
+      <c r="IW63" s="19"/>
+      <c r="IX63" s="19"/>
+      <c r="IY63" s="19"/>
+      <c r="IZ63" s="19"/>
+      <c r="JA63" s="19"/>
+      <c r="JB63" s="19"/>
+      <c r="JC63" s="19"/>
+      <c r="JD63" s="19"/>
+      <c r="JE63" s="19"/>
+      <c r="JF63" s="19"/>
+      <c r="JG63" s="19"/>
+      <c r="JH63" s="19"/>
+      <c r="JI63" s="19"/>
+      <c r="JJ63" s="19"/>
+      <c r="JK63" s="19"/>
+      <c r="JL63" s="19"/>
+      <c r="JM63" s="19"/>
+      <c r="JN63" s="19"/>
+      <c r="JO63" s="19"/>
+      <c r="JP63" s="19"/>
+      <c r="JQ63" s="19"/>
+      <c r="JR63" s="19"/>
+      <c r="JS63" s="19"/>
+      <c r="JT63" s="19"/>
+      <c r="JU63" s="19"/>
+      <c r="JV63" s="19"/>
+      <c r="JW63" s="19"/>
+      <c r="JX63" s="19"/>
+      <c r="JY63" s="19"/>
+      <c r="JZ63" s="19"/>
+      <c r="KA63" s="19"/>
+      <c r="KB63" s="19"/>
+      <c r="KC63" s="19"/>
+      <c r="KD63" s="19"/>
+      <c r="KE63" s="19"/>
+      <c r="KF63" s="19"/>
+      <c r="KG63" s="19"/>
+      <c r="KH63" s="19"/>
+      <c r="KI63" s="19"/>
+      <c r="KJ63" s="19"/>
+      <c r="KK63" s="19"/>
+      <c r="KL63" s="19"/>
+      <c r="KM63" s="19"/>
+      <c r="KN63" s="19"/>
+      <c r="KO63" s="19"/>
+      <c r="KP63" s="19"/>
+      <c r="KQ63" s="19"/>
+      <c r="KR63" s="19"/>
+      <c r="KS63" s="19"/>
+      <c r="KT63" s="19"/>
+      <c r="KU63" s="19"/>
+      <c r="KV63" s="19"/>
+      <c r="KW63" s="19"/>
+      <c r="KX63" s="19"/>
+      <c r="KY63" s="19"/>
+      <c r="KZ63" s="19"/>
+      <c r="LA63" s="19"/>
+      <c r="LB63" s="19"/>
+      <c r="LC63" s="19"/>
+      <c r="LD63" s="19"/>
+      <c r="LE63" s="19"/>
+      <c r="LF63" s="19"/>
+      <c r="LG63" s="19"/>
+      <c r="LH63" s="19"/>
+      <c r="LI63" s="19"/>
+      <c r="LJ63" s="19"/>
+      <c r="LK63" s="19"/>
+      <c r="LL63" s="19"/>
+      <c r="LM63" s="19"/>
+      <c r="LN63" s="19"/>
+      <c r="LO63" s="19"/>
+      <c r="LP63" s="19"/>
+      <c r="LQ63" s="19"/>
+      <c r="LR63" s="19"/>
+      <c r="LS63" s="19"/>
+      <c r="LT63" s="19"/>
+      <c r="LU63" s="19"/>
+      <c r="LV63" s="19"/>
+      <c r="LW63" s="19"/>
+      <c r="LX63" s="19"/>
+      <c r="LY63" s="19"/>
+      <c r="LZ63" s="19"/>
+      <c r="MA63" s="19"/>
+      <c r="MB63" s="19"/>
+      <c r="MC63" s="19"/>
+      <c r="MD63" s="19"/>
+      <c r="ME63" s="19"/>
+      <c r="MF63" s="19"/>
+      <c r="MG63" s="19"/>
+      <c r="MH63" s="19"/>
+      <c r="MI63" s="19"/>
+      <c r="MJ63" s="19"/>
+      <c r="MK63" s="19"/>
+      <c r="ML63" s="19"/>
+      <c r="MM63" s="19"/>
+      <c r="MN63" s="19"/>
+      <c r="MO63" s="19"/>
+      <c r="MP63" s="19"/>
+      <c r="MQ63" s="19"/>
+      <c r="MR63" s="19"/>
+      <c r="MS63" s="19"/>
+      <c r="MT63" s="19"/>
+      <c r="MU63" s="19"/>
+      <c r="MV63" s="19"/>
+      <c r="MW63" s="19"/>
+      <c r="MX63" s="19"/>
+      <c r="MY63" s="19"/>
+      <c r="MZ63" s="19"/>
+      <c r="NA63" s="19"/>
+      <c r="NB63" s="19"/>
+      <c r="NC63" s="19"/>
+      <c r="ND63" s="19"/>
+      <c r="NE63" s="19"/>
+      <c r="NF63" s="19"/>
+      <c r="NG63" s="19"/>
+      <c r="NH63" s="19"/>
+      <c r="NI63" s="19"/>
+      <c r="NJ63" s="19"/>
+      <c r="NK63" s="19"/>
+      <c r="NL63" s="19"/>
+      <c r="NM63" s="19"/>
+      <c r="NN63" s="19"/>
+      <c r="NO63" s="19"/>
+      <c r="NP63" s="19"/>
+      <c r="NQ63" s="19"/>
+      <c r="NR63" s="19"/>
+      <c r="NS63" s="19"/>
+      <c r="NT63" s="19"/>
+      <c r="NU63" s="19"/>
+      <c r="NV63" s="19"/>
+      <c r="NW63" s="19"/>
+      <c r="NX63" s="19"/>
+      <c r="NY63" s="19"/>
+      <c r="NZ63" s="19"/>
+      <c r="OA63" s="19"/>
+      <c r="OB63" s="19"/>
+      <c r="OC63" s="19"/>
+      <c r="OD63" s="19"/>
+      <c r="OE63" s="19"/>
+      <c r="OF63" s="19"/>
+      <c r="OG63" s="19"/>
+      <c r="OH63" s="19"/>
+      <c r="OI63" s="19"/>
+      <c r="OJ63" s="19"/>
+      <c r="OK63" s="19"/>
+      <c r="OL63" s="19"/>
+      <c r="OM63" s="19"/>
+      <c r="ON63" s="19"/>
+      <c r="OO63" s="19"/>
+      <c r="OP63" s="19"/>
+      <c r="OQ63" s="19"/>
+      <c r="OR63" s="19"/>
+      <c r="OS63" s="19"/>
+      <c r="OT63" s="19"/>
+      <c r="OU63" s="19"/>
+      <c r="OV63" s="19"/>
+      <c r="OW63" s="19"/>
+      <c r="OX63" s="19"/>
+      <c r="OY63" s="19"/>
+      <c r="OZ63" s="19"/>
+      <c r="PA63" s="19"/>
+      <c r="PB63" s="19"/>
+      <c r="PC63" s="19"/>
+      <c r="PD63" s="19"/>
+      <c r="PE63" s="19"/>
+      <c r="PF63" s="19"/>
+      <c r="PG63" s="19"/>
+      <c r="PH63" s="19"/>
+      <c r="PI63" s="19"/>
+      <c r="PJ63" s="19"/>
+      <c r="PK63" s="19"/>
+      <c r="PL63" s="19"/>
+      <c r="PM63" s="19"/>
+      <c r="PN63" s="19"/>
+      <c r="PO63" s="19"/>
+      <c r="PP63" s="19"/>
+      <c r="PQ63" s="19"/>
+      <c r="PR63" s="19"/>
+      <c r="PS63" s="19"/>
+      <c r="PT63" s="19"/>
+      <c r="PU63" s="19"/>
+      <c r="PV63" s="19"/>
+      <c r="PW63" s="19"/>
+      <c r="PX63" s="19"/>
+      <c r="PY63" s="19"/>
+      <c r="PZ63" s="19"/>
+      <c r="QA63" s="19"/>
+      <c r="QB63" s="19"/>
+      <c r="QC63" s="19"/>
+      <c r="QD63" s="19"/>
+      <c r="QE63" s="19"/>
+      <c r="QF63" s="19"/>
+      <c r="QG63" s="19"/>
+      <c r="QH63" s="19"/>
+      <c r="QI63" s="19"/>
+      <c r="QJ63" s="19"/>
+      <c r="QK63" s="19"/>
+      <c r="QL63" s="19"/>
+      <c r="QM63" s="19"/>
+      <c r="QN63" s="19"/>
+      <c r="QO63" s="19"/>
+      <c r="QP63" s="19"/>
+      <c r="QQ63" s="19"/>
+      <c r="QR63" s="19"/>
+      <c r="QS63" s="19"/>
+      <c r="QT63" s="19"/>
+      <c r="QU63" s="19"/>
+      <c r="QV63" s="19"/>
+      <c r="QW63" s="19"/>
+      <c r="QX63" s="19"/>
+      <c r="QY63" s="19"/>
+      <c r="QZ63" s="19"/>
+      <c r="RA63" s="19"/>
+      <c r="RB63" s="19"/>
+      <c r="RC63" s="19"/>
+      <c r="RD63" s="19"/>
+      <c r="RE63" s="19"/>
+      <c r="RF63" s="19"/>
+      <c r="RG63" s="19"/>
+      <c r="RH63" s="19"/>
+      <c r="RI63" s="19"/>
+      <c r="RJ63" s="19"/>
+      <c r="RK63" s="19"/>
+      <c r="RL63" s="19"/>
+      <c r="RM63" s="19"/>
+      <c r="RN63" s="19"/>
+      <c r="RO63" s="19"/>
+      <c r="RP63" s="19"/>
+      <c r="RQ63" s="19"/>
+      <c r="RR63" s="19"/>
+      <c r="RS63" s="19"/>
+      <c r="RT63" s="19"/>
+      <c r="RU63" s="19"/>
+      <c r="RV63" s="19"/>
+      <c r="RW63" s="19"/>
+      <c r="RX63" s="19"/>
+      <c r="RY63" s="19"/>
+      <c r="RZ63" s="19"/>
+      <c r="SA63" s="19"/>
+      <c r="SB63" s="19"/>
+      <c r="SC63" s="19"/>
+      <c r="SD63" s="19"/>
+      <c r="SE63" s="19"/>
+      <c r="SF63" s="19"/>
+      <c r="SG63" s="19"/>
+      <c r="SH63" s="19"/>
+      <c r="SI63" s="19"/>
+      <c r="SJ63" s="19"/>
+      <c r="SK63" s="19"/>
+      <c r="SL63" s="19"/>
+      <c r="SM63" s="19"/>
+      <c r="SN63" s="19"/>
+      <c r="SO63" s="19"/>
+      <c r="SP63" s="19"/>
+      <c r="SQ63" s="19"/>
+      <c r="SR63" s="19"/>
+      <c r="SS63" s="19"/>
+      <c r="ST63" s="19"/>
+      <c r="SU63" s="19"/>
+      <c r="SV63" s="19"/>
+      <c r="SW63" s="19"/>
+      <c r="SX63" s="19"/>
+      <c r="SY63" s="19"/>
+      <c r="SZ63" s="19"/>
+      <c r="TA63" s="19"/>
+      <c r="TB63" s="19"/>
+      <c r="TC63" s="19"/>
+      <c r="TD63" s="19"/>
+      <c r="TE63" s="19"/>
+      <c r="TF63" s="19"/>
+      <c r="TG63" s="19"/>
+      <c r="TH63" s="19"/>
+      <c r="TI63" s="19"/>
+      <c r="TJ63" s="19"/>
+      <c r="TK63" s="19"/>
+      <c r="TL63" s="19"/>
+      <c r="TM63" s="19"/>
+      <c r="TN63" s="19"/>
+      <c r="TO63" s="19"/>
+      <c r="TP63" s="19"/>
+      <c r="TQ63" s="19"/>
+      <c r="TR63" s="19"/>
+      <c r="TS63" s="19"/>
+      <c r="TT63" s="19"/>
+      <c r="TU63" s="19"/>
+      <c r="TV63" s="19"/>
+      <c r="TW63" s="19"/>
+      <c r="TX63" s="19"/>
+      <c r="TY63" s="19"/>
+      <c r="TZ63" s="19"/>
+      <c r="UA63" s="19"/>
+      <c r="UB63" s="19"/>
+      <c r="UC63" s="19"/>
+      <c r="UD63" s="19"/>
+      <c r="UE63" s="19"/>
+      <c r="UF63" s="19"/>
+      <c r="UG63" s="19"/>
+      <c r="UH63" s="19"/>
+      <c r="UI63" s="19"/>
+      <c r="UJ63" s="19"/>
+      <c r="UK63" s="19"/>
+      <c r="UL63" s="19"/>
+      <c r="UM63" s="19"/>
+      <c r="UN63" s="19"/>
+      <c r="UO63" s="19"/>
+      <c r="UP63" s="19"/>
+      <c r="UQ63" s="19"/>
+      <c r="UR63" s="19"/>
+      <c r="US63" s="19"/>
+      <c r="UT63" s="19"/>
+      <c r="UU63" s="19"/>
+      <c r="UV63" s="19"/>
+      <c r="UW63" s="19"/>
+      <c r="UX63" s="19"/>
+      <c r="UY63" s="19"/>
+      <c r="UZ63" s="19"/>
+      <c r="VA63" s="19"/>
+      <c r="VB63" s="19"/>
+      <c r="VC63" s="19"/>
+      <c r="VD63" s="19"/>
+      <c r="VE63" s="19"/>
+      <c r="VF63" s="19"/>
+      <c r="VG63" s="19"/>
+      <c r="VH63" s="19"/>
+      <c r="VI63" s="19"/>
+      <c r="VJ63" s="19"/>
+      <c r="VK63" s="19"/>
+      <c r="VL63" s="19"/>
+      <c r="VM63" s="19"/>
+      <c r="VN63" s="19"/>
+      <c r="VO63" s="19"/>
+      <c r="VP63" s="19"/>
+      <c r="VQ63" s="19"/>
+      <c r="VR63" s="19"/>
+      <c r="VS63" s="19"/>
+      <c r="VT63" s="19"/>
+      <c r="VU63" s="19"/>
+      <c r="VV63" s="19"/>
+      <c r="VW63" s="19"/>
+      <c r="VX63" s="19"/>
+      <c r="VY63" s="19"/>
+      <c r="VZ63" s="19"/>
+      <c r="WA63" s="19"/>
+      <c r="WB63" s="19"/>
+      <c r="WC63" s="19"/>
+      <c r="WD63" s="19"/>
+      <c r="WE63" s="19"/>
+      <c r="WF63" s="19"/>
+      <c r="WG63" s="19"/>
+      <c r="WH63" s="19"/>
+      <c r="WI63" s="19"/>
+      <c r="WJ63" s="19"/>
+      <c r="WK63" s="19"/>
+      <c r="WL63" s="19"/>
+      <c r="WM63" s="19"/>
+      <c r="WN63" s="19"/>
+      <c r="WO63" s="19"/>
+      <c r="WP63" s="19"/>
+      <c r="WQ63" s="19"/>
+      <c r="WR63" s="19"/>
+      <c r="WS63" s="19"/>
+      <c r="WT63" s="19"/>
+      <c r="WU63" s="19"/>
+      <c r="WV63" s="19"/>
+      <c r="WW63" s="19"/>
+      <c r="WX63" s="19"/>
+      <c r="WY63" s="19"/>
+      <c r="WZ63" s="19"/>
+      <c r="XA63" s="19"/>
+      <c r="XB63" s="19"/>
+      <c r="XC63" s="19"/>
+      <c r="XD63" s="19"/>
+      <c r="XE63" s="19"/>
+      <c r="XF63" s="19"/>
+      <c r="XG63" s="19"/>
+      <c r="XH63" s="19"/>
+      <c r="XI63" s="19"/>
+      <c r="XJ63" s="19"/>
+      <c r="XK63" s="19"/>
+      <c r="XL63" s="19"/>
+      <c r="XM63" s="19"/>
+      <c r="XN63" s="19"/>
+      <c r="XO63" s="19"/>
+      <c r="XP63" s="19"/>
+      <c r="XQ63" s="19"/>
+      <c r="XR63" s="19"/>
+      <c r="XS63" s="19"/>
+      <c r="XT63" s="19"/>
+      <c r="XU63" s="19"/>
+      <c r="XV63" s="19"/>
+      <c r="XW63" s="19"/>
+      <c r="XX63" s="19"/>
+      <c r="XY63" s="19"/>
+      <c r="XZ63" s="19"/>
+      <c r="YA63" s="19"/>
+      <c r="YB63" s="19"/>
+      <c r="YC63" s="19"/>
+      <c r="YD63" s="19"/>
+      <c r="YE63" s="19"/>
+      <c r="YF63" s="19"/>
+      <c r="YG63" s="19"/>
+      <c r="YH63" s="19"/>
+      <c r="YI63" s="19"/>
+      <c r="YJ63" s="19"/>
+      <c r="YK63" s="19"/>
+      <c r="YL63" s="19"/>
+      <c r="YM63" s="19"/>
+      <c r="YN63" s="19"/>
+      <c r="YO63" s="19"/>
+      <c r="YP63" s="19"/>
+      <c r="YQ63" s="19"/>
+      <c r="YR63" s="19"/>
+      <c r="YS63" s="19"/>
+      <c r="YT63" s="19"/>
+      <c r="YU63" s="19"/>
+      <c r="YV63" s="19"/>
+      <c r="YW63" s="19"/>
+      <c r="YX63" s="19"/>
+      <c r="YY63" s="19"/>
+      <c r="YZ63" s="19"/>
+      <c r="ZA63" s="19"/>
+      <c r="ZB63" s="19"/>
+      <c r="ZC63" s="19"/>
+      <c r="ZD63" s="19"/>
+      <c r="ZE63" s="19"/>
+      <c r="ZF63" s="19"/>
+      <c r="ZG63" s="19"/>
+      <c r="ZH63" s="19"/>
+      <c r="ZI63" s="19"/>
+      <c r="ZJ63" s="19"/>
+      <c r="ZK63" s="19"/>
+      <c r="ZL63" s="19"/>
+      <c r="ZM63" s="19"/>
+      <c r="ZN63" s="19"/>
+      <c r="ZO63" s="19"/>
+      <c r="ZP63" s="19"/>
+      <c r="ZQ63" s="19"/>
+      <c r="ZR63" s="19"/>
+      <c r="ZS63" s="19"/>
+      <c r="ZT63" s="19"/>
+      <c r="ZU63" s="19"/>
+      <c r="ZV63" s="19"/>
+      <c r="ZW63" s="19"/>
+      <c r="ZX63" s="19"/>
+      <c r="ZY63" s="19"/>
+      <c r="ZZ63" s="19"/>
+      <c r="AAA63" s="19"/>
+      <c r="AAB63" s="19"/>
+      <c r="AAC63" s="19"/>
+      <c r="AAD63" s="19"/>
+      <c r="AAE63" s="19"/>
+      <c r="AAF63" s="19"/>
+      <c r="AAG63" s="19"/>
+      <c r="AAH63" s="19"/>
+      <c r="AAI63" s="19"/>
+      <c r="AAJ63" s="19"/>
+      <c r="AAK63" s="19"/>
+      <c r="AAL63" s="19"/>
+      <c r="AAM63" s="19"/>
+      <c r="AAN63" s="19"/>
+      <c r="AAO63" s="19"/>
+      <c r="AAP63" s="19"/>
+      <c r="AAQ63" s="19"/>
+      <c r="AAR63" s="19"/>
+      <c r="AAS63" s="19"/>
+      <c r="AAT63" s="19"/>
+      <c r="AAU63" s="19"/>
+      <c r="AAV63" s="19"/>
+      <c r="AAW63" s="19"/>
+      <c r="AAX63" s="19"/>
+      <c r="AAY63" s="19"/>
+      <c r="AAZ63" s="19"/>
+      <c r="ABA63" s="19"/>
+      <c r="ABB63" s="19"/>
+      <c r="ABC63" s="19"/>
+      <c r="ABD63" s="19"/>
+      <c r="ABE63" s="19"/>
+      <c r="ABF63" s="19"/>
+      <c r="ABG63" s="19"/>
+      <c r="ABH63" s="19"/>
+      <c r="ABI63" s="19"/>
+      <c r="ABJ63" s="19"/>
+      <c r="ABK63" s="19"/>
+      <c r="ABL63" s="19"/>
+      <c r="ABM63" s="19"/>
+      <c r="ABN63" s="19"/>
+      <c r="ABO63" s="19"/>
+      <c r="ABP63" s="19"/>
+      <c r="ABQ63" s="19"/>
+      <c r="ABR63" s="19"/>
+      <c r="ABS63" s="19"/>
+      <c r="ABT63" s="19"/>
+      <c r="ABU63" s="19"/>
+      <c r="ABV63" s="19"/>
+      <c r="ABW63" s="19"/>
+      <c r="ABX63" s="19"/>
+      <c r="ABY63" s="19"/>
+      <c r="ABZ63" s="19"/>
+      <c r="ACA63" s="19"/>
+      <c r="ACB63" s="19"/>
+      <c r="ACC63" s="19"/>
+      <c r="ACD63" s="19"/>
+      <c r="ACE63" s="19"/>
+      <c r="ACF63" s="19"/>
+      <c r="ACG63" s="19"/>
+      <c r="ACH63" s="19"/>
+      <c r="ACI63" s="19"/>
+      <c r="ACJ63" s="19"/>
+      <c r="ACK63" s="19"/>
+      <c r="ACL63" s="19"/>
+      <c r="ACM63" s="19"/>
+      <c r="ACN63" s="19"/>
+      <c r="ACO63" s="19"/>
+      <c r="ACP63" s="19"/>
+      <c r="ACQ63" s="19"/>
+      <c r="ACR63" s="19"/>
+      <c r="ACS63" s="19"/>
+      <c r="ACT63" s="19"/>
+      <c r="ACU63" s="19"/>
+      <c r="ACV63" s="19"/>
+      <c r="ACW63" s="19"/>
+      <c r="ACX63" s="19"/>
+      <c r="ACY63" s="19"/>
+      <c r="ACZ63" s="19"/>
+      <c r="ADA63" s="19"/>
+      <c r="ADB63" s="19"/>
+      <c r="ADC63" s="19"/>
+      <c r="ADD63" s="19"/>
+      <c r="ADE63" s="19"/>
+      <c r="ADF63" s="19"/>
+      <c r="ADG63" s="19"/>
+      <c r="ADH63" s="19"/>
+      <c r="ADI63" s="19"/>
+      <c r="ADJ63" s="19"/>
+      <c r="ADK63" s="19"/>
+      <c r="ADL63" s="19"/>
+      <c r="ADM63" s="19"/>
+      <c r="ADN63" s="19"/>
+      <c r="ADO63" s="19"/>
+      <c r="ADP63" s="19"/>
+      <c r="ADQ63" s="19"/>
+      <c r="ADR63" s="19"/>
+      <c r="ADS63" s="19"/>
+      <c r="ADT63" s="19"/>
+      <c r="ADU63" s="19"/>
+      <c r="ADV63" s="19"/>
+      <c r="ADW63" s="19"/>
+      <c r="ADX63" s="19"/>
+      <c r="ADY63" s="19"/>
+      <c r="ADZ63" s="19"/>
+      <c r="AEA63" s="19"/>
+      <c r="AEB63" s="19"/>
+      <c r="AEC63" s="19"/>
+      <c r="AED63" s="19"/>
+      <c r="AEE63" s="19"/>
+      <c r="AEF63" s="19"/>
+      <c r="AEG63" s="19"/>
+      <c r="AEH63" s="19"/>
+      <c r="AEI63" s="19"/>
+      <c r="AEJ63" s="19"/>
+      <c r="AEK63" s="19"/>
+      <c r="AEL63" s="19"/>
+      <c r="AEM63" s="19"/>
+      <c r="AEN63" s="19"/>
+      <c r="AEO63" s="19"/>
+      <c r="AEP63" s="19"/>
+      <c r="AEQ63" s="19"/>
+      <c r="AER63" s="19"/>
+      <c r="AES63" s="19"/>
+      <c r="AET63" s="19"/>
+      <c r="AEU63" s="19"/>
+      <c r="AEV63" s="19"/>
+      <c r="AEW63" s="19"/>
+      <c r="AEX63" s="19"/>
+      <c r="AEY63" s="19"/>
+      <c r="AEZ63" s="19"/>
+      <c r="AFA63" s="19"/>
+      <c r="AFB63" s="19"/>
+      <c r="AFC63" s="19"/>
+      <c r="AFD63" s="19"/>
+      <c r="AFE63" s="19"/>
+      <c r="AFF63" s="19"/>
+      <c r="AFG63" s="19"/>
+      <c r="AFH63" s="19"/>
+      <c r="AFI63" s="19"/>
+      <c r="AFJ63" s="19"/>
+      <c r="AFK63" s="19"/>
+      <c r="AFL63" s="19"/>
+      <c r="AFM63" s="19"/>
+      <c r="AFN63" s="19"/>
+      <c r="AFO63" s="19"/>
+      <c r="AFP63" s="19"/>
+      <c r="AFQ63" s="19"/>
+      <c r="AFR63" s="19"/>
+      <c r="AFS63" s="19"/>
+      <c r="AFT63" s="19"/>
+      <c r="AFU63" s="19"/>
+      <c r="AFV63" s="19"/>
+      <c r="AFW63" s="19"/>
+      <c r="AFX63" s="19"/>
+      <c r="AFY63" s="19"/>
+      <c r="AFZ63" s="19"/>
+      <c r="AGA63" s="19"/>
+      <c r="AGB63" s="19"/>
+      <c r="AGC63" s="19"/>
+      <c r="AGD63" s="19"/>
+      <c r="AGE63" s="19"/>
+      <c r="AGF63" s="19"/>
+      <c r="AGG63" s="19"/>
+      <c r="AGH63" s="19"/>
+      <c r="AGI63" s="19"/>
+      <c r="AGJ63" s="19"/>
+      <c r="AGK63" s="19"/>
+      <c r="AGL63" s="19"/>
+      <c r="AGM63" s="19"/>
+      <c r="AGN63" s="19"/>
+      <c r="AGO63" s="19"/>
+      <c r="AGP63" s="19"/>
+      <c r="AGQ63" s="19"/>
+      <c r="AGR63" s="19"/>
+      <c r="AGS63" s="19"/>
+      <c r="AGT63" s="19"/>
+      <c r="AGU63" s="19"/>
+      <c r="AGV63" s="19"/>
+      <c r="AGW63" s="19"/>
+      <c r="AGX63" s="19"/>
+      <c r="AGY63" s="19"/>
+      <c r="AGZ63" s="19"/>
+      <c r="AHA63" s="19"/>
+      <c r="AHB63" s="19"/>
+      <c r="AHC63" s="19"/>
+      <c r="AHD63" s="19"/>
+      <c r="AHE63" s="19"/>
+      <c r="AHF63" s="19"/>
+      <c r="AHG63" s="19"/>
+      <c r="AHH63" s="19"/>
+      <c r="AHI63" s="19"/>
+      <c r="AHJ63" s="19"/>
+      <c r="AHK63" s="19"/>
+      <c r="AHL63" s="19"/>
+      <c r="AHM63" s="19"/>
+      <c r="AHN63" s="19"/>
+      <c r="AHO63" s="19"/>
+      <c r="AHP63" s="19"/>
+      <c r="AHQ63" s="19"/>
+      <c r="AHR63" s="19"/>
+      <c r="AHS63" s="19"/>
+      <c r="AHT63" s="19"/>
+      <c r="AHU63" s="19"/>
+      <c r="AHV63" s="19"/>
+      <c r="AHW63" s="19"/>
+      <c r="AHX63" s="19"/>
+      <c r="AHY63" s="19"/>
+      <c r="AHZ63" s="19"/>
+      <c r="AIA63" s="19"/>
+      <c r="AIB63" s="19"/>
+      <c r="AIC63" s="19"/>
+      <c r="AID63" s="19"/>
+      <c r="AIE63" s="19"/>
+      <c r="AIF63" s="19"/>
+      <c r="AIG63" s="19"/>
+      <c r="AIH63" s="19"/>
+      <c r="AII63" s="19"/>
+      <c r="AIJ63" s="19"/>
+      <c r="AIK63" s="19"/>
+      <c r="AIL63" s="19"/>
+      <c r="AIM63" s="19"/>
+      <c r="AIN63" s="19"/>
+      <c r="AIO63" s="19"/>
+      <c r="AIP63" s="19"/>
+      <c r="AIQ63" s="19"/>
+      <c r="AIR63" s="19"/>
+      <c r="AIS63" s="19"/>
+      <c r="AIT63" s="19"/>
+      <c r="AIU63" s="19"/>
+      <c r="AIV63" s="19"/>
+      <c r="AIW63" s="19"/>
+      <c r="AIX63" s="19"/>
+      <c r="AIY63" s="19"/>
+      <c r="AIZ63" s="19"/>
+      <c r="AJA63" s="19"/>
+      <c r="AJB63" s="19"/>
+      <c r="AJC63" s="19"/>
+      <c r="AJD63" s="19"/>
+      <c r="AJE63" s="19"/>
+      <c r="AJF63" s="19"/>
+      <c r="AJG63" s="19"/>
+      <c r="AJH63" s="19"/>
+      <c r="AJI63" s="19"/>
+      <c r="AJJ63" s="19"/>
+      <c r="AJK63" s="19"/>
+      <c r="AJL63" s="19"/>
+      <c r="AJM63" s="19"/>
+      <c r="AJN63" s="19"/>
+      <c r="AJO63" s="19"/>
+      <c r="AJP63" s="19"/>
+      <c r="AJQ63" s="19"/>
+      <c r="AJR63" s="19"/>
+      <c r="AJS63" s="19"/>
+      <c r="AJT63" s="19"/>
+      <c r="AJU63" s="19"/>
+      <c r="AJV63" s="19"/>
+      <c r="AJW63" s="19"/>
+      <c r="AJX63" s="19"/>
+      <c r="AJY63" s="19"/>
+      <c r="AJZ63" s="19"/>
+      <c r="AKA63" s="19"/>
+      <c r="AKB63" s="19"/>
+      <c r="AKC63" s="19"/>
+      <c r="AKD63" s="19"/>
+      <c r="AKE63" s="19"/>
+      <c r="AKF63" s="19"/>
+      <c r="AKG63" s="19"/>
+      <c r="AKH63" s="19"/>
+      <c r="AKI63" s="19"/>
+      <c r="AKJ63" s="19"/>
+      <c r="AKK63" s="19"/>
+      <c r="AKL63" s="19"/>
+      <c r="AKM63" s="19"/>
+      <c r="AKN63" s="19"/>
+      <c r="AKO63" s="19"/>
+      <c r="AKP63" s="19"/>
+      <c r="AKQ63" s="19"/>
+      <c r="AKR63" s="19"/>
+      <c r="AKS63" s="19"/>
+      <c r="AKT63" s="19"/>
+      <c r="AKU63" s="19"/>
+      <c r="AKV63" s="19"/>
+      <c r="AKW63" s="19"/>
+      <c r="AKX63" s="19"/>
+      <c r="AKY63" s="19"/>
+      <c r="AKZ63" s="19"/>
+      <c r="ALA63" s="19"/>
+      <c r="ALB63" s="19"/>
+      <c r="ALC63" s="19"/>
+      <c r="ALD63" s="19"/>
+      <c r="ALE63" s="19"/>
+      <c r="ALF63" s="19"/>
+      <c r="ALG63" s="19"/>
+      <c r="ALH63" s="19"/>
+      <c r="ALI63" s="19"/>
+      <c r="ALJ63" s="19"/>
+      <c r="ALK63" s="19"/>
+      <c r="ALL63" s="19"/>
+      <c r="ALM63" s="19"/>
+      <c r="ALN63" s="19"/>
+      <c r="ALO63" s="19"/>
+      <c r="ALP63" s="19"/>
+      <c r="ALQ63" s="19"/>
+      <c r="ALR63" s="19"/>
+      <c r="ALS63" s="19"/>
+      <c r="ALT63" s="19"/>
+      <c r="ALU63" s="19"/>
+      <c r="ALV63" s="19"/>
+      <c r="ALW63" s="19"/>
+      <c r="ALX63" s="19"/>
+      <c r="ALY63" s="19"/>
+      <c r="ALZ63" s="19"/>
+      <c r="AMA63" s="19"/>
+      <c r="AMB63" s="19"/>
+      <c r="AMC63" s="19"/>
+      <c r="AMD63" s="19"/>
+      <c r="AME63" s="19"/>
+      <c r="AMF63" s="19"/>
+      <c r="AMG63" s="19"/>
+      <c r="AMH63" s="19"/>
+      <c r="AMI63" s="19"/>
+      <c r="AMJ63" s="19"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-    </row>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="9">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2 A6:A7 A10 A13 A25:A26" type="list">
@@ -4830,7 +3706,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4892,13 +3768,13 @@
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4926,13 +3802,13 @@
     </row>
     <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4988,13 +3864,13 @@
     </row>
     <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5022,7 +3898,7 @@
     </row>
     <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>138</v>
@@ -5056,7 +3932,7 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>140</v>
@@ -5090,7 +3966,7 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>142</v>
@@ -5124,7 +4000,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>84</v>
@@ -5213,81 +4089,81 @@
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="AMJ1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="AMJ1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="18" t="str">
+      <c r="C2" s="20" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-05-13  12-48</v>
-      </c>
-      <c r="D2" s="18" t="s">
+        <v>2024-08-27  10-29</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="AMJ2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="AMJ2" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
